--- a/QALD9-Plus-testing/baseline-model/baseline_dbpedia_wikidata/baseline_comparison_results_mistral.xlsx
+++ b/QALD9-Plus-testing/baseline-model/baseline_dbpedia_wikidata/baseline_comparison_results_mistral.xlsx
@@ -1,96 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\baseline-model\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CA4CEE-780B-464C-8436-713247EB1344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>expected_answers</t>
-  </si>
-  <si>
-    <t>mistral_answers</t>
-  </si>
-  <si>
-    <t>is_correct</t>
-  </si>
-  <si>
-    <t>In which year was Rachel Stevens born?</t>
-  </si>
-  <si>
-    <t>['1978']</t>
-  </si>
-  <si>
-    <t>['1927-07-20T00:00:00Z']</t>
-  </si>
-  <si>
-    <t>Give me the capitals of all countries that the Himalayas run through.</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q1362', 'http://www.wikidata.org/entity/Q3037', 'http://www.wikidata.org/entity/Q37400', 'http://www.wikidata.org/entity/Q5838', 'http://www.wikidata.org/entity/Q9270', 'http://www.wikidata.org/entity/Q956', 'http://www.wikidata.org/entity/Q987']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q61']</t>
-  </si>
-  <si>
-    <t>Give me the birthdays of all actors of the television show Charmed.</t>
-  </si>
-  <si>
-    <t>['1971-04-12T00:00:00Z', '1972-12-19T00:00:00Z', '1973-09-05T00:00:00Z', '1973-12-03T00:00:00Z']</t>
-  </si>
-  <si>
-    <t>['1915-02-06T00:00:00Z', '1929-10-31T00:00:00Z', '1930-06-11T00:00:00Z', '1930-07-22T00:00:00Z', '1930-12-06T00:00:00Z', '1931-02-26T00:00:00Z', '1934-05-28T00:00:00Z', '1935-01-12T00:00:00Z', '1935-04-05T00:00:00Z', '1940-06-24T00:00:00Z', '1954-03-13T00:00:00Z', '1972-05-10T00:00:00Z']</t>
-  </si>
-  <si>
-    <t>What is the capital of Canada?</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q1930']</t>
-  </si>
-  <si>
-    <t>['http://www.wikidata.org/entity/Q216']</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -105,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -429,82 +420,558 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>question</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>expected_answers</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>mistral_answers</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>is_correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>What is the highest mountain?</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q123374100']</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q123374100']</t>
+        </is>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>How many films did Leonardo DiCaprio star in?</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>What is the most frequent cause of death?</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q12152']</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q12152', '10960']</t>
+        </is>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>What is the highest mountain in Italy?</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q102174232']</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q102174232']</t>
+        </is>
       </c>
       <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Who was the doctoral supervisor of Albert Einstein?</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q116635', 'http://www.wikidata.org/entity/Q4175282', 'http://www.wikidata.org/entity/Q97154']</t>
+        </is>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>When was John Adams born?</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>['1735-10-30T00:00:00Z']</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['1864-09-14T00:00:00Z']</t>
+        </is>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>how much is the total population of european union?</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>['447706209']</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['447706209']</t>
+        </is>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Give me the currency of China.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q39099']</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q39099']</t>
+        </is>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Give me all islands that belong to Japan.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">['http://www.wikidata.org/entity/Q100695440', 'http://www.wikidata.org/entity/Q1019313', 'http://www.wikidata.org/entity/Q102245375', 'http://www.wikidata.org/entity/Q1039445', 'http://www.wikidata.org/entity/Q104186080', 'http://www.wikidata.org/entity/Q10449219', 'http://www.wikidata.org/entity/Q1047492', 'http://www.wikidata.org/entity/Q1061394', 'http://www.wikidata.org/entity/Q106150403', 'http://www.wikidata.org/entity/Q106363078', 'http://www.wikidata.org/entity/Q1072125', 'http://www.wikidata.org/entity/Q1083890', 'http://www.wikidata.org/entity/Q10855760', 'http://www.wikidata.org/entity/Q10855761', 'http://www.wikidata.org/entity/Q10856210', 'http://www.wikidata.org/entity/Q10859834', 'http://www.wikidata.org/entity/Q10860535', 'http://www.wikidata.org/entity/Q10889854', 'http://www.wikidata.org/entity/Q109368351', 'http://www.wikidata.org/entity/Q10938711', 'http://www.wikidata.org/entity/Q109405713', 'http://www.wikidata.org/entity/Q10943140', 'http://www.wikidata.org/entity/Q109673419', 'http://www.wikidata.org/entity/Q1111504', 'http://www.wikidata.org/entity/Q112224546', 'http://www.wikidata.org/entity/Q11234719', 'http://www.wikidata.org/entity/Q11241368', 'http://www.wikidata.org/entity/Q11261668', 'http://www.wikidata.org/entity/Q112673064', 'http://www.wikidata.org/entity/Q11276631', 'http://www.wikidata.org/entity/Q11285385', 'http://www.wikidata.org/entity/Q11286923', 'http://www.wikidata.org/entity/Q11353972', 'http://www.wikidata.org/entity/Q11354008', 'http://www.wikidata.org/entity/Q11356195', 'http://www.wikidata.org/entity/Q11357220', 'http://www.wikidata.org/entity/Q11358913', 'http://www.wikidata.org/entity/Q11360086', 'http://www.wikidata.org/entity/Q11360847', 'http://www.wikidata.org/entity/Q11361905', 'http://www.wikidata.org/entity/Q11362796', 'http://www.wikidata.org/entity/Q11362797', 'http://www.wikidata.org/entity/Q11362799', 'http://www.wikidata.org/entity/Q11369263', 'http://www.wikidata.org/entity/Q11369927', 'http://www.wikidata.org/entity/Q11370029', 'http://www.wikidata.org/entity/Q11370104', 'http://www.wikidata.org/entity/Q11371742', 'http://www.wikidata.org/entity/Q11373491', 'http://www.wikidata.org/entity/Q11376329', 'http://www.wikidata.org/entity/Q11377524', 'http://www.wikidata.org/entity/Q11378204', 'http://www.wikidata.org/entity/Q11379228', 'http://www.wikidata.org/entity/Q11379335', 'http://www.wikidata.org/entity/Q11382608', 'http://www.wikidata.org/entity/Q11383201', 'http://www.wikidata.org/entity/Q11383217', 'http://www.wikidata.org/entity/Q11385812', 'http://www.wikidata.org/entity/Q11386818', 'http://www.wikidata.org/entity/Q11390867', 'http://www.wikidata.org/entity/Q11390868', 'http://www.wikidata.org/entity/Q11392330', 'http://www.wikidata.org/entity/Q11394726', 'http://www.wikidata.org/entity/Q11395612', 'http://www.wikidata.org/entity/Q11395786', 'http://www.wikidata.org/entity/Q11397118', 'http://www.wikidata.org/entity/Q11398556', 'http://www.wikidata.org/entity/Q11399769', 'http://www.wikidata.org/entity/Q11401908', 'http://www.wikidata.org/entity/Q11402215', 'http://www.wikidata.org/entity/Q11402223', 'http://www.wikidata.org/entity/Q11407776', 'http://www.wikidata.org/entity/Q11409587', 'http://www.wikidata.org/entity/Q11410659', 'http://www.wikidata.org/entity/Q11415949', 'http://www.wikidata.org/entity/Q11415951', 'http://www.wikidata.org/entity/Q11415952', 'http://www.wikidata.org/entity/Q11415953', 'http://www.wikidata.org/entity/Q11416626', 'http://www.wikidata.org/entity/Q11418533', 'http://www.wikidata.org/entity/Q11419386', 'http://www.wikidata.org/entity/Q11419637', 'http://www.wikidata.org/entity/Q11420237', 'http://www.wikidata.org/entity/Q11424450', 'http://www.wikidata.org/entity/Q11424752', 'http://www.wikidata.org/entity/Q11425641', 'http://www.wikidata.org/entity/Q11430798', 'http://www.wikidata.org/entity/Q11431830', 'http://www.wikidata.org/entity/Q11432478', 'http://www.wikidata.org/entity/Q11434172', 'http://www.wikidata.org/entity/Q11434804', 'http://www.wikidata.org/entity/Q11434805', 'http://www.wikidata.org/entity/Q11434806', 'http://www.wikidata.org/entity/Q11434807', 'http://www.wikidata.org/entity/Q11434809', 'http://www.wikidata.org/entity/Q11434813', 'http://www.wikidata.org/entity/Q11434815', 'http://www.wikidata.org/entity/Q11434816', 'http://www.wikidata.org/entity/Q11434819', 'http://www.wikidata.org/entity/Q11435005', 'http://www.wikidata.org/entity/Q11435006', 'http://www.wikidata.org/entity/Q11436454', 'http://www.wikidata.org/entity/Q11436765', 'http://www.wikidata.org/entity/Q11437275', 'http://www.wikidata.org/entity/Q11438136', 'http://www.wikidata.org/entity/Q11438379', 'http://www.wikidata.org/entity/Q11439590', 'http://www.wikidata.org/entity/Q11442082', 'http://www.wikidata.org/entity/Q11443237', 'http://www.wikidata.org/entity/Q11445536', 'http://www.wikidata.org/entity/Q11446412', 'http://www.wikidata.org/entity/Q11447403', 'http://www.wikidata.org/entity/Q11447404', 'http://www.wikidata.org/entity/Q11449014', 'http://www.wikidata.org/entity/Q11449464', 'http://www.wikidata.org/entity/Q11450585', 'http://www.wikidata.org/entity/Q11454772', 'http://www.wikidata.org/entity/Q11458850', 'http://www.wikidata.org/entity/Q11459344', 'http://www.wikidata.org/entity/Q11459579', 'http://www.wikidata.org/entity/Q11460065', 'http://www.wikidata.org/entity/Q11460438', 'http://www.wikidata.org/entity/Q11464517', 'http://www.wikidata.org/entity/Q11465691', 'http://www.wikidata.org/entity/Q11474307', 'http://www.wikidata.org/entity/Q11474346', 'http://www.wikidata.org/entity/Q11475712', 'http://www.wikidata.org/entity/Q11476827', 'http://www.wikidata.org/entity/Q11476897', 'http://www.wikidata.org/entity/Q11477129', 'http://www.wikidata.org/entity/Q11477305', 'http://www.wikidata.org/entity/Q11477410', 'http://www.wikidata.org/entity/Q11481155', 'http://www.wikidata.org/entity/Q11482668', 'http://www.wikidata.org/entity/Q11482669', 'http://www.wikidata.org/entity/Q11483492', 'http://www.wikidata.org/entity/Q11483589', 'http://www.wikidata.org/entity/Q11483827', 'http://www.wikidata.org/entity/Q11484404', 'http://www.wikidata.org/entity/Q11486132', 'http://www.wikidata.org/entity/Q11486908', 'http://www.wikidata.org/entity/Q11486909', 'http://www.wikidata.org/entity/Q11486910', 'http://www.wikidata.org/entity/Q11486911', 'http://www.wikidata.org/entity/Q11487067', 'http://www.wikidata.org/entity/Q11487395', 'http://www.wikidata.org/entity/Q11488768', 'http://www.wikidata.org/entity/Q11489067', 'http://www.wikidata.org/entity/Q11489240', 'http://www.wikidata.org/entity/Q11489251', 'http://www.wikidata.org/entity/Q11490807', 'http://www.wikidata.org/entity/Q11491460', 'http://www.wikidata.org/entity/Q11491674', 'http://www.wikidata.org/entity/Q11492404', 'http://www.wikidata.org/entity/Q11492410', 'http://www.wikidata.org/entity/Q11492883', 'http://www.wikidata.org/entity/Q11492884', 'http://www.wikidata.org/entity/Q11496323', 'http://www.wikidata.org/entity/Q11496324', 'http://www.wikidata.org/entity/Q11496670', 'http://www.wikidata.org/entity/Q11497087', 'http://www.wikidata.org/entity/Q11497519', 'http://www.wikidata.org/entity/Q11500406', 'http://www.wikidata.org/entity/Q11501924', 'http://www.wikidata.org/entity/Q11502024', 'http://www.wikidata.org/entity/Q11502876', 'http://www.wikidata.org/entity/Q11504920', 'http://www.wikidata.org/entity/Q11505281', 'http://www.wikidata.org/entity/Q11505343', 'http://www.wikidata.org/entity/Q11511249', 'http://www.wikidata.org/entity/Q11516644', 'http://www.wikidata.org/entity/Q11520216', 'http://www.wikidata.org/entity/Q11530091', 'http://www.wikidata.org/entity/Q11530093', 'http://www.wikidata.org/entity/Q11532746', 'http://www.wikidata.org/entity/Q11533729', 'http://www.wikidata.org/entity/Q11542683', 'http://www.wikidata.org/entity/Q11542685', 'http://www.wikidata.org/entity/Q11543672', 'http://www.wikidata.org/entity/Q11544654', 'http://www.wikidata.org/entity/Q11544655', 'http://www.wikidata.org/entity/Q11545996', 'http://www.wikidata.org/entity/Q11547731', 'http://www.wikidata.org/entity/Q11548193', 'http://www.wikidata.org/entity/Q11548462', 'http://www.wikidata.org/entity/Q11550173', 'http://www.wikidata.org/entity/Q11550842', 'http://www.wikidata.org/entity/Q11550845', 'http://www.wikidata.org/entity/Q11551591', 'http://www.wikidata.org/entity/Q11552439', 'http://www.wikidata.org/entity/Q11552466', 'http://www.wikidata.org/entity/Q11552477', 'http://www.wikidata.org/entity/Q11552498', 'http://www.wikidata.org/entity/Q11552502', 'http://www.wikidata.org/entity/Q11552549', 'http://www.wikidata.org/entity/Q11553027', 'http://www.wikidata.org/entity/Q11555929', 'http://www.wikidata.org/entity/Q11555966', 'http://www.wikidata.org/entity/Q11556058', 'http://www.wikidata.org/entity/Q11556221', 'http://www.wikidata.org/entity/Q11558501', 'http://www.wikidata.org/entity/Q11558503', 'http://www.wikidata.org/entity/Q11558824', 'http://www.wikidata.org/entity/Q11559068', 'http://www.wikidata.org/entity/Q11559418', 'http://www.wikidata.org/entity/Q11559763', 'http://www.wikidata.org/entity/Q11559986', 'http://www.wikidata.org/entity/Q11562837', 'http://www.wikidata.org/entity/Q11563518', 'http://www.wikidata.org/entity/Q11567224', 'http://www.wikidata.org/entity/Q11567245', 'http://www.wikidata.org/entity/Q11567267', 'http://www.wikidata.org/entity/Q11572200', 'http://www.wikidata.org/entity/Q11572311', 'http://www.wikidata.org/entity/Q11573306', 'http://www.wikidata.org/entity/Q11573823', 'http://www.wikidata.org/entity/Q11574179', 'http://www.wikidata.org/entity/Q11574434', 'http://www.wikidata.org/entity/Q11574442', 'http://www.wikidata.org/entity/Q11574503', 'http://www.wikidata.org/entity/Q11574566', 'http://www.wikidata.org/entity/Q11574873', 'http://www.wikidata.org/entity/Q11576597', 'http://www.wikidata.org/entity/Q11577548', 'http://www.wikidata.org/entity/Q11577742', 'http://www.wikidata.org/entity/Q11578144', 'http://www.wikidata.org/entity/Q11578192', 'http://www.wikidata.org/entity/Q11578542', 'http://www.wikidata.org/entity/Q11579570', 'http://www.wikidata.org/entity/Q11580729', 'http://www.wikidata.org/entity/Q11580862', 'http://www.wikidata.org/entity/Q11580911', 'http://www.wikidata.org/entity/Q11581974', 'http://www.wikidata.org/entity/Q11581975', 'http://www.wikidata.org/entity/Q11583780', 'http://www.wikidata.org/entity/Q11583965', 'http://www.wikidata.org/entity/Q11588028', 'http://www.wikidata.org/entity/Q11588453', 'http://www.wikidata.org/entity/Q11589438', 'http://www.wikidata.org/entity/Q11589594', 'http://www.wikidata.org/entity/Q11591024', 'http://www.wikidata.org/entity/Q11592984', 'http://www.wikidata.org/entity/Q11596394', 'http://www.wikidata.org/entity/Q11598512', 'http://www.wikidata.org/entity/Q11598646', 'http://www.wikidata.org/entity/Q11598647', 'http://www.wikidata.org/entity/Q11599897', 'http://www.wikidata.org/entity/Q11602695', 'http://www.wikidata.org/entity/Q11603507', 'http://www.wikidata.org/entity/Q11603714', 'http://www.wikidata.org/entity/Q11604580', 'http://www.wikidata.org/entity/Q11604657', 'http://www.wikidata.org/entity/Q11605347', 'http://www.wikidata.org/entity/Q11607173', 'http://www.wikidata.org/entity/Q11610036', 'http://www.wikidata.org/entity/Q11612025', 'http://www.wikidata.org/entity/Q11613384', 'http://www.wikidata.org/entity/Q11614676', 'http://www.wikidata.org/entity/Q11616271', 'http://www.wikidata.org/entity/Q11622569', 'http://www.wikidata.org/entity/Q11625567', 'http://www.wikidata.org/entity/Q11626891', 'http://www.wikidata.org/entity/Q11630243', 'http://www.wikidata.org/entity/Q11631382', 'http://www.wikidata.org/entity/Q11633491', 'http://www.wikidata.org/entity/Q11633492', 'http://www.wikidata.org/entity/Q11634353', 'http://www.wikidata.org/entity/Q11635889', 'http://www.wikidata.org/entity/Q11636071', 'http://www.wikidata.org/entity/Q11636883', 'http://www.wikidata.org/entity/Q116373818', 'http://www.wikidata.org/entity/Q11645346', 'http://www.wikidata.org/entity/Q11645453', 'http://www.wikidata.org/entity/Q11647939', 'http://www.wikidata.org/entity/Q11648162', 'http://www.wikidata.org/entity/Q11648224', 'http://www.wikidata.org/entity/Q11650283', 'http://www.wikidata.org/entity/Q11650626', 'http://www.wikidata.org/entity/Q11652193', 'http://www.wikidata.org/entity/Q11652198', 'http://www.wikidata.org/entity/Q11652204', 'http://www.wikidata.org/entity/Q11652207', 'http://www.wikidata.org/entity/Q11655424', 'http://www.wikidata.org/entity/Q11657147', 'http://www.wikidata.org/entity/Q11657359', 'http://www.wikidata.org/entity/Q11659209', 'http://www.wikidata.org/entity/Q11661369', 'http://www.wikidata.org/entity/Q11661370', 'http://www.wikidata.org/entity/Q11661371', 'http://www.wikidata.org/entity/Q11661373', 'http://www.wikidata.org/entity/Q11662600', 'http://www.wikidata.org/entity/Q11664922', 'http://www.wikidata.org/entity/Q11664932', 'http://www.wikidata.org/entity/Q11665527', 'http://www.wikidata.org/entity/Q11665758', 'http://www.wikidata.org/entity/Q11665759', 'http://www.wikidata.org/entity/Q11667955', 'http://www.wikidata.org/entity/Q11667995', 'http://www.wikidata.org/entity/Q11668024', 'http://www.wikidata.org/entity/Q11668037', 'http://www.wikidata.org/entity/Q11668718', 'http://www.wikidata.org/entity/Q11669590', 'http://www.wikidata.org/entity/Q11669595', 'http://www.wikidata.org/entity/Q11669597', 'http://www.wikidata.org/entity/Q11669598', 'http://www.wikidata.org/entity/Q11669599', 'http://www.wikidata.org/entity/Q11669603', 'http://www.wikidata.org/entity/Q11669605', 'http://www.wikidata.org/entity/Q11670635', 'http://www.wikidata.org/entity/Q11673959', 'http://www.wikidata.org/entity/Q11674270', 'http://www.wikidata.org/entity/Q11675635', 'http://www.wikidata.org/entity/Q11675694', 'http://www.wikidata.org/entity/Q11675705', 'http://www.wikidata.org/entity/Q11675721', 'http://www.wikidata.org/entity/Q11675825', 'http://www.wikidata.org/entity/Q11676467', 'http://www.wikidata.org/entity/Q11677072', 'http://www.wikidata.org/entity/Q116774724', 'http://www.wikidata.org/entity/Q11678083', 'http://www.wikidata.org/entity/Q11678144', 'http://www.wikidata.org/entity/Q11678145', 'http://www.wikidata.org/entity/Q11678146', 'http://www.wikidata.org/entity/Q11678147', 'http://www.wikidata.org/entity/Q11678919', 'http://www.wikidata.org/entity/Q1204188', 'http://www.wikidata.org/entity/Q12122598', 'http://www.wikidata.org/entity/Q12168088', 'http://www.wikidata.org/entity/Q122792969', 'http://www.wikidata.org/entity/Q123092880', 'http://www.wikidata.org/entity/Q123554758', 'http://www.wikidata.org/entity/Q123554899', 'http://www.wikidata.org/entity/Q123563180', 'http://www.wikidata.org/entity/Q123568579', 'http://www.wikidata.org/entity/Q123592347', 'http://www.wikidata.org/entity/Q123592528', 'http://www.wikidata.org/entity/Q123630881', 'http://www.wikidata.org/entity/Q123631133', 'http://www.wikidata.org/entity/Q123848497', 'http://www.wikidata.org/entity/Q126617200', 'http://www.wikidata.org/entity/Q130120', 'http://www.wikidata.org/entity/Q130535', 'http://www.wikidata.org/entity/Q1344326', 'http://www.wikidata.org/entity/Q137962', 'http://www.wikidata.org/entity/Q13987', 'http://www.wikidata.org/entity/Q13991', 'http://www.wikidata.org/entity/Q1414691', 'http://www.wikidata.org/entity/Q145371', 'http://www.wikidata.org/entity/Q1475428', 'http://www.wikidata.org/entity/Q14948405', 'http://www.wikidata.org/entity/Q14948406', 'http://www.wikidata.org/entity/Q15231937', 'http://www.wikidata.org/entity/Q15233224', 'http://www.wikidata.org/entity/Q1532472', 'http://www.wikidata.org/entity/Q15914611', 'http://www.wikidata.org/entity/Q15914636', 'http://www.wikidata.org/entity/Q15914793', 'http://www.wikidata.org/entity/Q15914839', 'http://www.wikidata.org/entity/Q15914850', 'http://www.wikidata.org/entity/Q15914965', 'http://www.wikidata.org/entity/Q15915038', 'http://www.wikidata.org/entity/Q15915094', 'http://www.wikidata.org/entity/Q15915371', 'http://www.wikidata.org/entity/Q15915516', 'http://www.wikidata.org/entity/Q15915542', 'http://www.wikidata.org/entity/Q15915739', 'http://www.wikidata.org/entity/Q15915768', 'http://www.wikidata.org/entity/Q15915877', 'http://www.wikidata.org/entity/Q15915985', 'http://www.wikidata.org/entity/Q15916001', 'http://www.wikidata.org/entity/Q15916180', 'http://www.wikidata.org/entity/Q15916186', 'http://www.wikidata.org/entity/Q15916187', 'http://www.wikidata.org/entity/Q15916216', 'http://www.wikidata.org/entity/Q15916253', 'http://www.wikidata.org/entity/Q15916254', 'http://www.wikidata.org/entity/Q15916285', 'http://www.wikidata.org/entity/Q15916297', 'http://www.wikidata.org/entity/Q15916298', 'http://www.wikidata.org/entity/Q15916369', 'http://www.wikidata.org/entity/Q15916370', 'http://www.wikidata.org/entity/Q15916387', 'http://www.wikidata.org/entity/Q15916410', 'http://www.wikidata.org/entity/Q15916434', 'http://www.wikidata.org/entity/Q15916435', 'http://www.wikidata.org/entity/Q15916437', 'http://www.wikidata.org/entity/Q15916438', 'http://www.wikidata.org/entity/Q15916508', 'http://www.wikidata.org/entity/Q15923957', 'http://www.wikidata.org/entity/Q15924538', 'http://www.wikidata.org/entity/Q15925138', 'http://www.wikidata.org/entity/Q15925270', 'http://www.wikidata.org/entity/Q1676132', 'http://www.wikidata.org/entity/Q169589', 'http://www.wikidata.org/entity/Q17021654', 'http://www.wikidata.org/entity/Q17023687', 'http://www.wikidata.org/entity/Q17031459', 'http://www.wikidata.org/entity/Q17039990', 'http://www.wikidata.org/entity/Q17191315', 'http://www.wikidata.org/entity/Q17191378', 'http://www.wikidata.org/entity/Q17192049', 'http://www.wikidata.org/entity/Q17192826', 'http://www.wikidata.org/entity/Q17193690', 'http://www.wikidata.org/entity/Q17210135', 'http://www.wikidata.org/entity/Q17210185', 'http://www.wikidata.org/entity/Q17211889', 'http://www.wikidata.org/entity/Q17214084', 'http://www.wikidata.org/entity/Q17215469', 'http://www.wikidata.org/entity/Q17216064', 'http://www.wikidata.org/entity/Q17216375', 'http://www.wikidata.org/entity/Q17217423', 'http://www.wikidata.org/entity/Q17219919', 'http://www.wikidata.org/entity/Q17221048', 'http://www.wikidata.org/entity/Q17222656', 'http://www.wikidata.org/entity/Q17223389', 'http://www.wikidata.org/entity/Q17225029', 'http://www.wikidata.org/entity/Q17989148', 'http://www.wikidata.org/entity/Q17989626', 'http://www.wikidata.org/entity/Q17992764', 'http://www.wikidata.org/entity/Q17993734', 'http://www.wikidata.org/entity/Q17995776', 'http://www.wikidata.org/entity/Q18003098', 'http://www.wikidata.org/entity/Q18009413', 'http://www.wikidata.org/entity/Q18010599', 'http://www.wikidata.org/entity/Q1803811', 'http://www.wikidata.org/entity/Q18335728', 'http://www.wikidata.org/entity/Q18336591', 'http://www.wikidata.org/entity/Q18336657', 'http://www.wikidata.org/entity/Q18338827', 'http://www.wikidata.org/entity/Q18338974', 'http://www.wikidata.org/entity/Q18339013', 'http://www.wikidata.org/entity/Q18339157', 'http://www.wikidata.org/entity/Q18339362', 'http://www.wikidata.org/entity/Q18339537', 'http://www.wikidata.org/entity/Q18339548', 'http://www.wikidata.org/entity/Q18700735', 'http://www.wikidata.org/entity/Q187366', 'http://www.wikidata.org/entity/Q196701', 'http://www.wikidata.org/entity/Q19926707', 'http://www.wikidata.org/entity/Q19927579', 'http://www.wikidata.org/entity/Q19927913', 'http://www.wikidata.org/entity/Q19928028', 'http://www.wikidata.org/entity/Q1995509', 'http://www.wikidata.org/entity/Q19969455', 'http://www.wikidata.org/entity/Q19969456', 'http://www.wikidata.org/entity/Q19969457', 'http://www.wikidata.org/entity/Q19969459', 'http://www.wikidata.org/entity/Q19969461', 'http://www.wikidata.org/entity/Q19969462', 'http://www.wikidata.org/entity/Q19969463', 'http://www.wikidata.org/entity/Q20043639', 'http://www.wikidata.org/entity/Q20160219', 'http://www.wikidata.org/entity/Q2018422', 'http://www.wikidata.org/entity/Q20207875', 'http://www.wikidata.org/entity/Q20208336', 'http://www.wikidata.org/entity/Q20208605', 'http://www.wikidata.org/entity/Q20220282', 'http://www.wikidata.org/entity/Q20220291', 'http://www.wikidata.org/entity/Q20249559', 'http://www.wikidata.org/entity/Q20251315', 'http://www.wikidata.org/entity/Q20267482', 'http://www.wikidata.org/entity/Q20441459', 'http://www.wikidata.org/entity/Q20441495', 'http://www.wikidata.org/entity/Q20441538', 'http://www.wikidata.org/entity/Q20441672', 'http://www.wikidata.org/entity/Q20441835', 'http://www.wikidata.org/entity/Q20442833', 'http://www.wikidata.org/entity/Q20442886', 'http://www.wikidata.org/entity/Q20454159', 'http://www.wikidata.org/entity/Q20652984', 'http://www.wikidata.org/entity/Q20653009', 'http://www.wikidata.org/entity/Q20653020', 'http://www.wikidata.org/entity/Q20653048', 'http://www.wikidata.org/entity/Q20653083', 'http://www.wikidata.org/entity/Q20653128', 'http://www.wikidata.org/entity/Q20655767', 'http://www.wikidata.org/entity/Q20655779', 'http://www.wikidata.org/entity/Q20655824', 'http://www.wikidata.org/entity/Q20655829', 'http://www.wikidata.org/entity/Q20655854', 'http://www.wikidata.org/entity/Q20655861', 'http://www.wikidata.org/entity/Q20656218', 'http://www.wikidata.org/entity/Q20662194', 'http://www.wikidata.org/entity/Q20662421', 'http://www.wikidata.org/entity/Q20665543', 'http://www.wikidata.org/entity/Q20669152', 'http://www.wikidata.org/entity/Q20669173', 'http://www.wikidata.org/entity/Q20669188', 'http://www.wikidata.org/entity/Q20669201', 'http://www.wikidata.org/entity/Q20669474', 'http://www.wikidata.org/entity/Q20670485', 'http://www.wikidata.org/entity/Q20670486', 'http://www.wikidata.org/entity/Q20670489', 'http://www.wikidata.org/entity/Q20670490', 'http://www.wikidata.org/entity/Q20670802', 'http://www.wikidata.org/entity/Q20670818', 'http://www.wikidata.org/entity/Q20670842', 'http://www.wikidata.org/entity/Q20680346', 'http://www.wikidata.org/entity/Q20681784', 'http://www.wikidata.org/entity/Q20681836', 'http://www.wikidata.org/entity/Q20687296', 'http://www.wikidata.org/entity/Q20706572', 'http://www.wikidata.org/entity/Q20706579', 'http://www.wikidata.org/entity/Q20706699', 'http://www.wikidata.org/entity/Q20709285', 'http://www.wikidata.org/entity/Q2118388', 'http://www.wikidata.org/entity/Q21652956', 'http://www.wikidata.org/entity/Q21652975', 'http://www.wikidata.org/entity/Q21653337', 'http://www.wikidata.org/entity/Q21653909', 'http://www.wikidata.org/entity/Q21654565', 'http://www.wikidata.org/entity/Q2166413', 'http://www.wikidata.org/entity/Q220701', 'http://www.wikidata.org/entity/Q23069893', 'http://www.wikidata.org/entity/Q2407298', 'http://www.wikidata.org/entity/Q242176', 'http://www.wikidata.org/entity/Q24488445', 'http://www.wikidata.org/entity/Q247515', 'http://www.wikidata.org/entity/Q24871573', 'http://www.wikidata.org/entity/Q24872138', 'http://www.wikidata.org/entity/Q24875184', 'http://www.wikidata.org/entity/Q24898648', 'http://www.wikidata.org/entity/Q24902485', 'http://www.wikidata.org/entity/Q27560716', 'http://www.wikidata.org/entity/Q277035', 'http://www.wikidata.org/entity/Q28155659', 'http://www.wikidata.org/entity/Q285468', 'http://www.wikidata.org/entity/Q28682242', 'http://www.wikidata.org/entity/Q28682892', 'http://www.wikidata.org/entity/Q28682901', 'http://www.wikidata.org/entity/Q28683300', 'http://www.wikidata.org/entity/Q28684991', 'http://www.wikidata.org/entity/Q28684995', 'http://www.wikidata.org/entity/Q28687509', 'http://www.wikidata.org/entity/Q28687512', 'http://www.wikidata.org/entity/Q28687517', 'http://www.wikidata.org/entity/Q28687518', 'http://www.wikidata.org/entity/Q28687526', 'http://www.wikidata.org/entity/Q28687528', 'http://www.wikidata.org/entity/Q28687549', 'http://www.wikidata.org/entity/Q28687551', 'http://www.wikidata.org/entity/Q28687556', 'http://www.wikidata.org/entity/Q28687561', 'http://www.wikidata.org/entity/Q28687591', 'http://www.wikidata.org/entity/Q28693411', 'http://www.wikidata.org/entity/Q29980548', 'http://www.wikidata.org/entity/Q30925772', 'http://www.wikidata.org/entity/Q30925773', 'http://www.wikidata.org/entity/Q30931692', 'http://www.wikidata.org/entity/Q30931979', 'http://www.wikidata.org/entity/Q3108859', 'http://www.wikidata.org/entity/Q3199146', 'http://www.wikidata.org/entity/Q3285144', 'http://www.wikidata.org/entity/Q328533', 'http://www.wikidata.org/entity/Q3349795', 'http://www.wikidata.org/entity/Q339004', 'http://www.wikidata.org/entity/Q34783955', 'http://www.wikidata.org/entity/Q34783964', 'http://www.wikidata.org/entity/Q34783974', 'http://www.wikidata.org/entity/Q34784035', 'http://www.wikidata.org/entity/Q34784045', 'http://www.wikidata.org/entity/Q34784074', 'http://www.wikidata.org/entity/Q34784082', 'http://www.wikidata.org/entity/Q34784090', 'http://www.wikidata.org/entity/Q34784099', 'http://www.wikidata.org/entity/Q34784108', 'http://www.wikidata.org/entity/Q34784117', 'http://www.wikidata.org/entity/Q34784145', 'http://www.wikidata.org/entity/Q34784154', 'http://www.wikidata.org/entity/Q34784163', 'http://www.wikidata.org/entity/Q34784172', 'http://www.wikidata.org/entity/Q34784180', 'http://www.wikidata.org/entity/Q34784236', 'http://www.wikidata.org/entity/Q34784245', 'http://www.wikidata.org/entity/Q34784264', 'http://www.wikidata.org/entity/Q34784309', 'http://www.wikidata.org/entity/Q34784328', 'http://www.wikidata.org/entity/Q34784514', 'http://www.wikidata.org/entity/Q34785535', 'http://www.wikidata.org/entity/Q34785547', 'http://www.wikidata.org/entity/Q34787923', 'http://www.wikidata.org/entity/Q34787927', 'http://www.wikidata.org/entity/Q34787936', 'http://www.wikidata.org/entity/Q34787940', 'http://www.wikidata.org/entity/Q34787945', 'http://www.wikidata.org/entity/Q34787948', 'http://www.wikidata.org/entity/Q34787955', 'http://www.wikidata.org/entity/Q34787960', 'http://www.wikidata.org/entity/Q34787964', 'http://www.wikidata.org/entity/Q34787968', 'http://www.wikidata.org/entity/Q34787980', 'http://www.wikidata.org/entity/Q34787985', 'http://www.wikidata.org/entity/Q34788048', 'http://www.wikidata.org/entity/Q34788086', 'http://www.wikidata.org/entity/Q34788091', 'http://www.wikidata.org/entity/Q34788095', 'http://www.wikidata.org/entity/Q34788578', 'http://www.wikidata.org/entity/Q34788581', 'http://www.wikidata.org/entity/Q34788617', 'http://www.wikidata.org/entity/Q34788621', 'http://www.wikidata.org/entity/Q34788699', 'http://www.wikidata.org/entity/Q34795633', 'http://www.wikidata.org/entity/Q34795652', 'http://www.wikidata.org/entity/Q34795659', 'http://www.wikidata.org/entity/Q34795671', 'http://www.wikidata.org/entity/Q34795678', 'http://www.wikidata.org/entity/Q34795686', 'http://www.wikidata.org/entity/Q34795693', 'http://www.wikidata.org/entity/Q34795722', 'http://www.wikidata.org/entity/Q34795734', 'http://www.wikidata.org/entity/Q34795744', 'http://www.wikidata.org/entity/Q34795753', 'http://www.wikidata.org/entity/Q34795770', 'http://www.wikidata.org/entity/Q34795778', 'http://www.wikidata.org/entity/Q34795788', 'http://www.wikidata.org/entity/Q34795804', 'http://www.wikidata.org/entity/Q34795808', 'http://www.wikidata.org/entity/Q34795832', 'http://www.wikidata.org/entity/Q34795844', 'http://www.wikidata.org/entity/Q34795856', 'http://www.wikidata.org/entity/Q34795867', 'http://www.wikidata.org/entity/Q34795874', 'http://www.wikidata.org/entity/Q34795887', 'http://www.wikidata.org/entity/Q34795901', 'http://www.wikidata.org/entity/Q34795907', 'http://www.wikidata.org/entity/Q34795913', 'http://www.wikidata.org/entity/Q34795937', 'http://www.wikidata.org/entity/Q34795942', 'http://www.wikidata.org/entity/Q34795954', 'http://www.wikidata.org/entity/Q34795961', 'http://www.wikidata.org/entity/Q34795967', 'http://www.wikidata.org/entity/Q34795972', 'http://www.wikidata.org/entity/Q34795984', 'http://www.wikidata.org/entity/Q34795990', 'http://www.wikidata.org/entity/Q34795996', 'http://www.wikidata.org/entity/Q34796002', 'http://www.wikidata.org/entity/Q34796008', 'http://www.wikidata.org/entity/Q34796015', 'http://www.wikidata.org/entity/Q34796021', 'http://www.wikidata.org/entity/Q34796028', 'http://www.wikidata.org/entity/Q34796033', 'http://www.wikidata.org/entity/Q34796043', 'http://www.wikidata.org/entity/Q34796055', 'http://www.wikidata.org/entity/Q34796071', 'http://www.wikidata.org/entity/Q34796095', 'http://www.wikidata.org/entity/Q34796102', 'http://www.wikidata.org/entity/Q34796119', 'http://www.wikidata.org/entity/Q34796134', 'http://www.wikidata.org/entity/Q34796146', 'http://www.wikidata.org/entity/Q34796151', 'http://www.wikidata.org/entity/Q34796158', 'http://www.wikidata.org/entity/Q34796163', 'http://www.wikidata.org/entity/Q34796170', 'http://www.wikidata.org/entity/Q34796175', 'http://www.wikidata.org/entity/Q34796180', 'http://www.wikidata.org/entity/Q34861379', 'http://www.wikidata.org/entity/Q34861390', 'http://www.wikidata.org/entity/Q34861523', 'http://www.wikidata.org/entity/Q34861562', 'http://www.wikidata.org/entity/Q34861821', 'http://www.wikidata.org/entity/Q34862653', 'http://www.wikidata.org/entity/Q3579074', 'http://www.wikidata.org/entity/Q3594049', 'http://www.wikidata.org/entity/Q3623017', 'http://www.wikidata.org/entity/Q3785700', 'http://www.wikidata.org/entity/Q382082', 'http://www.wikidata.org/entity/Q38266996', 'http://www.wikidata.org/entity/Q385313', 'http://www.wikidata.org/entity/Q385710', 'http://www.wikidata.org/entity/Q393031', 'http://www.wikidata.org/entity/Q398636', 'http://www.wikidata.org/entity/Q432124', 'http://www.wikidata.org/entity/Q4419675', 'http://www.wikidata.org/entity/Q4419682', 'http://www.wikidata.org/entity/Q4478859', 'http://www.wikidata.org/entity/Q4497854', 'http://www.wikidata.org/entity/Q4518163', 'http://www.wikidata.org/entity/Q4518364', 'http://www.wikidata.org/entity/Q4518483', 'http://www.wikidata.org/entity/Q4518560', 'http://www.wikidata.org/entity/Q4518632', 'http://www.wikidata.org/entity/Q4518662', 'http://www.wikidata.org/entity/Q4518698', 'http://www.wikidata.org/entity/Q4518728', 'http://www.wikidata.org/entity/Q4518764', 'http://www.wikidata.org/entity/Q4518813', 'http://www.wikidata.org/entity/Q4518835', 'http://www.wikidata.org/entity/Q4518882', 'http://www.wikidata.org/entity/Q4518914', 'http://www.wikidata.org/entity/Q4518946', 'http://www.wikidata.org/entity/Q4519060', 'http://www.wikidata.org/entity/Q4519100', 'http://www.wikidata.org/entity/Q4519127', 'http://www.wikidata.org/entity/Q4519202', 'http://www.wikidata.org/entity/Q4519334', 'http://www.wikidata.org/entity/Q4519416', 'http://www.wikidata.org/entity/Q4519472', 'http://www.wikidata.org/entity/Q4520401', 'http://www.wikidata.org/entity/Q4520501', 'http://www.wikidata.org/entity/Q4520623', 'http://www.wikidata.org/entity/Q4520676', 'http://www.wikidata.org/entity/Q4520740', 'http://www.wikidata.org/entity/Q473472', 'http://www.wikidata.org/entity/Q474560', 'http://www.wikidata.org/entity/Q48752569', 'http://www.wikidata.org/entity/Q48752621', 'http://www.wikidata.org/entity/Q490610', 'http://www.wikidata.org/entity/Q49333374', 'http://www.wikidata.org/entity/Q494914', 'http://www.wikidata.org/entity/Q49493', 'http://www.wikidata.org/entity/Q49500', 'http://www.wikidata.org/entity/Q49507', 'http://www.wikidata.org/entity/Q49511', 'http://www.wikidata.org/entity/Q49513', 'http://www.wikidata.org/entity/Q49631357', 'http://www.wikidata.org/entity/Q49631388', 'http://www.wikidata.org/entity/Q49631402', 'http://www.wikidata.org/entity/Q49631408', 'http://www.wikidata.org/entity/Q49631415', 'http://www.wikidata.org/entity/Q49631418', 'http://www.wikidata.org/entity/Q49631448', 'http://www.wikidata.org/entity/Q49631449', 'http://www.wikidata.org/entity/Q49631468', 'http://www.wikidata.org/entity/Q49631471', 'http://www.wikidata.org/entity/Q49631484', 'http://www.wikidata.org/entity/Q49631487', 'http://www.wikidata.org/entity/Q49631489', 'http://www.wikidata.org/entity/Q49631490', 'http://www.wikidata.org/entity/Q49631492', 'http://www.wikidata.org/entity/Q49631493', 'http://www.wikidata.org/entity/Q49631495', 'http://www.wikidata.org/entity/Q49631497', 'http://www.wikidata.org/entity/Q49631501', 'http://www.wikidata.org/entity/Q49631532', 'http://www.wikidata.org/entity/Q49631657', 'http://www.wikidata.org/entity/Q49631707', 'http://www.wikidata.org/entity/Q49631712', 'http://www.wikidata.org/entity/Q49631766', 'http://www.wikidata.org/entity/Q49631801', 'http://www.wikidata.org/entity/Q49631841', 'http://www.wikidata.org/entity/Q49631849', 'http://www.wikidata.org/entity/Q49631851', 'http://www.wikidata.org/entity/Q49631852', 'http://www.wikidata.org/entity/Q49631855', 'http://www.wikidata.org/entity/Q49631874', 'http://www.wikidata.org/entity/Q49631881', 'http://www.wikidata.org/entity/Q49631883', </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">['http://www.wikidata.org/entity/Q100695440', 'http://www.wikidata.org/entity/Q1019313', 'http://www.wikidata.org/entity/Q102245375', 'http://www.wikidata.org/entity/Q1039445', 'http://www.wikidata.org/entity/Q104186080', 'http://www.wikidata.org/entity/Q10449219', 'http://www.wikidata.org/entity/Q1047492', 'http://www.wikidata.org/entity/Q1061394', 'http://www.wikidata.org/entity/Q106150403', 'http://www.wikidata.org/entity/Q106363078', 'http://www.wikidata.org/entity/Q1072125', 'http://www.wikidata.org/entity/Q1083890', 'http://www.wikidata.org/entity/Q10855760', 'http://www.wikidata.org/entity/Q10855761', 'http://www.wikidata.org/entity/Q10856210', 'http://www.wikidata.org/entity/Q10859834', 'http://www.wikidata.org/entity/Q10860535', 'http://www.wikidata.org/entity/Q10889854', 'http://www.wikidata.org/entity/Q109368351', 'http://www.wikidata.org/entity/Q10938711', 'http://www.wikidata.org/entity/Q109405713', 'http://www.wikidata.org/entity/Q10943140', 'http://www.wikidata.org/entity/Q109673419', 'http://www.wikidata.org/entity/Q1111504', 'http://www.wikidata.org/entity/Q112224546', 'http://www.wikidata.org/entity/Q11234719', 'http://www.wikidata.org/entity/Q11241368', 'http://www.wikidata.org/entity/Q11261668', 'http://www.wikidata.org/entity/Q112673064', 'http://www.wikidata.org/entity/Q11276631', 'http://www.wikidata.org/entity/Q11285385', 'http://www.wikidata.org/entity/Q11286923', 'http://www.wikidata.org/entity/Q11353972', 'http://www.wikidata.org/entity/Q11354008', 'http://www.wikidata.org/entity/Q11356195', 'http://www.wikidata.org/entity/Q11357220', 'http://www.wikidata.org/entity/Q11358913', 'http://www.wikidata.org/entity/Q11360086', 'http://www.wikidata.org/entity/Q11360847', 'http://www.wikidata.org/entity/Q11361905', 'http://www.wikidata.org/entity/Q11362796', 'http://www.wikidata.org/entity/Q11362797', 'http://www.wikidata.org/entity/Q11362799', 'http://www.wikidata.org/entity/Q11369263', 'http://www.wikidata.org/entity/Q11369927', 'http://www.wikidata.org/entity/Q11370029', 'http://www.wikidata.org/entity/Q11370104', 'http://www.wikidata.org/entity/Q11371742', 'http://www.wikidata.org/entity/Q11373491', 'http://www.wikidata.org/entity/Q11376329', 'http://www.wikidata.org/entity/Q11377524', 'http://www.wikidata.org/entity/Q11378204', 'http://www.wikidata.org/entity/Q11379228', 'http://www.wikidata.org/entity/Q11379335', 'http://www.wikidata.org/entity/Q11382608', 'http://www.wikidata.org/entity/Q11383201', 'http://www.wikidata.org/entity/Q11383217', 'http://www.wikidata.org/entity/Q11385812', 'http://www.wikidata.org/entity/Q11386818', 'http://www.wikidata.org/entity/Q11390867', 'http://www.wikidata.org/entity/Q11390868', 'http://www.wikidata.org/entity/Q11392330', 'http://www.wikidata.org/entity/Q11394726', 'http://www.wikidata.org/entity/Q11395612', 'http://www.wikidata.org/entity/Q11395786', 'http://www.wikidata.org/entity/Q11397118', 'http://www.wikidata.org/entity/Q11398556', 'http://www.wikidata.org/entity/Q11399769', 'http://www.wikidata.org/entity/Q11401908', 'http://www.wikidata.org/entity/Q11402215', 'http://www.wikidata.org/entity/Q11402223', 'http://www.wikidata.org/entity/Q11407776', 'http://www.wikidata.org/entity/Q11409587', 'http://www.wikidata.org/entity/Q11410659', 'http://www.wikidata.org/entity/Q11415949', 'http://www.wikidata.org/entity/Q11415951', 'http://www.wikidata.org/entity/Q11415952', 'http://www.wikidata.org/entity/Q11415953', 'http://www.wikidata.org/entity/Q11416626', 'http://www.wikidata.org/entity/Q11418533', 'http://www.wikidata.org/entity/Q11419386', 'http://www.wikidata.org/entity/Q11419637', 'http://www.wikidata.org/entity/Q11420237', 'http://www.wikidata.org/entity/Q11424450', 'http://www.wikidata.org/entity/Q11424752', 'http://www.wikidata.org/entity/Q11425641', 'http://www.wikidata.org/entity/Q11430798', 'http://www.wikidata.org/entity/Q11431830', 'http://www.wikidata.org/entity/Q11432478', 'http://www.wikidata.org/entity/Q11434172', 'http://www.wikidata.org/entity/Q11434804', 'http://www.wikidata.org/entity/Q11434805', 'http://www.wikidata.org/entity/Q11434806', 'http://www.wikidata.org/entity/Q11434807', 'http://www.wikidata.org/entity/Q11434809', 'http://www.wikidata.org/entity/Q11434813', 'http://www.wikidata.org/entity/Q11434815', 'http://www.wikidata.org/entity/Q11434816', 'http://www.wikidata.org/entity/Q11434819', 'http://www.wikidata.org/entity/Q11435005', 'http://www.wikidata.org/entity/Q11435006', 'http://www.wikidata.org/entity/Q11436454', 'http://www.wikidata.org/entity/Q11436765', 'http://www.wikidata.org/entity/Q11437275', 'http://www.wikidata.org/entity/Q11438136', 'http://www.wikidata.org/entity/Q11438379', 'http://www.wikidata.org/entity/Q11439590', 'http://www.wikidata.org/entity/Q11442082', 'http://www.wikidata.org/entity/Q11443237', 'http://www.wikidata.org/entity/Q11445536', 'http://www.wikidata.org/entity/Q11446412', 'http://www.wikidata.org/entity/Q11447403', 'http://www.wikidata.org/entity/Q11447404', 'http://www.wikidata.org/entity/Q11449014', 'http://www.wikidata.org/entity/Q11449464', 'http://www.wikidata.org/entity/Q11450585', 'http://www.wikidata.org/entity/Q11454772', 'http://www.wikidata.org/entity/Q11458850', 'http://www.wikidata.org/entity/Q11459344', 'http://www.wikidata.org/entity/Q11459579', 'http://www.wikidata.org/entity/Q11460065', 'http://www.wikidata.org/entity/Q11460438', 'http://www.wikidata.org/entity/Q11464517', 'http://www.wikidata.org/entity/Q11465691', 'http://www.wikidata.org/entity/Q11474307', 'http://www.wikidata.org/entity/Q11474346', 'http://www.wikidata.org/entity/Q11475712', 'http://www.wikidata.org/entity/Q11476827', 'http://www.wikidata.org/entity/Q11476897', 'http://www.wikidata.org/entity/Q11477129', 'http://www.wikidata.org/entity/Q11477305', 'http://www.wikidata.org/entity/Q11477410', 'http://www.wikidata.org/entity/Q11481155', 'http://www.wikidata.org/entity/Q11482668', 'http://www.wikidata.org/entity/Q11482669', 'http://www.wikidata.org/entity/Q11483492', 'http://www.wikidata.org/entity/Q11483589', 'http://www.wikidata.org/entity/Q11483827', 'http://www.wikidata.org/entity/Q11484404', 'http://www.wikidata.org/entity/Q11486132', 'http://www.wikidata.org/entity/Q11486908', 'http://www.wikidata.org/entity/Q11486909', 'http://www.wikidata.org/entity/Q11486910', 'http://www.wikidata.org/entity/Q11486911', 'http://www.wikidata.org/entity/Q11487067', 'http://www.wikidata.org/entity/Q11487395', 'http://www.wikidata.org/entity/Q11488768', 'http://www.wikidata.org/entity/Q11489067', 'http://www.wikidata.org/entity/Q11489240', 'http://www.wikidata.org/entity/Q11489251', 'http://www.wikidata.org/entity/Q11490807', 'http://www.wikidata.org/entity/Q11491460', 'http://www.wikidata.org/entity/Q11491674', 'http://www.wikidata.org/entity/Q11492404', 'http://www.wikidata.org/entity/Q11492410', 'http://www.wikidata.org/entity/Q11492883', 'http://www.wikidata.org/entity/Q11492884', 'http://www.wikidata.org/entity/Q11496323', 'http://www.wikidata.org/entity/Q11496324', 'http://www.wikidata.org/entity/Q11496670', 'http://www.wikidata.org/entity/Q11497087', 'http://www.wikidata.org/entity/Q11497519', 'http://www.wikidata.org/entity/Q11500406', 'http://www.wikidata.org/entity/Q11501924', 'http://www.wikidata.org/entity/Q11502024', 'http://www.wikidata.org/entity/Q11502876', 'http://www.wikidata.org/entity/Q11504920', 'http://www.wikidata.org/entity/Q11505281', 'http://www.wikidata.org/entity/Q11505343', 'http://www.wikidata.org/entity/Q11511249', 'http://www.wikidata.org/entity/Q11516644', 'http://www.wikidata.org/entity/Q11520216', 'http://www.wikidata.org/entity/Q11530091', 'http://www.wikidata.org/entity/Q11530093', 'http://www.wikidata.org/entity/Q11532746', 'http://www.wikidata.org/entity/Q11533729', 'http://www.wikidata.org/entity/Q11542683', 'http://www.wikidata.org/entity/Q11542685', 'http://www.wikidata.org/entity/Q11543672', 'http://www.wikidata.org/entity/Q11544654', 'http://www.wikidata.org/entity/Q11544655', 'http://www.wikidata.org/entity/Q11545996', 'http://www.wikidata.org/entity/Q11547731', 'http://www.wikidata.org/entity/Q11548193', 'http://www.wikidata.org/entity/Q11548462', 'http://www.wikidata.org/entity/Q11550173', 'http://www.wikidata.org/entity/Q11550842', 'http://www.wikidata.org/entity/Q11550845', 'http://www.wikidata.org/entity/Q11551591', 'http://www.wikidata.org/entity/Q11552439', 'http://www.wikidata.org/entity/Q11552466', 'http://www.wikidata.org/entity/Q11552477', 'http://www.wikidata.org/entity/Q11552498', 'http://www.wikidata.org/entity/Q11552502', 'http://www.wikidata.org/entity/Q11552549', 'http://www.wikidata.org/entity/Q11553027', 'http://www.wikidata.org/entity/Q11555929', 'http://www.wikidata.org/entity/Q11555966', 'http://www.wikidata.org/entity/Q11556058', 'http://www.wikidata.org/entity/Q11556221', 'http://www.wikidata.org/entity/Q11558501', 'http://www.wikidata.org/entity/Q11558503', 'http://www.wikidata.org/entity/Q11558824', 'http://www.wikidata.org/entity/Q11559068', 'http://www.wikidata.org/entity/Q11559418', 'http://www.wikidata.org/entity/Q11559763', 'http://www.wikidata.org/entity/Q11559986', 'http://www.wikidata.org/entity/Q11562837', 'http://www.wikidata.org/entity/Q11563518', 'http://www.wikidata.org/entity/Q11567224', 'http://www.wikidata.org/entity/Q11567245', 'http://www.wikidata.org/entity/Q11567267', 'http://www.wikidata.org/entity/Q11572200', 'http://www.wikidata.org/entity/Q11572311', 'http://www.wikidata.org/entity/Q11573306', 'http://www.wikidata.org/entity/Q11573823', 'http://www.wikidata.org/entity/Q11574179', 'http://www.wikidata.org/entity/Q11574434', 'http://www.wikidata.org/entity/Q11574442', 'http://www.wikidata.org/entity/Q11574503', 'http://www.wikidata.org/entity/Q11574566', 'http://www.wikidata.org/entity/Q11574873', 'http://www.wikidata.org/entity/Q11576597', 'http://www.wikidata.org/entity/Q11577548', 'http://www.wikidata.org/entity/Q11577742', 'http://www.wikidata.org/entity/Q11578144', 'http://www.wikidata.org/entity/Q11578192', 'http://www.wikidata.org/entity/Q11578542', 'http://www.wikidata.org/entity/Q11579570', 'http://www.wikidata.org/entity/Q11580729', 'http://www.wikidata.org/entity/Q11580862', 'http://www.wikidata.org/entity/Q11580911', 'http://www.wikidata.org/entity/Q11581974', 'http://www.wikidata.org/entity/Q11581975', 'http://www.wikidata.org/entity/Q11583780', 'http://www.wikidata.org/entity/Q11583965', 'http://www.wikidata.org/entity/Q11588028', 'http://www.wikidata.org/entity/Q11588453', 'http://www.wikidata.org/entity/Q11589438', 'http://www.wikidata.org/entity/Q11589594', 'http://www.wikidata.org/entity/Q11591024', 'http://www.wikidata.org/entity/Q11592984', 'http://www.wikidata.org/entity/Q11596394', 'http://www.wikidata.org/entity/Q11598512', 'http://www.wikidata.org/entity/Q11598646', 'http://www.wikidata.org/entity/Q11598647', 'http://www.wikidata.org/entity/Q11599897', 'http://www.wikidata.org/entity/Q11602695', 'http://www.wikidata.org/entity/Q11603507', 'http://www.wikidata.org/entity/Q11603714', 'http://www.wikidata.org/entity/Q11604580', 'http://www.wikidata.org/entity/Q11604657', 'http://www.wikidata.org/entity/Q11605347', 'http://www.wikidata.org/entity/Q11607173', 'http://www.wikidata.org/entity/Q11610036', 'http://www.wikidata.org/entity/Q11612025', 'http://www.wikidata.org/entity/Q11613384', 'http://www.wikidata.org/entity/Q11614676', 'http://www.wikidata.org/entity/Q11616271', 'http://www.wikidata.org/entity/Q11622569', 'http://www.wikidata.org/entity/Q11625567', 'http://www.wikidata.org/entity/Q11626891', 'http://www.wikidata.org/entity/Q11630243', 'http://www.wikidata.org/entity/Q11631382', 'http://www.wikidata.org/entity/Q11633491', 'http://www.wikidata.org/entity/Q11633492', 'http://www.wikidata.org/entity/Q11634353', 'http://www.wikidata.org/entity/Q11635889', 'http://www.wikidata.org/entity/Q11636071', 'http://www.wikidata.org/entity/Q11636883', 'http://www.wikidata.org/entity/Q116373818', 'http://www.wikidata.org/entity/Q11645346', 'http://www.wikidata.org/entity/Q11645453', 'http://www.wikidata.org/entity/Q11647939', 'http://www.wikidata.org/entity/Q11648162', 'http://www.wikidata.org/entity/Q11648224', 'http://www.wikidata.org/entity/Q11650283', 'http://www.wikidata.org/entity/Q11650626', 'http://www.wikidata.org/entity/Q11652193', 'http://www.wikidata.org/entity/Q11652198', 'http://www.wikidata.org/entity/Q11652204', 'http://www.wikidata.org/entity/Q11652207', 'http://www.wikidata.org/entity/Q11655424', 'http://www.wikidata.org/entity/Q11657147', 'http://www.wikidata.org/entity/Q11657359', 'http://www.wikidata.org/entity/Q11659209', 'http://www.wikidata.org/entity/Q11661369', 'http://www.wikidata.org/entity/Q11661370', 'http://www.wikidata.org/entity/Q11661371', 'http://www.wikidata.org/entity/Q11661373', 'http://www.wikidata.org/entity/Q11662600', 'http://www.wikidata.org/entity/Q11664922', 'http://www.wikidata.org/entity/Q11664932', 'http://www.wikidata.org/entity/Q11665527', 'http://www.wikidata.org/entity/Q11665758', 'http://www.wikidata.org/entity/Q11665759', 'http://www.wikidata.org/entity/Q11667955', 'http://www.wikidata.org/entity/Q11667995', 'http://www.wikidata.org/entity/Q11668024', 'http://www.wikidata.org/entity/Q11668037', 'http://www.wikidata.org/entity/Q11668718', 'http://www.wikidata.org/entity/Q11669590', 'http://www.wikidata.org/entity/Q11669595', 'http://www.wikidata.org/entity/Q11669597', 'http://www.wikidata.org/entity/Q11669598', 'http://www.wikidata.org/entity/Q11669599', 'http://www.wikidata.org/entity/Q11669603', 'http://www.wikidata.org/entity/Q11669605', 'http://www.wikidata.org/entity/Q11670635', 'http://www.wikidata.org/entity/Q11673959', 'http://www.wikidata.org/entity/Q11674270', 'http://www.wikidata.org/entity/Q11675635', 'http://www.wikidata.org/entity/Q11675694', 'http://www.wikidata.org/entity/Q11675705', 'http://www.wikidata.org/entity/Q11675721', 'http://www.wikidata.org/entity/Q11675825', 'http://www.wikidata.org/entity/Q11676467', 'http://www.wikidata.org/entity/Q11677072', 'http://www.wikidata.org/entity/Q116774724', 'http://www.wikidata.org/entity/Q11678083', 'http://www.wikidata.org/entity/Q11678144', 'http://www.wikidata.org/entity/Q11678145', 'http://www.wikidata.org/entity/Q11678146', 'http://www.wikidata.org/entity/Q11678147', 'http://www.wikidata.org/entity/Q11678919', 'http://www.wikidata.org/entity/Q1204188', 'http://www.wikidata.org/entity/Q12122598', 'http://www.wikidata.org/entity/Q12168088', 'http://www.wikidata.org/entity/Q122792969', 'http://www.wikidata.org/entity/Q123092880', 'http://www.wikidata.org/entity/Q123554758', 'http://www.wikidata.org/entity/Q123554899', 'http://www.wikidata.org/entity/Q123563180', 'http://www.wikidata.org/entity/Q123568579', 'http://www.wikidata.org/entity/Q123592347', 'http://www.wikidata.org/entity/Q123592528', 'http://www.wikidata.org/entity/Q123630881', 'http://www.wikidata.org/entity/Q123631133', 'http://www.wikidata.org/entity/Q123848497', 'http://www.wikidata.org/entity/Q126617200', 'http://www.wikidata.org/entity/Q130120', 'http://www.wikidata.org/entity/Q130535', 'http://www.wikidata.org/entity/Q1344326', 'http://www.wikidata.org/entity/Q137962', 'http://www.wikidata.org/entity/Q13987', 'http://www.wikidata.org/entity/Q13991', 'http://www.wikidata.org/entity/Q1414691', 'http://www.wikidata.org/entity/Q145371', 'http://www.wikidata.org/entity/Q1475428', 'http://www.wikidata.org/entity/Q14948405', 'http://www.wikidata.org/entity/Q14948406', 'http://www.wikidata.org/entity/Q15231937', 'http://www.wikidata.org/entity/Q15233224', 'http://www.wikidata.org/entity/Q1532472', 'http://www.wikidata.org/entity/Q15914611', 'http://www.wikidata.org/entity/Q15914636', 'http://www.wikidata.org/entity/Q15914793', 'http://www.wikidata.org/entity/Q15914839', 'http://www.wikidata.org/entity/Q15914850', 'http://www.wikidata.org/entity/Q15914965', 'http://www.wikidata.org/entity/Q15915038', 'http://www.wikidata.org/entity/Q15915094', 'http://www.wikidata.org/entity/Q15915371', 'http://www.wikidata.org/entity/Q15915516', 'http://www.wikidata.org/entity/Q15915542', 'http://www.wikidata.org/entity/Q15915739', 'http://www.wikidata.org/entity/Q15915768', 'http://www.wikidata.org/entity/Q15915877', 'http://www.wikidata.org/entity/Q15915985', 'http://www.wikidata.org/entity/Q15916001', 'http://www.wikidata.org/entity/Q15916180', 'http://www.wikidata.org/entity/Q15916186', 'http://www.wikidata.org/entity/Q15916187', 'http://www.wikidata.org/entity/Q15916216', 'http://www.wikidata.org/entity/Q15916253', 'http://www.wikidata.org/entity/Q15916254', 'http://www.wikidata.org/entity/Q15916285', 'http://www.wikidata.org/entity/Q15916297', 'http://www.wikidata.org/entity/Q15916298', 'http://www.wikidata.org/entity/Q15916369', 'http://www.wikidata.org/entity/Q15916370', 'http://www.wikidata.org/entity/Q15916387', 'http://www.wikidata.org/entity/Q15916410', 'http://www.wikidata.org/entity/Q15916434', 'http://www.wikidata.org/entity/Q15916435', 'http://www.wikidata.org/entity/Q15916437', 'http://www.wikidata.org/entity/Q15916438', 'http://www.wikidata.org/entity/Q15916508', 'http://www.wikidata.org/entity/Q15923957', 'http://www.wikidata.org/entity/Q15924538', 'http://www.wikidata.org/entity/Q15925138', 'http://www.wikidata.org/entity/Q15925270', 'http://www.wikidata.org/entity/Q1676132', 'http://www.wikidata.org/entity/Q169589', 'http://www.wikidata.org/entity/Q17021654', 'http://www.wikidata.org/entity/Q17023687', 'http://www.wikidata.org/entity/Q17031459', 'http://www.wikidata.org/entity/Q17039990', 'http://www.wikidata.org/entity/Q17191315', 'http://www.wikidata.org/entity/Q17191378', 'http://www.wikidata.org/entity/Q17192049', 'http://www.wikidata.org/entity/Q17192826', 'http://www.wikidata.org/entity/Q17193690', 'http://www.wikidata.org/entity/Q17210135', 'http://www.wikidata.org/entity/Q17210185', 'http://www.wikidata.org/entity/Q17211889', 'http://www.wikidata.org/entity/Q17214084', 'http://www.wikidata.org/entity/Q17215469', 'http://www.wikidata.org/entity/Q17216064', 'http://www.wikidata.org/entity/Q17216375', 'http://www.wikidata.org/entity/Q17217423', 'http://www.wikidata.org/entity/Q17219919', 'http://www.wikidata.org/entity/Q17221048', 'http://www.wikidata.org/entity/Q17222656', 'http://www.wikidata.org/entity/Q17223389', 'http://www.wikidata.org/entity/Q17225029', 'http://www.wikidata.org/entity/Q17989148', 'http://www.wikidata.org/entity/Q17989626', 'http://www.wikidata.org/entity/Q17992764', 'http://www.wikidata.org/entity/Q17993734', 'http://www.wikidata.org/entity/Q17995776', 'http://www.wikidata.org/entity/Q18003098', 'http://www.wikidata.org/entity/Q18009413', 'http://www.wikidata.org/entity/Q18010599', 'http://www.wikidata.org/entity/Q1803811', 'http://www.wikidata.org/entity/Q18335728', 'http://www.wikidata.org/entity/Q18336591', 'http://www.wikidata.org/entity/Q18336657', 'http://www.wikidata.org/entity/Q18338827', 'http://www.wikidata.org/entity/Q18338974', 'http://www.wikidata.org/entity/Q18339013', 'http://www.wikidata.org/entity/Q18339157', 'http://www.wikidata.org/entity/Q18339362', 'http://www.wikidata.org/entity/Q18339537', 'http://www.wikidata.org/entity/Q18339548', 'http://www.wikidata.org/entity/Q18700735', 'http://www.wikidata.org/entity/Q187366', 'http://www.wikidata.org/entity/Q196701', 'http://www.wikidata.org/entity/Q19926707', 'http://www.wikidata.org/entity/Q19927579', 'http://www.wikidata.org/entity/Q19927913', 'http://www.wikidata.org/entity/Q19928028', 'http://www.wikidata.org/entity/Q1995509', 'http://www.wikidata.org/entity/Q19969455', 'http://www.wikidata.org/entity/Q19969456', 'http://www.wikidata.org/entity/Q19969457', 'http://www.wikidata.org/entity/Q19969459', 'http://www.wikidata.org/entity/Q19969461', 'http://www.wikidata.org/entity/Q19969462', 'http://www.wikidata.org/entity/Q19969463', 'http://www.wikidata.org/entity/Q20043639', 'http://www.wikidata.org/entity/Q20160219', 'http://www.wikidata.org/entity/Q2018422', 'http://www.wikidata.org/entity/Q20207875', 'http://www.wikidata.org/entity/Q20208336', 'http://www.wikidata.org/entity/Q20208605', 'http://www.wikidata.org/entity/Q20220282', 'http://www.wikidata.org/entity/Q20220291', 'http://www.wikidata.org/entity/Q20249559', 'http://www.wikidata.org/entity/Q20251315', 'http://www.wikidata.org/entity/Q20267482', 'http://www.wikidata.org/entity/Q20441459', 'http://www.wikidata.org/entity/Q20441495', 'http://www.wikidata.org/entity/Q20441538', 'http://www.wikidata.org/entity/Q20441672', 'http://www.wikidata.org/entity/Q20441835', 'http://www.wikidata.org/entity/Q20442833', 'http://www.wikidata.org/entity/Q20442886', 'http://www.wikidata.org/entity/Q20454159', 'http://www.wikidata.org/entity/Q20652984', 'http://www.wikidata.org/entity/Q20653009', 'http://www.wikidata.org/entity/Q20653020', 'http://www.wikidata.org/entity/Q20653048', 'http://www.wikidata.org/entity/Q20653083', 'http://www.wikidata.org/entity/Q20653128', 'http://www.wikidata.org/entity/Q20655767', 'http://www.wikidata.org/entity/Q20655779', 'http://www.wikidata.org/entity/Q20655824', 'http://www.wikidata.org/entity/Q20655829', 'http://www.wikidata.org/entity/Q20655854', 'http://www.wikidata.org/entity/Q20655861', 'http://www.wikidata.org/entity/Q20656218', 'http://www.wikidata.org/entity/Q20662194', 'http://www.wikidata.org/entity/Q20662421', 'http://www.wikidata.org/entity/Q20665543', 'http://www.wikidata.org/entity/Q20669152', 'http://www.wikidata.org/entity/Q20669173', 'http://www.wikidata.org/entity/Q20669188', 'http://www.wikidata.org/entity/Q20669201', 'http://www.wikidata.org/entity/Q20669474', 'http://www.wikidata.org/entity/Q20670485', 'http://www.wikidata.org/entity/Q20670486', 'http://www.wikidata.org/entity/Q20670489', 'http://www.wikidata.org/entity/Q20670490', 'http://www.wikidata.org/entity/Q20670802', 'http://www.wikidata.org/entity/Q20670818', 'http://www.wikidata.org/entity/Q20670842', 'http://www.wikidata.org/entity/Q20680346', 'http://www.wikidata.org/entity/Q20681784', 'http://www.wikidata.org/entity/Q20681836', 'http://www.wikidata.org/entity/Q20687296', 'http://www.wikidata.org/entity/Q20706572', 'http://www.wikidata.org/entity/Q20706579', 'http://www.wikidata.org/entity/Q20706699', 'http://www.wikidata.org/entity/Q20709285', 'http://www.wikidata.org/entity/Q2118388', 'http://www.wikidata.org/entity/Q21652956', 'http://www.wikidata.org/entity/Q21652975', 'http://www.wikidata.org/entity/Q21653337', 'http://www.wikidata.org/entity/Q21653909', 'http://www.wikidata.org/entity/Q21654565', 'http://www.wikidata.org/entity/Q2166413', 'http://www.wikidata.org/entity/Q220701', 'http://www.wikidata.org/entity/Q23069893', 'http://www.wikidata.org/entity/Q2407298', 'http://www.wikidata.org/entity/Q242176', 'http://www.wikidata.org/entity/Q24488445', 'http://www.wikidata.org/entity/Q247515', 'http://www.wikidata.org/entity/Q24871573', 'http://www.wikidata.org/entity/Q24872138', 'http://www.wikidata.org/entity/Q24875184', 'http://www.wikidata.org/entity/Q24898648', 'http://www.wikidata.org/entity/Q24902485', 'http://www.wikidata.org/entity/Q27560716', 'http://www.wikidata.org/entity/Q277035', 'http://www.wikidata.org/entity/Q28155659', 'http://www.wikidata.org/entity/Q285468', 'http://www.wikidata.org/entity/Q28682242', 'http://www.wikidata.org/entity/Q28682892', 'http://www.wikidata.org/entity/Q28682901', 'http://www.wikidata.org/entity/Q28683300', 'http://www.wikidata.org/entity/Q28684991', 'http://www.wikidata.org/entity/Q28684995', 'http://www.wikidata.org/entity/Q28687509', 'http://www.wikidata.org/entity/Q28687512', 'http://www.wikidata.org/entity/Q28687517', 'http://www.wikidata.org/entity/Q28687518', 'http://www.wikidata.org/entity/Q28687526', 'http://www.wikidata.org/entity/Q28687528', 'http://www.wikidata.org/entity/Q28687549', 'http://www.wikidata.org/entity/Q28687551', 'http://www.wikidata.org/entity/Q28687556', 'http://www.wikidata.org/entity/Q28687561', 'http://www.wikidata.org/entity/Q28687591', 'http://www.wikidata.org/entity/Q28693411', 'http://www.wikidata.org/entity/Q29980548', 'http://www.wikidata.org/entity/Q30925772', 'http://www.wikidata.org/entity/Q30925773', 'http://www.wikidata.org/entity/Q30931692', 'http://www.wikidata.org/entity/Q30931979', 'http://www.wikidata.org/entity/Q3108859', 'http://www.wikidata.org/entity/Q3199146', 'http://www.wikidata.org/entity/Q3285144', 'http://www.wikidata.org/entity/Q328533', 'http://www.wikidata.org/entity/Q3349795', 'http://www.wikidata.org/entity/Q339004', 'http://www.wikidata.org/entity/Q34783955', 'http://www.wikidata.org/entity/Q34783964', 'http://www.wikidata.org/entity/Q34783974', 'http://www.wikidata.org/entity/Q34784035', 'http://www.wikidata.org/entity/Q34784045', 'http://www.wikidata.org/entity/Q34784074', 'http://www.wikidata.org/entity/Q34784082', 'http://www.wikidata.org/entity/Q34784090', 'http://www.wikidata.org/entity/Q34784099', 'http://www.wikidata.org/entity/Q34784108', 'http://www.wikidata.org/entity/Q34784117', 'http://www.wikidata.org/entity/Q34784145', 'http://www.wikidata.org/entity/Q34784154', 'http://www.wikidata.org/entity/Q34784163', 'http://www.wikidata.org/entity/Q34784172', 'http://www.wikidata.org/entity/Q34784180', 'http://www.wikidata.org/entity/Q34784236', 'http://www.wikidata.org/entity/Q34784245', 'http://www.wikidata.org/entity/Q34784264', 'http://www.wikidata.org/entity/Q34784309', 'http://www.wikidata.org/entity/Q34784328', 'http://www.wikidata.org/entity/Q34784514', 'http://www.wikidata.org/entity/Q34785535', 'http://www.wikidata.org/entity/Q34785547', 'http://www.wikidata.org/entity/Q34787923', 'http://www.wikidata.org/entity/Q34787927', 'http://www.wikidata.org/entity/Q34787936', 'http://www.wikidata.org/entity/Q34787940', 'http://www.wikidata.org/entity/Q34787945', 'http://www.wikidata.org/entity/Q34787948', 'http://www.wikidata.org/entity/Q34787955', 'http://www.wikidata.org/entity/Q34787960', 'http://www.wikidata.org/entity/Q34787964', 'http://www.wikidata.org/entity/Q34787968', 'http://www.wikidata.org/entity/Q34787980', 'http://www.wikidata.org/entity/Q34787985', 'http://www.wikidata.org/entity/Q34788048', 'http://www.wikidata.org/entity/Q34788086', 'http://www.wikidata.org/entity/Q34788091', 'http://www.wikidata.org/entity/Q34788095', 'http://www.wikidata.org/entity/Q34788578', 'http://www.wikidata.org/entity/Q34788581', 'http://www.wikidata.org/entity/Q34788617', 'http://www.wikidata.org/entity/Q34788621', 'http://www.wikidata.org/entity/Q34788699', 'http://www.wikidata.org/entity/Q34795633', 'http://www.wikidata.org/entity/Q34795652', 'http://www.wikidata.org/entity/Q34795659', 'http://www.wikidata.org/entity/Q34795671', 'http://www.wikidata.org/entity/Q34795678', 'http://www.wikidata.org/entity/Q34795686', 'http://www.wikidata.org/entity/Q34795693', 'http://www.wikidata.org/entity/Q34795722', 'http://www.wikidata.org/entity/Q34795734', 'http://www.wikidata.org/entity/Q34795744', 'http://www.wikidata.org/entity/Q34795753', 'http://www.wikidata.org/entity/Q34795770', 'http://www.wikidata.org/entity/Q34795778', 'http://www.wikidata.org/entity/Q34795788', 'http://www.wikidata.org/entity/Q34795804', 'http://www.wikidata.org/entity/Q34795808', 'http://www.wikidata.org/entity/Q34795832', 'http://www.wikidata.org/entity/Q34795844', 'http://www.wikidata.org/entity/Q34795856', 'http://www.wikidata.org/entity/Q34795867', 'http://www.wikidata.org/entity/Q34795874', 'http://www.wikidata.org/entity/Q34795887', 'http://www.wikidata.org/entity/Q34795901', 'http://www.wikidata.org/entity/Q34795907', 'http://www.wikidata.org/entity/Q34795913', 'http://www.wikidata.org/entity/Q34795937', 'http://www.wikidata.org/entity/Q34795942', 'http://www.wikidata.org/entity/Q34795954', 'http://www.wikidata.org/entity/Q34795961', 'http://www.wikidata.org/entity/Q34795967', 'http://www.wikidata.org/entity/Q34795972', 'http://www.wikidata.org/entity/Q34795984', 'http://www.wikidata.org/entity/Q34795990', 'http://www.wikidata.org/entity/Q34795996', 'http://www.wikidata.org/entity/Q34796002', 'http://www.wikidata.org/entity/Q34796008', 'http://www.wikidata.org/entity/Q34796015', 'http://www.wikidata.org/entity/Q34796021', 'http://www.wikidata.org/entity/Q34796028', 'http://www.wikidata.org/entity/Q34796033', 'http://www.wikidata.org/entity/Q34796043', 'http://www.wikidata.org/entity/Q34796055', 'http://www.wikidata.org/entity/Q34796071', 'http://www.wikidata.org/entity/Q34796095', 'http://www.wikidata.org/entity/Q34796102', 'http://www.wikidata.org/entity/Q34796119', 'http://www.wikidata.org/entity/Q34796134', 'http://www.wikidata.org/entity/Q34796146', 'http://www.wikidata.org/entity/Q34796151', 'http://www.wikidata.org/entity/Q34796158', 'http://www.wikidata.org/entity/Q34796163', 'http://www.wikidata.org/entity/Q34796170', 'http://www.wikidata.org/entity/Q34796175', 'http://www.wikidata.org/entity/Q34796180', 'http://www.wikidata.org/entity/Q34861379', 'http://www.wikidata.org/entity/Q34861390', 'http://www.wikidata.org/entity/Q34861523', 'http://www.wikidata.org/entity/Q34861562', 'http://www.wikidata.org/entity/Q34861821', 'http://www.wikidata.org/entity/Q34862653', 'http://www.wikidata.org/entity/Q3579074', 'http://www.wikidata.org/entity/Q3594049', 'http://www.wikidata.org/entity/Q3623017', 'http://www.wikidata.org/entity/Q3785700', 'http://www.wikidata.org/entity/Q382082', 'http://www.wikidata.org/entity/Q38266996', 'http://www.wikidata.org/entity/Q385313', 'http://www.wikidata.org/entity/Q385710', 'http://www.wikidata.org/entity/Q393031', 'http://www.wikidata.org/entity/Q398636', 'http://www.wikidata.org/entity/Q432124', 'http://www.wikidata.org/entity/Q4419675', 'http://www.wikidata.org/entity/Q4419682', 'http://www.wikidata.org/entity/Q4478859', 'http://www.wikidata.org/entity/Q4497854', 'http://www.wikidata.org/entity/Q4518163', 'http://www.wikidata.org/entity/Q4518364', 'http://www.wikidata.org/entity/Q4518483', 'http://www.wikidata.org/entity/Q4518560', 'http://www.wikidata.org/entity/Q4518632', 'http://www.wikidata.org/entity/Q4518662', 'http://www.wikidata.org/entity/Q4518698', 'http://www.wikidata.org/entity/Q4518728', 'http://www.wikidata.org/entity/Q4518764', 'http://www.wikidata.org/entity/Q4518813', 'http://www.wikidata.org/entity/Q4518835', 'http://www.wikidata.org/entity/Q4518882', 'http://www.wikidata.org/entity/Q4518914', 'http://www.wikidata.org/entity/Q4518946', 'http://www.wikidata.org/entity/Q4519060', 'http://www.wikidata.org/entity/Q4519100', 'http://www.wikidata.org/entity/Q4519127', 'http://www.wikidata.org/entity/Q4519202', 'http://www.wikidata.org/entity/Q4519334', 'http://www.wikidata.org/entity/Q4519416', 'http://www.wikidata.org/entity/Q4519472', 'http://www.wikidata.org/entity/Q4520401', 'http://www.wikidata.org/entity/Q4520501', 'http://www.wikidata.org/entity/Q4520623', 'http://www.wikidata.org/entity/Q4520676', 'http://www.wikidata.org/entity/Q4520740', 'http://www.wikidata.org/entity/Q473472', 'http://www.wikidata.org/entity/Q474560', 'http://www.wikidata.org/entity/Q48752569', 'http://www.wikidata.org/entity/Q48752621', 'http://www.wikidata.org/entity/Q490610', 'http://www.wikidata.org/entity/Q49333374', 'http://www.wikidata.org/entity/Q494914', 'http://www.wikidata.org/entity/Q49493', 'http://www.wikidata.org/entity/Q49500', 'http://www.wikidata.org/entity/Q49507', 'http://www.wikidata.org/entity/Q49511', 'http://www.wikidata.org/entity/Q49513', 'http://www.wikidata.org/entity/Q49631357', 'http://www.wikidata.org/entity/Q49631388', 'http://www.wikidata.org/entity/Q49631402', 'http://www.wikidata.org/entity/Q49631408', 'http://www.wikidata.org/entity/Q49631415', 'http://www.wikidata.org/entity/Q49631418', 'http://www.wikidata.org/entity/Q49631448', 'http://www.wikidata.org/entity/Q49631449', 'http://www.wikidata.org/entity/Q49631468', 'http://www.wikidata.org/entity/Q49631471', 'http://www.wikidata.org/entity/Q49631484', 'http://www.wikidata.org/entity/Q49631487', 'http://www.wikidata.org/entity/Q49631489', 'http://www.wikidata.org/entity/Q49631490', 'http://www.wikidata.org/entity/Q49631492', 'http://www.wikidata.org/entity/Q49631493', 'http://www.wikidata.org/entity/Q49631495', 'http://www.wikidata.org/entity/Q49631497', 'http://www.wikidata.org/entity/Q49631501', 'http://www.wikidata.org/entity/Q49631532', 'http://www.wikidata.org/entity/Q49631657', 'http://www.wikidata.org/entity/Q49631707', 'http://www.wikidata.org/entity/Q49631712', 'http://www.wikidata.org/entity/Q49631766', 'http://www.wikidata.org/entity/Q49631801', 'http://www.wikidata.org/entity/Q49631841', 'http://www.wikidata.org/entity/Q49631849', 'http://www.wikidata.org/entity/Q49631851', 'http://www.wikidata.org/entity/Q49631852', 'http://www.wikidata.org/entity/Q49631855', 'http://www.wikidata.org/entity/Q49631874', 'http://www.wikidata.org/entity/Q49631881', 'http://www.wikidata.org/entity/Q49631883', </t>
+        </is>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Where was JFK assassinated?</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q3896131']</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q3896131']</t>
+        </is>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>What is the second highest mountain on Earth?</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q5159490']</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['14203', 'http://www.wikidata.org/entity/Q6919666']</t>
+        </is>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Where did Abraham Lincoln die?</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q4799733']</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q4799733']</t>
+        </is>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>How tall is Michael Jordan?</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>['198']</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['198']</t>
+        </is>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>how much is the population Iraq?</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>['38274618']</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['38274618']</t>
+        </is>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Which actors were born in Germany?</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q1000089', 'http://www.wikidata.org/entity/Q100028', 'http://www.wikidata.org/entity/Q1000309', 'http://www.wikidata.org/entity/Q1000631', 'http://www.wikidata.org/entity/Q1001088', 'http://www.wikidata.org/entity/Q1001175', 'http://www.wikidata.org/entity/Q100122', 'http://www.wikidata.org/entity/Q1001257', 'http://www.wikidata.org/entity/Q1001304', 'http://www.wikidata.org/entity/Q100149495', 'http://www.wikidata.org/entity/Q100151770', 'http://www.wikidata.org/entity/Q100152085', 'http://www.wikidata.org/entity/Q100175', 'http://www.wikidata.org/entity/Q100220', 'http://www.wikidata.org/entity/Q100224', 'http://www.wikidata.org/entity/Q100227', 'http://www.wikidata.org/entity/Q100248945', 'http://www.wikidata.org/entity/Q100251', 'http://www.wikidata.org/entity/Q100264', 'http://www.wikidata.org/entity/Q100269', 'http://www.wikidata.org/entity/Q100277164', 'http://www.wikidata.org/entity/Q100293', 'http://www.wikidata.org/entity/Q100299', 'http://www.wikidata.org/entity/Q100318', 'http://www.wikidata.org/entity/Q100322', 'http://www.wikidata.org/entity/Q100333', 'http://www.wikidata.org/entity/Q100337', 'http://www.wikidata.org/entity/Q100338', 'http://www.wikidata.org/entity/Q100347140', 'http://www.wikidata.org/entity/Q100356', 'http://www.wikidata.org/entity/Q100361853', 'http://www.wikidata.org/entity/Q100395', 'http://www.wikidata.org/entity/Q100414', 'http://www.wikidata.org/entity/Q100415', 'http://www.wikidata.org/entity/Q100417', 'http://www.wikidata.org/entity/Q100422', 'http://www.wikidata.org/entity/Q100451', 'http://www.wikidata.org/entity/Q1004594', 'http://www.wikidata.org/entity/Q1004736', 'http://www.wikidata.org/entity/Q100491593', 'http://www.wikidata.org/entity/Q100506', 'http://www.wikidata.org/entity/Q100535', 'http://www.wikidata.org/entity/Q100545', 'http://www.wikidata.org/entity/Q100562', 'http://www.wikidata.org/entity/Q100571', 'http://www.wikidata.org/entity/Q100572', 'http://www.wikidata.org/entity/Q100602', 'http://www.wikidata.org/entity/Q100658', 'http://www.wikidata.org/entity/Q100673', 'http://www.wikidata.org/entity/Q100675530', 'http://www.wikidata.org/entity/Q100708', 'http://www.wikidata.org/entity/Q100781', 'http://www.wikidata.org/entity/Q100784561', 'http://www.wikidata.org/entity/Q100841', 'http://www.wikidata.org/entity/Q100844', 'http://www.wikidata.org/entity/Q100893', 'http://www.wikidata.org/entity/Q100903', 'http://www.wikidata.org/entity/Q100954855', 'http://www.wikidata.org/entity/Q100981152', 'http://www.wikidata.org/entity/Q100989', 'http://www.wikidata.org/entity/Q100989640', 'http://www.wikidata.org/entity/Q101019', 'http://www.wikidata.org/entity/Q101059', 'http://www.wikidata.org/entity/Q101079', 'http://www.wikidata.org/entity/Q101094', 'http://www.wikidata.org/entity/Q101104', 'http://www.wikidata.org/entity/Q101112792', 'http://www.wikidata.org/entity/Q101120', 'http://www.wikidata.org/entity/Q101149', 'http://www.wikidata.org/entity/Q101171', 'http://www.wikidata.org/entity/Q101177', 'http://www.wikidata.org/entity/Q101189', 'http://www.wikidata.org/entity/Q101200085', 'http://www.wikidata.org/entity/Q101203', 'http://www.wikidata.org/entity/Q101209739', 'http://www.wikidata.org/entity/Q101210090', 'http://www.wikidata.org/entity/Q101218', 'http://www.wikidata.org/entity/Q101223', 'http://www.wikidata.org/entity/Q101228', 'http://www.wikidata.org/entity/Q101231', 'http://www.wikidata.org/entity/Q101238', 'http://www.wikidata.org/entity/Q101243', 'http://www.wikidata.org/entity/Q101243079', 'http://www.wikidata.org/entity/Q101252599', 'http://www.wikidata.org/entity/Q101267', 'http://www.wikidata.org/entity/Q101347', 'http://www.wikidata.org/entity/Q101380', 'http://www.wikidata.org/entity/Q101381', 'http://www.wikidata.org/entity/Q101392', 'http://www.wikidata.org/entity/Q101434', 'http://www.wikidata.org/entity/Q10147562', 'http://www.wikidata.org/entity/Q101476', 'http://www.wikidata.org/entity/Q101507816', 'http://www.wikidata.org/entity/Q101524', 'http://www.wikidata.org/entity/Q101554634', 'http://www.wikidata.org/entity/Q101598', 'http://www.wikidata.org/entity/Q101615', 'http://www.wikidata.org/entity/Q101618', 'http://www.wikidata.org/entity/Q1016445', 'http://www.wikidata.org/entity/Q1016492', 'http://www.wikidata.org/entity/Q101705', 'http://www.wikidata.org/entity/Q101719', 'http://www.wikidata.org/entity/Q101720', 'http://www.wikidata.org/entity/Q101734', 'http://www.wikidata.org/entity/Q101768', 'http://www.wikidata.org/entity/Q101775', 'http://www.wikidata.org/entity/Q101782', 'http://www.wikidata.org/entity/Q101840', 'http://www.wikidata.org/entity/Q101855', 'http://www.wikidata.org/entity/Q101888', 'http://www.wikidata.org/entity/Q101897', 'http://www.wikidata.org/entity/Q1019017', 'http://www.wikidata.org/entity/Q1019427', 'http://www.wikidata.org/entity/Q101969', 'http://www.wikidata.org/entity/Q101973', 'http://www.wikidata.org/entity/Q102047618', 'http://www.wikidata.org/entity/Q102050', 'http://www.wikidata.org/entity/Q1020684', 'http://www.wikidata.org/entity/Q1020694', 'http://www.wikidata.org/entity/Q102109528', 'http://www.wikidata.org/entity/Q102115662', 'http://www.wikidata.org/entity/Q102127', 'http://www.wikidata.org/entity/Q102140621', 'http://www.wikidata.org/entity/Q102260', 'http://www.wikidata.org/entity/Q102280', 'http://www.wikidata.org/entity/Q102287149', 'http://www.wikidata.org/entity/Q102288', 'http://www.wikidata.org/entity/Q102294', 'http://www.wikidata.org/entity/Q102302', 'http://www.wikidata.org/entity/Q102332', 'http://www.wikidata.org/entity/Q102337', 'http://www.wikidata.org/entity/Q102352', 'http://www.wikidata.org/entity/Q102354', 'http://www.wikidata.org/entity/Q102356959', 'http://www.wikidata.org/entity/Q102363', 'http://www.wikidata.org/entity/Q102374', 'http://www.wikidata.org/entity/Q102450', 'http://www.wikidata.org/entity/Q102504', 'http://www.wikidata.org/entity/Q102530', 'http://www.wikidata.org/entity/Q102572', 'http://www.wikidata.org/entity/Q102574', 'http://www.wikidata.org/entity/Q102606', 'http://www.wikidata.org/entity/Q102611', 'http://www.wikidata.org/entity/Q102627', 'http://www.wikidata.org/entity/Q102630', 'http://www.wikidata.org/entity/Q102633', 'http://www.wikidata.org/entity/Q102635', 'http://www.wikidata.org/entity/Q1026499', 'http://www.wikidata.org/entity/Q102650', 'http://www.wikidata.org/entity/Q102651', 'http://www.wikidata.org/entity/Q102672', 'http://www.wikidata.org/entity/Q102678', 'http://www.wikidata.org/entity/Q102693', 'http://www.wikidata.org/entity/Q102712', 'http://www.wikidata.org/entity/Q102743', 'http://www.wikidata.org/entity/Q102783', 'http://www.wikidata.org/entity/Q102796', 'http://www.wikidata.org/entity/Q102802', 'http://www.wikidata.org/entity/Q1028813', 'http://www.wikidata.org/entity/Q1028955', 'http://www.wikidata.org/entity/Q102923', 'http://www.wikidata.org/entity/Q102929', 'http://www.wikidata.org/entity/Q102936', 'http://www.wikidata.org/entity/Q102937', 'http://www.wikidata.org/entity/Q102947', 'http://www.wikidata.org/entity/Q102961', 'http://www.wikidata.org/entity/Q102976', 'http://www.wikidata.org/entity/Q102990', 'http://www.wikidata.org/entity/Q1029964', 'http://www.wikidata.org/entity/Q102998', 'http://www.wikidata.org/entity/Q103000', 'http://www.wikidata.org/entity/Q103002', 'http://www.wikidata.org/entity/Q1030539', 'http://www.wikidata.org/entity/Q103158', 'http://www.wikidata.org/entity/Q1031845', 'http://www.wikidata.org/entity/Q103197', 'http://www.wikidata.org/entity/Q103223179', 'http://www.wikidata.org/entity/Q103256', 'http://www.wikidata.org/entity/Q103271', 'http://www.wikidata.org/entity/Q103361', 'http://www.wikidata.org/entity/Q103362', 'http://www.wikidata.org/entity/Q103391', 'http://www.wikidata.org/entity/Q103394', 'http://www.wikidata.org/entity/Q103415', 'http://www.wikidata.org/entity/Q103416', 'http://www.wikidata.org/entity/Q103430', 'http://www.wikidata.org/entity/Q103433', 'http://www.wikidata.org/entity/Q103476', 'http://www.wikidata.org/entity/Q103544', 'http://www.wikidata.org/entity/Q103611', 'http://www.wikidata.org/entity/Q1036168', 'http://www.wikidata.org/entity/Q103623', 'http://www.wikidata.org/entity/Q103637', 'http://www.wikidata.org/entity/Q103643', 'http://www.wikidata.org/entity/Q103656', 'http://www.wikidata.org/entity/Q103696', 'http://www.wikidata.org/entity/Q103702', 'http://www.wikidata.org/entity/Q103718', 'http://www.wikidata.org/entity/Q103727', 'http://www.wikidata.org/entity/Q103746', 'http://www.wikidata.org/entity/Q103755600', 'http://www.wikidata.org/entity/Q103760', 'http://www.wikidata.org/entity/Q103775022', 'http://www.wikidata.org/entity/Q103805', 'http://www.wikidata.org/entity/Q103827144', 'http://www.wikidata.org/entity/Q103844323', 'http://www.wikidata.org/entity/Q103845', 'http://www.wikidata.org/entity/Q103851', 'http://www.wikidata.org/entity/Q103863', 'http://www.wikidata.org/entity/Q103868', 'http://www.wikidata.org/entity/Q1038953', 'http://www.wikidata.org/entity/Q103920', 'http://www.wikidata.org/entity/Q1039299', 'http://www.wikidata.org/entity/Q103948', 'http://www.wikidata.org/entity/Q103961', 'http://www.wikidata.org/entity/Q103980542', 'http://www.wikidata.org/entity/Q103986', 'http://www.wikidata.org/entity/Q1039868', 'http://www.wikidata.org/entity/Q104006', 'http://www.wikidata.org/entity/Q104006972', 'http://www.wikidata.org/entity/Q104008', 'http://www.wikidata.org/entity/Q1040432', 'http://www.wikidata.org/entity/Q104084', 'http://www.wikidata.org/entity/Q104094', 'http://www.wikidata.org/entity/Q104120371', 'http://www.wikidata.org/entity/Q104121', 'http://www.wikidata.org/entity/Q104141', 'http://www.wikidata.org/entity/Q1041500', 'http://www.wikidata.org/entity/Q1041514', 'http://www.wikidata.org/entity/Q104153430', 'http://www.wikidata.org/entity/Q1041535', 'http://www.wikidata.org/entity/Q104154734', 'http://www.wikidata.org/entity/Q104155641', 'http://www.wikidata.org/entity/Q104155750', 'http://www.wikidata.org/entity/Q1041559', 'http://www.wikidata.org/entity/Q104156172', 'http://www.wikidata.org/entity/Q104156463', 'http://www.wikidata.org/entity/Q104157044', 'http://www.wikidata.org/entity/Q1041582', 'http://www.wikidata.org/entity/Q104160134', 'http://www.wikidata.org/entity/Q104161808', 'http://www.wikidata.org/entity/Q104162235', 'http://www.wikidata.org/entity/Q104172860', 'http://www.wikidata.org/entity/Q104176819', 'http://www.wikidata.org/entity/Q104178588', 'http://www.wikidata.org/entity/Q104180930', 'http://www.wikidata.org/entity/Q1041870', 'http://www.wikidata.org/entity/Q104196', 'http://www.wikidata.org/entity/Q104198093', 'http://www.wikidata.org/entity/Q104198269', 'http://www.wikidata.org/entity/Q104208', 'http://www.wikidata.org/entity/Q104211573', 'http://www.wikidata.org/entity/Q104212560', 'http://www.wikidata.org/entity/Q104213', 'http://www.wikidata.org/entity/Q104218050', 'http://www.wikidata.org/entity/Q1043589', 'http://www.wikidata.org/entity/Q1043681', 'http://www.wikidata.org/entity/Q1043709', 'http://www.wikidata.org/entity/Q104371', 'http://www.wikidata.org/entity/Q104383260', 'http://www.wikidata.org/entity/Q104383283', 'http://www.wikidata.org/entity/Q104385', 'http://www.wikidata.org/entity/Q104418200', 'http://www.wikidata.org/entity/Q104427', 'http://www.wikidata.org/entity/Q1044342', 'http://www.wikidata.org/entity/Q1044346', 'http://www.wikidata.org/entity/Q1044348', 'http://www.wikidata.org/entity/Q104437885', 'http://www.wikidata.org/entity/Q104439569', 'http://www.wikidata.org/entity/Q1044477', 'http://www.wikidata.org/entity/Q1044494', 'http://www.wikidata.org/entity/Q1044514', 'http://www.wikidata.org/entity/Q1044559', 'http://www.wikidata.org/entity/Q104468053', 'http://www.wikidata.org/entity/Q104476', 'http://www.wikidata.org/entity/Q104520659', 'http://www.wikidata.org/entity/Q104521370', 'http://www.wikidata.org/entity/Q104522001', 'http://www.wikidata.org/entity/Q104523', 'http://www.wikidata.org/entity/Q104544', 'http://www.wikidata.org/entity/Q1045477', 'http://www.wikidata.org/entity/Q104568', 'http://www.wikidata.org/entity/Q1045680', 'http://www.wikidata.org/entity/Q1045683', 'http://www.wikidata.org/entity/Q1045722', 'http://www.wikidata.org/entity/Q104576', 'http://www.wikidata.org/entity/Q104578', 'http://www.wikidata.org/entity/Q104579681', 'http://www.wikidata.org/entity/Q104587770', 'http://www.wikidata.org/entity/Q104590907', 'http://www.wikidata.org/entity/Q104599978', 'http://www.wikidata.org/entity/Q104601', 'http://www.wikidata.org/entity/Q104604', 'http://www.wikidata.org/entity/Q104604553', 'http://www.wikidata.org/entity/Q104613862', 'http://www.wikidata.org/entity/Q104615564', 'http://www.wikidata.org/entity/Q104626181', 'http://www.wikidata.org/entity/Q104631795', 'http://www.wikidata.org/entity/Q104659505', 'http://www.wikidata.org/entity/Q104663127', 'http://www.wikidata.org/entity/Q104665', 'http://www.wikidata.org/entity/Q104665277', 'http://www.wikidata.org/entity/Q104667', 'http://www.wikidata.org/entity/Q104670', 'http://www.wikidata.org/entity/Q104696788', 'http://www.wikidata.org/entity/Q104700634', 'http://www.wikidata.org/entity/Q104702', 'http://www.wikidata.org/entity/Q104730', 'http://www.wikidata.org/entity/Q104737', 'http://www.wikidata.org/entity/Q104741', 'http://www.wikidata.org/entity/Q104760625', 'http://www.wikidata.org/entity/Q104762922', 'http://www.wikidata.org/entity/Q104764834', 'http://www.wikidata.org/entity/Q104764873', 'http://www.wikidata.org/entity/Q104764874', 'http://www.wikidata.org/entity/Q104764949', 'http://www.wikidata.org/entity/Q104764974', 'http://www.wikidata.org/entity/Q104765018', 'http://www.wikidata.org/entity/Q104766', 'http://www.wikidata.org/entity/Q104782393', 'http://www.wikidata.org/entity/Q104787', 'http://www.wikidata.org/entity/Q104815', 'http://www.wikidata.org/entity/Q104832', 'http://www.wikidata.org/entity/Q104845706', 'http://www.wikidata.org/entity/Q104866', 'http://www.wikidata.org/entity/Q104869469', 'http://www.wikidata.org/entity/Q104876', 'http://www.wikidata.org/entity/Q104878044', 'http://www.wikidata.org/entity/Q104879', 'http://www.wikidata.org/entity/Q104884382', 'http://www.wikidata.org/entity/Q104902', 'http://www.wikidata.org/entity/Q104923', 'http://www.wikidata.org/entity/Q104925', 'http://www.wikidata.org/entity/Q104925281', 'http://www.wikidata.org/entity/Q104929865', 'http://www.wikidata.org/entity/Q104977', 'http://www.wikidata.org/entity/Q105047008', 'http://www.wikidata.org/entity/Q105047482', 'http://www.wikidata.org/entity/Q105052', 'http://www.wikidata.org/entity/Q105058', 'http://www.wikidata.org/entity/Q105064646', 'http://www.wikidata.org/entity/Q105065', 'http://www.wikidata.org/entity/Q105070220', 'http://www.wikidata.org/entity/Q105082', 'http://www.wikidata.org/entity/Q105102', 'http://www.wikidata.org/entity/Q105104', 'http://www.wikidata.org/entity/Q1051091', 'http://www.wikidata.org/entity/Q1051126', 'http://www.wikidata.org/entity/Q105114', 'http://www.wikidata.org/entity/Q105116505', 'http://www.wikidata.org/entity/Q105118747', 'http://www.wikidata.org/entity/Q105129', 'http://www.wikidata.org/entity/Q105133286', 'http://www.wikidata.org/entity/Q105134406', 'http://www.wikidata.org/entity/Q105136295', 'http://www.wikidata.org/entity/Q105138', 'http://www.wikidata.org/entity/Q105147', 'http://www.wikidata.org/entity/Q105149', 'http://www.wikidata.org/entity/Q105166', 'http://www.wikidata.org/entity/Q105193', 'http://www.wikidata.org/entity/Q1051939', 'http://www.wikidata.org/entity/Q105199568', 'http://www.wikidata.org/entity/Q1052372', 'http://www.wikidata.org/entity/Q105283', 'http://www.wikidata.org/entity/Q105297', 'http://www.wikidata.org/entity/Q105309404', 'http://www.wikidata.org/entity/Q105336746', 'http://www.wikidata.org/entity/Q105338506', 'http://www.wikidata.org/entity/Q105373', 'http://www.wikidata.org/entity/Q105391976', 'http://www.wikidata.org/entity/Q105451432', 'http://www.wikidata.org/entity/Q105478', 'http://www.wikidata.org/entity/Q105491', 'http://www.wikidata.org/entity/Q105494121', 'http://www.wikidata.org/entity/Q105549643', 'http://www.wikidata.org/entity/Q105549794', 'http://www.wikidata.org/entity/Q105559', 'http://www.wikidata.org/entity/Q105585136', 'http://www.wikidata.org/entity/Q105607', 'http://www.wikidata.org/entity/Q105610', 'http://www.wikidata.org/entity/Q105613', 'http://www.wikidata.org/entity/Q105613248', 'http://www.wikidata.org/entity/Q105627147', 'http://www.wikidata.org/entity/Q105631', 'http://www.wikidata.org/entity/Q10563757', 'http://www.wikidata.org/entity/Q105642', 'http://www.wikidata.org/entity/Q105665', 'http://www.wikidata.org/entity/Q105671328', 'http://www.wikidata.org/entity/Q105675820', 'http://www.wikidata.org/entity/Q105679', 'http://www.wikidata.org/entity/Q105681', 'http://www.wikidata.org/entity/Q105691', 'http://www.wikidata.org/entity/Q105716', 'http://www.wikidata.org/entity/Q105716679', 'http://www.wikidata.org/entity/Q105724333', 'http://www.wikidata.org/entity/Q105737724', 'http://www.wikidata.org/entity/Q105754846', 'http://www.wikidata.org/entity/Q105755335', 'http://www.wikidata.org/entity/Q105767098', 'http://www.wikidata.org/entity/Q105770', 'http://www.wikidata.org/entity/Q105770599', 'http://www.wikidata.org/entity/Q105785', 'http://www.wikidata.org/entity/Q105832784', 'http://www.wikidata.org/entity/Q105848334', 'http://www.wikidata.org/entity/Q105901', 'http://www.wikidata.org/entity/Q105914', 'http://www.wikidata.org/entity/Q105915', 'http://www.wikidata.org/entity/Q105918', 'http://www.wikidata.org/entity/Q105925', 'http://www.wikidata.org/entity/Q105944757', 'http://www.wikidata.org/entity/Q105992322', 'http://www.wikidata.org/entity/Q105992955', 'http://www.wikidata.org/entity/Q106000338', 'http://www.wikidata.org/entity/Q106006759', 'http://www.wikidata.org/entity/Q106035', 'http://www.wikidata.org/entity/Q106041', 'http://www.wikidata.org/entity/Q106061', 'http://www.wikidata.org/entity/Q106098372', 'http://www.wikidata.org/entity/Q106126', 'http://www.wikidata.org/entity/Q106127', 'http://www.wikidata.org/entity/Q106135271', 'http://www.wikidata.org/entity/Q106159611', 'http://www.wikidata.org/entity/Q106177', 'http://www.wikidata.org/entity/Q106188490', 'http://www.wikidata.org/entity/Q106223560', 'http://www.wikidata.org/entity/Q106254', 'http://www.wikidata.org/entity/Q106260', 'http://www.wikidata.org/entity/Q106298187', 'http://www.wikidata.org/entity/Q106311564', 'http://www.wikidata.org/entity/Q106311574', 'http://www.wikidata.org/entity/Q106322507', 'http://www.wikidata.org/entity/Q106323314', 'http://www.wikidata.org/entity/Q106358178', 'http://www.wikidata.org/entity/Q106368', 'http://www.wikidata.org/entity/Q106373', 'http://www.wikidata.org/entity/Q106390', 'http://www.wikidata.org/entity/Q106393', 'http://www.wikidata.org/entity/Q106395745', 'http://www.wikidata.org/entity/Q106412', 'http://www.wikidata.org/entity/Q106423', 'http://www.wikidata.org/entity/Q106438', 'http://www.wikidata.org/entity/Q106455', 'http://www.wikidata.org/entity/Q106460', 'http://www.wikidata.org/entity/Q106461', 'http://www.wikidata.org/entity/Q106479', 'http://www.wikidata.org/entity/Q106493', 'http://www.wikidata.org/entity/Q106496', 'http://www.wikidata.org/entity/Q106512329', 'http://www.wikidata.org/entity/Q106518946', 'http://www.wikidata.org/entity/Q106519848', 'http://www.wikidata.org/entity/Q1065321', 'http://www.wikidata.org/entity/Q106548568', 'http://www.wikidata.org/entity/Q106553', 'http://www.wikidata.org/entity/Q106564535', 'http://www.wikidata.org/entity/Q106572', 'http://www.wikidata.org/entity/Q106578', 'http://www.wikidata.org/entity/Q106594046', 'http://www.wikidata.org/entity/Q106595246', 'http://www.wikidata.org/entity/Q106631203', 'http://www.wikidata.org/entity/Q106637474', 'http://www.wikidata.org/entity/Q106661', 'http://www.wikidata.org/entity/Q106664319', 'http://www.wikidata.org/entity/Q106675767', 'http://www.wikidata.org/entity/Q106689558', 'http://www.wikidata.org/entity/Q1067102', 'http://www.wikidata.org/entity/Q1067206', 'http://www.wikidata.org/entity/Q1067219', 'http://www.wikidata.org/entity/Q1067238', 'http://www.wikidata.org/entity/Q1067243', 'http://www.wikidata.org/entity/Q1067327', 'http://www.wikidata.org/entity/Q1067337', 'http://www.wikidata.org/entity/Q106744', 'http://www.wikidata.org/entity/Q1067500', 'http://www.wikidata.org/entity/Q1067523', 'http://www.wikidata.org/entity/Q106754', 'http://www.wikidata.org/entity/Q106768194', 'http://www.wikidata.org/entity/Q106799', 'http://www.wikidata.org/entity/Q106819841', 'http://www.wikidata.org/entity/Q106831105', 'http://www.wikidata.org/entity/Q106841995', 'http://www.wikidata.org/entity/Q106869', 'http://www.wikidata.org/entity/Q106878335', 'http://www.wikidata.org/entity/Q106890375', 'http://www.wikidata.org/entity/Q106936826', 'http://www.wikidata.org/entity/Q106939', 'http://www.wikidata.org/entity/Q107036249', 'http://www.wikidata.org/entity/Q107045040', 'http://www.wikidata.org/entity/Q107112297', 'http://www.wikidata.org/entity/Q1071648', 'http://www.wikidata.org/entity/Q107190753', 'http://www.wikidata.org/entity/Q107204799', 'http://www.wikidata.org/entity/Q107219', 'http://www.wikidata.org/entity/Q107274', 'http://www.wikidata.org/entity/Q107286074', 'http://www.wikidata.org/entity/Q107291', 'http://www.wikidata.org/entity/Q1073163', 'http://www.wikidata.org/entity/Q107345', 'http://www.wikidata.org/entity/Q107349965', 'http://www.wikidata.org/entity/Q107350', 'http://www.wikidata.org/entity/Q107362784', 'http://www.wikidata.org/entity/Q107364', 'http://www.wikidata.org/entity/Q107375', 'http://www.wikidata.org/entity/Q107379896', 'http://www.wikidata.org/entity/Q107410916', 'http://www.wikidata.org/entity/Q107438', 'http://www.wikidata.org/entity/Q107474234', 'http://www.wikidata.org/entity/Q107483', 'http://www.wikidata.org/entity/Q107500877', 'http://www.wikidata.org/entity/Q107514', 'http://www.wikidata.org/entity/Q107538718', 'http://www.wikidata.org/entity/Q107583', 'http://www.wikidata.org/entity/Q107599', 'http://www.wikidata.org/entity/Q107605', 'http://www.wikidata.org/entity/Q107609122', 'http://www.wikidata.org/entity/Q107628', 'http://www.wikidata.org/entity/Q107630', 'http://www.wikidata.org/entity/Q107646', 'http://www.wikidata.org/entity/Q107651', 'http://www.wikidata.org/entity/Q107679210', 'http://www.wikidata.org/entity/Q107683', 'http://www.wikidata.org/entity/Q107711622', 'http://www.wikidata.org/entity/Q107740134', 'http://www.wikidata.org/entity/Q107743', 'http://www.wikidata.org/entity/Q107753', 'http://www.wikidata.org/entity/Q107782', 'http://www.wikidata.org/entity/Q107788', 'http://www.wikidata.org/entity/Q107790473', 'http://www.wikidata.org/entity/Q1078028', 'http://www.wikidata.org/entity/Q107805', 'http://www.wikidata.org/entity/Q1078106', 'http://www.wikidata.org/entity/Q1078277', 'http://www.wikidata.org/entity/Q107849', 'http://www.wikidata.org/entity/Q107869', 'http://www.wikidata.org/entity/Q1078911', 'http://www.wikidata.org/entity/Q107924', 'http://www.wikidata.org/entity/Q1079558', 'http://www.wikidata.org/entity/Q107973784', 'http://www.wikidata.org/entity/Q107983', 'http://www.wikidata.org/entity/Q107987303', 'http://www.wikidata.org/entity/Q1080253', 'http://www.wikidata.org/entity/Q108029097', 'http://www.wikidata.org/entity/Q1080329', 'http://www.wikidata.org/entity/Q108035', 'http://www.wikidata.org/entity/Q1080540', 'http://www.wikidata.org/entity/Q108057', 'http://www.wikidata.org/entity/Q1080623', 'http://www.wikidata.org/entity/Q1080649', 'http://www.wikidata.org/entity/Q108070', 'http://www.wikidata.org/entity/Q1080716', 'http://www.wikidata.org/entity/Q1080732', 'http://www.wikidata.org/entity/Q1080816', 'http://www.wikidata.org/entity/Q1080819', 'http://www.wikidata.org/entity/Q108097', 'http://www.wikidata.org/entity/Q108104', 'http://www.wikidata.org/entity/Q1081113', 'http://www.wikidata.org/entity/Q108114', 'http://www.wikidata.org/entity/Q108127805', 'http://www.wikidata.org/entity/Q1081287', 'http://www.wikidata.org/entity/Q1081437', 'http://www.wikidata.org/entity/Q108153', 'http://www.wikidata.org/entity/Q1081561', 'http://www.wikidata.org/entity/Q1081599', 'http://www.wikidata.org/entity/Q1081610', 'http://www.wikidata.org/entity/Q108164', 'http://www.wikidata.org/entity/Q1081758', 'http://www.wikidata.org/entity/Q108176', 'http://www.wikidata.org/entity/Q108192', 'http://www.wikidata.org/entity/Q108196632', 'http://www.wikidata.org/entity/Q108201130', 'http://www.wikidata.org/entity/Q108202', 'http://www.wikidata.org/entity/Q1082198', 'http://www.wikidata.org/entity/Q1082288', 'http://www.wikidata.org/entity/Q108230', 'http://www.wikidata.org/entity/Q108233', 'http://www.wikidata.org/entity/Q108236', 'http://www.wikidata.org/entity/Q108255', 'http://www.wikidata.org/entity/Q1082640', 'http://www.wikidata.org/entity/Q1082673', 'http://www.wikidata.org/entity/Q1082749', 'http://www.wikidata.org/entity/Q1082754', 'http://www.wikidata.org/entity/Q1082761', 'http://www.wikidata.org/entity/Q1082798', 'http://www.wikidata.org/entity/Q108285546', 'http://www.wikidata.org/entity/Q108287276', 'http://www.wikidata.org/entity/Q1082880', 'http://www.wikidata.org/entity/Q108294049', 'http://www.wikidata.org/entity/Q108294329', 'http://www.wikidata.org/entity/Q108294870', 'http://www.wikidata.org/entity/Q108296218', 'http://www.wikidata.org/entity/Q108296809', 'http://www.wikidata.org/entity/Q108302', 'http://www.wikidata.org/entity/Q108306', 'http://www.wikidata.org/entity/Q1083077', 'http://www.wikidata.org/entity/Q1083086', 'http://www.wikidata.org/entity/Q1083099', 'http://www.wikidata.org/entity/Q108311', 'http://www.wikidata.org/entity/Q1083125', 'http://www.wikidata.org/entity/Q1083162', 'http://www.wikidata.org/entity/Q1083168', 'http://www.wikidata.org/entity/Q108319856', 'http://www.wikidata.org/entity/Q1083435', 'http://www.wikidata.org/entity/Q1083539', 'http://www.wikidata.org/entity/Q1083559', 'http://www.wikidata.org/entity/Q1083566', 'http://www.wikidata.org/entity/Q108358', 'http://www.wikidata.org/entity/Q1083583', 'http://www.wikidata.org/entity/Q1083622', 'http://www.wikidata.org/entity/Q1083624', 'http://www.wikidata.org/entity/Q1083644', 'http://www.wikidata.org/entity/Q108365', 'http://www.wikidata.org/entity/Q1083730', 'http://www.wikidata.org/entity/Q108378294', 'http://www.wikidata.org/entity/Q1083806', 'http://www.wikidata.org/entity/Q1083827', 'http://www.wikidata.org/entity/Q108393', 'http://www.wikidata.org/entity/Q108434', 'http://www.wikidata.org/entity/Q108436220', 'http://www.wikidata.org/entity/Q1084549', 'http://www.wikidata.org/entity/Q1084557', 'http://www.wikidata.org/entity/Q1084596', 'http://www.wikidata.org/entity/Q108469', 'http://www.wikidata.org/entity/Q1084818', 'http://www.wikidata.org/entity/Q1084956', 'http://www.wikidata.org/entity/Q1084985', 'http://www.wikidata.org/entity/Q1085038', 'http://www.wikidata.org/entity/Q108504516', 'http://www.wikidata.org/entity/Q1085172', 'http://www.wikidata.org/entity/Q1085185', 'http://www.wikidata.org/entity/Q1085225', 'http://www.wikidata.org/entity/Q1085257', 'http://www.wikidata.org/entity/Q108526446', 'http://www.wikidata.org/entity/Q1085341', 'http://www.wikidata.org/entity/Q1085356', 'http://www.wikidata.org/entity/Q1085410', 'http://www.wikidata.org/entity/Q108554', 'http://www.wikidata.org/entity/Q108595256', 'http://www.wikidata.org/entity/Q1086005', 'http://www.wikidata.org/entity/Q108617', 'http://www.wikidata.org/entity/Q108617374', 'http://www.wikidata.org/entity/Q108630', 'http://www.wikidata.org/entity/Q1086472', 'http://www.wikidata.org/entity/Q108660', 'http://www.wikidata.org/entity/Q108662429', 'http://www.wikidata.org/entity/Q108665648', 'http://www.wikidata.org/entity/Q1086799', 'http://www.wikidata.org/entity/Q108693451', 'http://www.wikidata.org/entity/Q108733443', 'http://www.wikidata.org/entity/Q108760927', 'http://www.wikidata.org/entity/Q108763', 'http://www.wikidata.org/entity/Q108773', 'http://www.wikidata.org/entity/Q108792', 'http://www.wikidata.org/entity/Q108803590', 'http://www.wikidata.org/entity/Q108805554', 'http://www.wikidata.org/entity/Q108811390', 'http://www.wikidata.org/entity/Q108828331', 'http://www.wikidata.org/entity/Q108839248', 'http://www.wikidata.org/entity/Q108845', 'http://www.wikidata.org/entity/Q108853', 'http://www.wikidata.org/entity/Q108861150', 'http://www.wikidata.org/entity/Q108861193', 'http://www.wikidata.org/entity/Q108862137', 'http://www.wikidata.org/entity/Q108867', 'http://www.wikidata.org/entity/Q108872482', 'http://www.wikidata.org/entity/Q108873', 'http://www.wikidata.org/entity/Q108873296', 'http://www.wikidata.org/entity/Q108884586', 'http://www.wikidata.org/entity/Q108914380', 'http://www.wikidata.org/entity/Q108920', 'http://www.wikidata.org/entity/Q108928', 'http://www.wikidata.org/entity/Q108936', 'http://www.wikidata.org/entity/Q108942', 'http://www.wikidata.org/entity/Q108964', 'http://www.wikidata.org/entity/Q108965', 'http://www.wikidata.org/entity/Q108972', 'http://www.wikidata.org/entity/Q108978', 'http://www.wikidata.org/entity/Q108984', 'http://www.wikidata.org/entity/Q108987', 'http://www.wikidata.org/entity/Q108989', 'http://www.wikidata.org/entity/Q109001', 'http://www.wikidata.org/entity/Q109028', 'http://www.wikidata.org/entity/Q109050', 'http://www.wikidata.org/entity/Q109104', 'http://www.wikidata.org/entity/Q109123', 'http://www.wikidata.org/entity/Q109124517', 'http://www.wikidata.org/entity/Q109127', 'http://www.wikidata.org/entity/Q109131', 'http://www.wikidata.org/entity/Q109141', 'http://www.wikidata.org/entity/Q109148', 'http://www.wikidata.org/entity/Q1091893', 'http://www.wikidata.org/entity/Q1091975', 'http://www.wikidata.org/entity/Q109200280', 'http://www.wikidata.org/entity/Q109211', 'http://www.wikidata.org/entity/Q109225', 'http://www.wikidata.org/entity/Q1092317', 'http://www.wikidata.org/entity/Q109252043', 'http://www.wikidata.org/entity/Q109253595', 'http://www.wikidata.org/entity/Q109271422', 'http://www.wikidata.org/entity/Q109286', 'http://www.wikidata.org/entity/Q109304', 'http://www.wikidata.org/entity/Q109306', 'http://www.wikidata.org/entity/Q109316729', 'http://www.wikidata.org/entity/Q109335', 'http://www.wikidata.org/entity/Q109355446', 'http://www.wikidata.org/entity/Q109356764', 'http://www.wikidata.org/entity/Q109357', 'http://www.wikidata.org/entity/Q109358', 'http://www.wikidata.org/entity/Q109366', 'http://www.wikidata.org/entity/Q109375705', 'http://www.wikidata.org/entity/Q109382417', 'http://www.wikidata.org/entity/Q109443', 'http://www.wikidata.org/entity/Q109444', 'http://www.wikidata.org/entity/Q1094818', 'http://www.wikidata.org/entity/Q109492', 'http://www.wikidata.org/entity/Q109505', 'http://www.wikidata.org/entity/Q109507264', 'http://www.wikidata.org/entity/Q109516', 'http://www.wikidata.org/entity/Q109526534', 'http://www.wikidata.org/entity/Q109534', 'http://www.wikidata.org/entity/Q109551709', 'http://www.wikidata.org/entity/Q109556', 'http://www.wikidata.org/entity/Q109566877', 'http://www.wikidata.org/entity/Q109581', 'http://www.wikidata.org/entity/Q109587133', 'http://www.wikidata.org/entity/Q109595', 'http://www.wikidata.org/entity/Q109603', 'http://www.wikidata.org/entity/Q109608', 'http://www.wikidata.org/entity/Q109619', 'http://www.wikidata.org/entity/Q109623', 'http://www.wikidata.org/entity/Q109628', 'http://www.wikidata.org/entity/Q109629', 'http://www.wikidata.org/entity/Q109648', 'http://www.wikidata.org/entity/Q109650102', 'http://www.wikidata.org/entity/Q109653134', 'http://www.wikidata.org/entity/Q109656492', 'http://www.wikidata.org/entity/Q109718', 'http://www.wikidata.org/entity/Q109720', 'http://www.wikidata.org/entity/Q1097341', 'http://www.wikidata.org/entity/Q1097365', 'http://www.wikidata.org/entity/Q1097434', 'http://www.wikidata.org/entity/Q1097461', 'http://www.wikidata.org/entity/Q1097463', 'http://www.wikidata.org/entity/Q1097471', 'http://www.wikidata.org/entity/Q1097480', 'http://www.wikidata.org/entity/Q1097526', 'http://www.wikidata.org/entity/Q1097527', 'http://www.wikidata.org/entity/Q1097592', 'http://www.wikidata.org/entity/Q1097610', 'http://www.wikidata.org/entity/Q1097620', 'http://www.wikidata.org/entity/Q1097640', 'http://www.wikidata.org/entity/Q1097686', 'http://www.wikidata.org/entity/Q1097701', 'http://www.wikidata.org/entity/Q1097712', 'http://www.wikidata.org/entity/Q1097756', 'http://www.wikidata.org/entity/Q1097774', 'http://www.wikidata.org/entity/Q109778', 'http://www.wikidata.org/entity/Q1097857', 'http://www.wikidata.org/entity/Q1097863', 'http://www.wikidata.org/entity/Q1097915', 'http://www.wikidata.org/entity/Q109796', 'http://www.wikidata.org/entity/Q1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q1000015', 'http://www.wikidata.org/entity/Q1000204', 'http://www.wikidata.org/entity/Q100028', 'http://www.wikidata.org/entity/Q1000416', 'http://www.wikidata.org/entity/Q1000748', 'http://www.wikidata.org/entity/Q1001088', 'http://www.wikidata.org/entity/Q1001135', 'http://www.wikidata.org/entity/Q100122', 'http://www.wikidata.org/entity/Q1001257', 'http://www.wikidata.org/entity/Q100175', 'http://www.wikidata.org/entity/Q100227', 'http://www.wikidata.org/entity/Q100258', 'http://www.wikidata.org/entity/Q100293', 'http://www.wikidata.org/entity/Q100303063', 'http://www.wikidata.org/entity/Q100312', 'http://www.wikidata.org/entity/Q100332248', 'http://www.wikidata.org/entity/Q100337', 'http://www.wikidata.org/entity/Q100351', 'http://www.wikidata.org/entity/Q100356', 'http://www.wikidata.org/entity/Q100395', 'http://www.wikidata.org/entity/Q100415', 'http://www.wikidata.org/entity/Q100422', 'http://www.wikidata.org/entity/Q100446', 'http://www.wikidata.org/entity/Q1004594', 'http://www.wikidata.org/entity/Q100486', 'http://www.wikidata.org/entity/Q100506', 'http://www.wikidata.org/entity/Q100535', 'http://www.wikidata.org/entity/Q100570', 'http://www.wikidata.org/entity/Q100602', 'http://www.wikidata.org/entity/Q100604', 'http://www.wikidata.org/entity/Q100641', 'http://www.wikidata.org/entity/Q100658', 'http://www.wikidata.org/entity/Q100661', 'http://www.wikidata.org/entity/Q100671', 'http://www.wikidata.org/entity/Q100673', 'http://www.wikidata.org/entity/Q100700', 'http://www.wikidata.org/entity/Q100708', 'http://www.wikidata.org/entity/Q100718965', 'http://www.wikidata.org/entity/Q100721', 'http://www.wikidata.org/entity/Q100742647', 'http://www.wikidata.org/entity/Q100766', 'http://www.wikidata.org/entity/Q100781', 'http://www.wikidata.org/entity/Q100792', 'http://www.wikidata.org/entity/Q100844', 'http://www.wikidata.org/entity/Q100882525', 'http://www.wikidata.org/entity/Q100882715', 'http://www.wikidata.org/entity/Q100903', 'http://www.wikidata.org/entity/Q10093755', 'http://www.wikidata.org/entity/Q100978', 'http://www.wikidata.org/entity/Q101002739', 'http://www.wikidata.org/entity/Q101003030', 'http://www.wikidata.org/entity/Q101019', 'http://www.wikidata.org/entity/Q1010197', 'http://www.wikidata.org/entity/Q101047', 'http://www.wikidata.org/entity/Q101048351', 'http://www.wikidata.org/entity/Q101058', 'http://www.wikidata.org/entity/Q101059', 'http://www.wikidata.org/entity/Q101068367', 'http://www.wikidata.org/entity/Q101110', 'http://www.wikidata.org/entity/Q101149', 'http://www.wikidata.org/entity/Q101171', 'http://www.wikidata.org/entity/Q101177', 'http://www.wikidata.org/entity/Q101189', 'http://www.wikidata.org/entity/Q101218', 'http://www.wikidata.org/entity/Q101223', 'http://www.wikidata.org/entity/Q101228', 'http://www.wikidata.org/entity/Q101229983', 'http://www.wikidata.org/entity/Q101231', 'http://www.wikidata.org/entity/Q101238', 'http://www.wikidata.org/entity/Q101243', 'http://www.wikidata.org/entity/Q101253', 'http://www.wikidata.org/entity/Q101267', 'http://www.wikidata.org/entity/Q101278', 'http://www.wikidata.org/entity/Q101303', 'http://www.wikidata.org/entity/Q101371', 'http://www.wikidata.org/entity/Q101392', 'http://www.wikidata.org/entity/Q101396', 'http://www.wikidata.org/entity/Q101413424', 'http://www.wikidata.org/entity/Q101421778', 'http://www.wikidata.org/entity/Q101434', 'http://www.wikidata.org/entity/Q101476', 'http://www.wikidata.org/entity/Q101480', 'http://www.wikidata.org/entity/Q1016421', 'http://www.wikidata.org/entity/Q101686', 'http://www.wikidata.org/entity/Q101734', 'http://www.wikidata.org/entity/Q101768', 'http://www.wikidata.org/entity/Q101778', 'http://www.wikidata.org/entity/Q101779', 'http://www.wikidata.org/entity/Q101786', 'http://www.wikidata.org/entity/Q101787', 'http://www.wikidata.org/entity/Q101792134', 'http://www.wikidata.org/entity/Q101803', 'http://www.wikidata.org/entity/Q101807', 'http://www.wikidata.org/entity/Q1018220', 'http://www.wikidata.org/entity/Q101840', 'http://www.wikidata.org/entity/Q101863013', 'http://www.wikidata.org/entity/Q101888', 'http://www.wikidata.org/entity/Q101897', 'http://www.wikidata.org/entity/Q101969', 'http://www.wikidata.org/entity/Q101990', 'http://www.wikidata.org/entity/Q102030', 'http://www.wikidata.org/entity/Q102051844', 'http://www.wikidata.org/entity/Q1020694', 'http://www.wikidata.org/entity/Q102155', 'http://www.wikidata.org/entity/Q102156', 'http://www.wikidata.org/entity/Q102207', 'http://www.wikidata.org/entity/Q102280', 'http://www.wikidata.org/entity/Q102287149', 'http://www.wikidata.org/entity/Q102288', 'http://www.wikidata.org/entity/Q102302', 'http://www.wikidata.org/entity/Q102337', 'http://www.wikidata.org/entity/Q102352', 'http://www.wikidata.org/entity/Q102354', 'http://www.wikidata.org/entity/Q102427970', 'http://www.wikidata.org/entity/Q102428030', 'http://www.wikidata.org/entity/Q102450', 'http://www.wikidata.org/entity/Q102451', 'http://www.wikidata.org/entity/Q102465', 'http://www.wikidata.org/entity/Q102480', 'http://www.wikidata.org/entity/Q102534', 'http://www.wikidata.org/entity/Q102606', 'http://www.wikidata.org/entity/Q102611', 'http://www.wikidata.org/entity/Q102630', 'http://www.wikidata.org/entity/Q102633', 'http://www.wikidata.org/entity/Q102635', 'http://www.wikidata.org/entity/Q1026523', 'http://www.wikidata.org/entity/Q102672', 'http://www.wikidata.org/entity/Q102675', 'http://www.wikidata.org/entity/Q102678', 'http://www.wikidata.org/entity/Q102709', 'http://www.wikidata.org/entity/Q102712', 'http://www.wikidata.org/entity/Q10271977', 'http://www.wikidata.org/entity/Q102783', 'http://www.wikidata.org/entity/Q102802', 'http://www.wikidata.org/entity/Q102822295', 'http://www.wikidata.org/entity/Q1029161', 'http://www.wikidata.org/entity/Q1029169', 'http://www.wikidata.org/entity/Q102929', 'http://www.wikidata.org/entity/Q102936', 'http://www.wikidata.org/entity/Q102937', 'http://www.wikidata.org/entity/Q102945', 'http://www.wikidata.org/entity/Q1029561', 'http://www.wikidata.org/entity/Q102990', 'http://www.wikidata.org/entity/Q102994', 'http://www.wikidata.org/entity/Q1030014', 'http://www.wikidata.org/entity/Q103002', 'http://www.wikidata.org/entity/Q103132', 'http://www.wikidata.org/entity/Q103174', 'http://www.wikidata.org/entity/Q10325330', 'http://www.wikidata.org/entity/Q103271', 'http://www.wikidata.org/entity/Q103281', 'http://www.wikidata.org/entity/Q103315', 'http://www.wikidata.org/entity/Q103362', 'http://www.wikidata.org/entity/Q103385', 'http://www.wikidata.org/entity/Q103394', 'http://www.wikidata.org/entity/Q103416', 'http://www.wikidata.org/entity/Q103418', 'http://www.wikidata.org/entity/Q103425', 'http://www.wikidata.org/entity/Q103430', 'http://www.wikidata.org/entity/Q103433', 'http://www.wikidata.org/entity/Q103476', 'http://www.wikidata.org/entity/Q10348949', 'http://www.wikidata.org/entity/Q103579', 'http://www.wikidata.org/entity/Q103605', 'http://www.wikidata.org/entity/Q103611', 'http://www.wikidata.org/entity/Q1036206', 'http://www.wikidata.org/entity/Q103623', 'http://www.wikidata.org/entity/Q103637', 'http://www.wikidata.org/entity/Q1036506', 'http://www.wikidata.org/entity/Q103656', 'http://www.wikidata.org/entity/Q103696', 'http://www.wikidata.org/entity/Q103710125', 'http://www.wikidata.org/entity/Q103727', 'http://www.wikidata.org/entity/Q1037365', 'http://www.wikidata.org/entity/Q103751', 'http://www.wikidata.org/entity/Q103754', 'http://www.wikidata.org/entity/Q103805', 'http://www.wikidata.org/entity/Q103845', 'http://www.wikidata.org/entity/Q103851', 'http://www.wikidata.org/entity/Q1038623', 'http://www.wikidata.org/entity/Q103863', 'http://www.wikidata.org/entity/Q103868', 'http://www.wikidata.org/entity/Q10388307', 'http://www.wikidata.org/entity/Q103896441', 'http://www.wikidata.org/entity/Q103899154', 'http://www.wikidata.org/entity/Q103909', 'http://www.wikidata.org/entity/Q103918', 'http://www.wikidata.org/entity/Q1039299', 'http://www.wikidata.org/entity/Q1039594', 'http://www.wikidata.org/entity/Q103961', 'http://www.wikidata.org/entity/Q103986', 'http://www.wikidata.org/entity/Q1039868', 'http://www.wikidata.org/entity/Q104006', 'http://www.wikidata.org/entity/Q104008', 'http://www.wikidata.org/entity/Q1040913', 'http://www.wikidata.org/entity/Q1040935', 'http://www.wikidata.org/entity/Q104094', 'http://www.wikidata.org/entity/Q104101', 'http://www.wikidata.org/entity/Q1041095', 'http://www.wikidata.org/entity/Q1041155', 'http://www.wikidata.org/entity/Q104118', 'http://www.wikidata.org/entity/Q104128806', 'http://www.wikidata.org/entity/Q1041374', 'http://www.wikidata.org/entity/Q104141', 'http://www.wikidata.org/entity/Q1041542', 'http://www.wikidata.org/entity/Q1041559', 'http://www.wikidata.org/entity/Q1041562', 'http://www.wikidata.org/entity/Q1041582', 'http://www.wikidata.org/entity/Q104160134', 'http://www.wikidata.org/entity/Q104172730', 'http://www.wikidata.org/entity/Q104196', 'http://www.wikidata.org/entity/Q104197360', 'http://www.wikidata.org/entity/Q104208', 'http://www.wikidata.org/entity/Q104221', 'http://www.wikidata.org/entity/Q1042218', 'http://www.wikidata.org/entity/Q104248688', 'http://www.wikidata.org/entity/Q1042938', 'http://www.wikidata.org/entity/Q104331', 'http://www.wikidata.org/entity/Q104336', 'http://www.wikidata.org/entity/Q104339', 'http://www.wikidata.org/entity/Q104346', 'http://www.wikidata.org/entity/Q1043539', 'http://www.wikidata.org/entity/Q1043541', 'http://www.wikidata.org/entity/Q1043592', 'http://www.wikidata.org/entity/Q104364', 'http://www.wikidata.org/entity/Q1043663', 'http://www.wikidata.org/entity/Q1043689', 'http://www.wikidata.org/entity/Q1043709', 'http://www.wikidata.org/entity/Q104377', 'http://www.wikidata.org/entity/Q1044134', 'http://www.wikidata.org/entity/Q104421528', 'http://www.wikidata.org/entity/Q1044245', 'http://www.wikidata.org/entity/Q1044249', 'http://www.wikidata.org/entity/Q1044261', 'http://www.wikidata.org/entity/Q1044325', 'http://www.wikidata.org/entity/Q1044332', 'http://www.wikidata.org/entity/Q1044346', 'http://www.wikidata.org/entity/Q1044362', 'http://www.wikidata.org/entity/Q104447', 'http://www.wikidata.org/entity/Q1044477', 'http://www.wikidata.org/entity/Q1044494', 'http://www.wikidata.org/entity/Q1044518', 'http://www.wikidata.org/entity/Q1044556', 'http://www.wikidata.org/entity/Q1044649', 'http://www.wikidata.org/entity/Q104523', 'http://www.wikidata.org/entity/Q104544', 'http://www.wikidata.org/entity/Q1045604', 'http://www.wikidata.org/entity/Q104563', 'http://www.wikidata.org/entity/Q1045680', 'http://www.wikidata.org/entity/Q1045683', 'http://www.wikidata.org/entity/Q104573', 'http://www.wikidata.org/entity/Q104578', 'http://www.wikidata.org/entity/Q104594832', 'http://www.wikidata.org/entity/Q104665', 'http://www.wikidata.org/entity/Q104667849', 'http://www.wikidata.org/entity/Q104670', 'http://www.wikidata.org/entity/Q104698401', 'http://www.wikidata.org/entity/Q104699210', 'http://www.wikidata.org/entity/Q104699220', 'http://www.wikidata.org/entity/Q104702', 'http://www.wikidata.org/entity/Q104737', 'http://www.wikidata.org/entity/Q104741', 'http://www.wikidata.org/entity/Q104759617', 'http://www.wikidata.org/entity/Q104764369', 'http://www.wikidata.org/entity/Q104766', 'http://www.wikidata.org/entity/Q104771163', 'http://www.wikidata.org/entity/Q1047807', 'http://www.wikidata.org/entity/Q104787', 'http://www.wikidata.org/entity/Q104815', 'http://www.wikidata.org/entity/Q104828502', 'http://www.wikidata.org/entity/Q104832', 'http://www.wikidata.org/entity/Q104849', 'http://www.wikidata.org/entity/Q104866', 'http://www.wikidata.org/entity/Q104879', 'http://www.wikidata.org/entity/Q104879111', 'http://www.wikidata.org/entity/Q104902', 'http://www.wikidata.org/entity/Q104923', 'http://www.wikidata.org/entity/Q104977', 'http://www.wikidata.org/entity/Q105043', 'http://www.wikidata.org/entity/Q105049', 'http://www.wikidata.org/entity/Q105050', 'http://www.wikidata.org/entity/Q105052', 'http://www.wikidata.org/entity/Q105062031', 'http://www.wikidata.org/entity/Q105062089', 'http://www.wikidata.org/entity/Q105067234', 'http://www.wikidata.org/entity/Q105079039', 'http://www.wikidata.org/entity/Q1050799', 'http://www.wikidata.org/entity/Q105085341', 'http://www.wikidata.org/entity/Q1050930', 'http://www.wikidata.org/entity/Q105104', 'http://www.wikidata.org/entity/Q105107229', 'http://www.wikidata.org/entity/Q105107318', 'http://www.wikidata.org/entity/Q1051091', 'http://www.wikidata.org/entity/Q1051124', 'http://www.wikidata.org/entity/Q105114', 'http://www.wikidata.org/entity/Q1051177', 'http://www.wikidata.org/entity/Q105129', 'http://www.wikidata.org/entity/Q105144', 'http://www.wikidata.org/entity/Q105147', 'http://www.wikidata.org/entity/Q105152', 'http://www.wikidata.org/entity/Q105161', 'http://www.wikidata.org/entity/Q105182', 'http://www.wikidata.org/entity/Q105185', 'http://www.wikidata.org/entity/Q105192', 'http://www.wikidata.org/entity/Q105193', 'http://www.wikidata.org/entity/Q105195', 'http://www.wikidata.org/entity/Q105222320', 'http://www.wikidata.org/entity/Q1052372', 'http://www.wikidata.org/entity/Q1052392', 'http://www.wikidata.org/entity/Q105277', 'http://www.wikidata.org/entity/Q105283', 'http://www.wikidata.org/entity/Q105288', 'http://www.wikidata.org/entity/Q1052907', 'http://www.wikidata.org/entity/Q105321093', 'http://www.wikidata.org/entity/Q105359059', 'http://www.wikidata.org/entity/Q105373', 'http://www.wikidata.org/entity/Q105373812', 'http://www.wikidata.org/entity/Q105475003', 'http://www.wikidata.org/entity/Q105476483', 'http://www.wikidata.org/entity/Q105478', 'http://www.wikidata.org/entity/Q105487643', 'http://www.wikidata.org/entity/Q105491', 'http://www.wikidata.org/entity/Q1054912', 'http://www.wikidata.org/entity/Q105493', 'http://www.wikidata.org/entity/Q105575969', 'http://www.wikidata.org/entity/Q105590191', 'http://www.wikidata.org/entity/Q105607', 'http://www.wikidata.org/entity/Q105610', 'http://www.wikidata.org/entity/Q105613', 'http://www.wikidata.org/entity/Q105613608', 'http://www.wikidata.org/entity/Q105617', 'http://www.wikidata.org/entity/Q105630525', 'http://www.wikidata.org/entity/Q105635934', 'http://www.wikidata.org/entity/Q105654184', 'http://www.wikidata.org/entity/Q105665', 'http://www.wikidata.org/entity/Q105688032', 'http://www.wikidata.org/entity/Q105689', 'http://www.wikidata.org/entity/Q105696528', 'http://www.wikidata.org/entity/Q105700269', 'http://www.wikidata.org/entity/Q105742', 'http://www.wikidata.org/entity/Q105745364', 'http://www.wikidata.org/entity/Q105746355', 'http://www.wikidata.org/entity/Q105746546', 'http://www.wikidata.org/entity/Q105747', 'http://www.wikidata.org/entity/Q105750', 'http://www.wikidata.org/entity/Q105753193', 'http://www.wikidata.org/entity/Q105753333', 'http://www.wikidata.org/entity/Q105755335', 'http://www.wikidata.org/entity/Q105755920', 'http://www.wikidata.org/entity/Q105759', 'http://www.wikidata.org/entity/Q105770', 'http://www.wikidata.org/entity/Q105796', 'http://www.wikidata.org/entity/Q105872326', 'http://www.wikidata.org/entity/Q105889', 'http://www.wikidata.org/entity/Q105915', 'http://www.wikidata.org/entity/Q105920', 'http://www.wikidata.org/entity/Q105925', 'http://www.wikidata.org/entity/Q105982', 'http://www.wikidata.org/entity/Q105989099', 'http://www.wikidata.org/entity/Q106000862', 'http://www.wikidata.org/entity/Q106028', 'http://www.wikidata.org/entity/Q106041', 'http://www.wikidata.org/entity/Q106065', 'http://www.wikidata.org/entity/Q106126', 'http://www.wikidata.org/entity/Q106127', 'http://www.wikidata.org/entity/Q106160', 'http://www.wikidata.org/entity/Q106222', 'http://www.wikidata.org/entity/Q1062401', 'http://www.wikidata.org/entity/Q1062418', 'http://www.wikidata.org/entity/Q106254', 'http://www.wikidata.org/entity/Q106288', 'http://www.wikidata.org/entity/Q106294478', 'http://www.wikidata.org/entity/Q106368', 'http://www.wikidata.org/entity/Q106386', 'http://www.wikidata.org/entity/Q106391', 'http://www.wikidata.org/entity/Q106393', 'http://www.wikidata.org/entity/Q106405480', 'http://www.wikidata.org/entity/Q106405483', 'http://www.wikidata.org/entity/Q106415724', 'http://www.wikidata.org/entity/Q106423', 'http://www.wikidata.org/entity/Q106435697', 'http://www.wikidata.org/entity/Q106460', 'http://www.wikidata.org/entity/Q106461', 'http://www.wikidata.org/entity/Q106463', 'http://www.wikidata.org/entity/Q106464', 'http://www.wikidata.org/entity/Q1064727', 'http://www.wikidata.org/entity/Q106478', 'http://www.wikidata.org/entity/Q106479', 'http://www.wikidata.org/entity/Q106485', 'http://www.wikidata.org/entity/Q106491', 'http://www.wikidata.org/entity/Q106496', 'http://www.wikidata.org/entity/Q106522523', 'http://www.wikidata.org/entity/Q106538782', 'http://www.wikidata.org/entity/Q106553', 'http://www.wikidata.org/entity/Q106561', 'http://www.wikidata.org/entity/Q106572', 'http://www.wikidata.org/entity/Q106578', 'http://www.wikidata.org/entity/Q1065885', 'http://www.wikidata.org/entity/Q106596508', 'http://www.wikidata.org/entity/Q1066480', 'http://www.wikidata.org/entity/Q106649', 'http://www.wikidata.org/entity/Q106661', 'http://www.wikidata.org/entity/Q106668', 'http://www.wikidata.org/entity/Q106673', 'http://www.wikidata.org/entity/Q106702786', 'http://www.wikidata.org/entity/Q1067106', 'http://www.wikidata.org/entity/Q1067118', 'http://www.wikidata.org/entity/Q106714373', 'http://www.wikidata.org/entity/Q1067309', 'http://www.wikidata.org/entity/Q1067322', 'http://www.wikidata.org/entity/Q1067337', 'http://www.wikidata.org/entity/Q1067338', 'http://www.wikidata.org/entity/Q106741', 'http://www.wikidata.org/entity/Q1067500', 'http://www.wikidata.org/entity/Q1067523', 'http://www.wikidata.org/entity/Q1067525', 'http://www.wikidata.org/entity/Q106779', 'http://www.wikidata.org/entity/Q106797', 'http://www.wikidata.org/entity/Q106799', 'http://www.wikidata.org/entity/Q106822', 'http://www.wikidata.org/entity/Q106824488', 'http://www.wikidata.org/entity/Q106841', 'http://www.wikidata.org/entity/Q106843', 'http://www.wikidata.org/entity/Q106860', 'http://www.wikidata.org/entity/Q106869', 'http://www.wikidata.org/entity/Q106890375', 'http://www.wikidata.org/entity/Q106895677', 'http://www.wikidata.org/entity/Q106901150', 'http://www.wikidata.org/entity/Q106917019', 'http://www.wikidata.org/entity/Q106926', 'http://www.wikidata.org/entity/Q106932', 'http://www.wikidata.org/entity/Q106945', 'http://www.wikidata.org/entity/Q106954', 'http://www.wikidata.org/entity/Q107038297', 'http://www.wikidata.org/entity/Q107122', 'http://www.wikidata.org/entity/Q107127', 'http://www.wikidata.org/entity/Q107129', 'http://www.wikidata.org/entity/Q1071412', 'http://www.wikidata.org/entity/Q107144', 'http://www.wikidata.org/entity/Q107145', 'http://www.wikidata.org/entity/Q107147', 'http://www.wikidata.org/entity/Q1071648', 'http://www.wikidata.org/entity/Q107220', 'http://www.wikidata.org/entity/Q107222', 'http://www.wikidata.org/entity/Q107232', 'http://www.wikidata.org/entity/Q107266', 'http://www.wikidata.org/entity/Q107274', 'http://www.wikidata.org/entity/Q107315', 'http://www.wikidata.org/entity/Q107315059', 'http://www.wikidata.org/entity/Q107315782', 'http://www.wikidata.org/entity/Q1073163', 'http://www.wikidata.org/entity/Q107345', 'http://www.wikidata.org/entity/Q107350', 'http://www.wikidata.org/entity/Q107355', 'http://www.wikidata.org/entity/Q107362784', 'http://www.wikidata.org/entity/Q107375', 'http://www.wikidata.org/entity/Q107429856', 'http://www.wikidata.org/entity/Q107438', 'http://www.wikidata.org/entity/Q107447786', 'http://www.wikidata.org/entity/Q107452', 'http://www.wikidata.org/entity/Q107452174', 'http://www.wikidata.org/entity/Q107461', 'http://www.wikidata.org/entity/Q107514', 'http://www.wikidata.org/entity/Q107520', 'http://www.wikidata.org/entity/Q107547779', 'http://www.wikidata.org/entity/Q107599', 'http://www.wikidata.org/entity/Q107620127', 'http://www.wikidata.org/entity/Q107628', 'http://www.wikidata.org/entity/Q107630', 'http://www.wikidata.org/entity/Q107743', 'http://www.wikidata.org/entity/Q107753', 'http://www.wikidata.org/entity/Q107756', 'http://www.wikidata.org/entity/Q107788', 'http://www.wikidata.org/entity/Q1077932', 'http://www.wikidata.org/entity/Q107805', 'http://www.wikidata.org/entity/Q107813', 'http://www.wikidata.org/entity/Q1078178', 'http://www.wikidata.org/entity/Q1078277', 'http://www.wikidata.org/entity/Q1078293', 'http://www.wikidata.org/entity/Q1078759', 'http://www.wikidata.org/entity/Q1078828', 'http://www.wikidata.org/entity/Q1078902', 'http://www.wikidata.org/entity/Q1078911', 'http://www.wikidata.org/entity/Q1079009', 'http://www.wikidata.org/entity/Q1079066', 'http://www.wikidata.org/entity/Q1079100', 'http://www.wikidata.org/entity/Q107924', 'http://www.wikidata.org/entity/Q1079431', 'http://www.wikidata.org/entity/Q1079558', 'http://www.wikidata.org/entity/Q107971', 'http://www.wikidata.org/entity/Q107986625', 'http://www.wikidata.org/entity/Q1080329', 'http://www.wikidata.org/entity/Q1080816', 'http://www.wikidata.org/entity/Q108097', 'http://www.wikidata.org/entity/Q108104', 'http://www.wikidata.org/entity/Q108114', 'http://www.wikidata.org/entity/Q1081259', 'http://www.wikidata.org/entity/Q1081287', 'http://www.wikidata.org/entity/Q1081379', 'http://www.wikidata.org/entity/Q1081437', 'http://www.wikidata.org/entity/Q1081551', 'http://www.wikidata.org/entity/Q1081590', 'http://www.wikidata.org/entity/Q1081636', 'http://www.wikidata.org/entity/Q108164', 'http://www.wikidata.org/entity/Q108167884', 'http://www.wikidata.org/entity/Q1081758', 'http://www.wikidata.org/entity/Q108176', 'http://www.wikidata.org/entity/Q1081783', 'http://www.wikidata.org/entity/Q1081838', 'http://www.wikidata.org/entity/Q1081851', 'http://www.wikidata.org/entity/Q108192', 'http://www.wikidata.org/entity/Q1081967', 'http://www.wikidata.org/entity/Q1081968', 'http://www.wikidata.org/entity/Q1081980', 'http://www.wikidata.org/entity/Q1082013', 'http://www.wikidata.org/entity/Q108202', 'http://www.wikidata.org/entity/Q1082022', 'http://www.wikidata.org/entity/Q1082059', 'http://www.wikidata.org/entity/Q1082198', 'http://www.wikidata.org/entity/Q1082288', 'http://www.wikidata.org/entity/Q108236', 'http://www.wikidata.org/entity/Q108237', 'http://www.wikidata.org/entity/Q108253143', 'http://www.wikidata.org/entity/Q1082540', 'http://www.wikidata.org/entity/Q108255', 'http://www.wikidata.org/entity/Q1082630', 'http://www.wikidata.org/entity/Q1082673', 'http://www.wikidata.org/entity/Q1082687', 'http://www.wikidata.org/entity/Q1082693', 'http://www.wikidata.org/entity/Q1082708', 'http://www.wikidata.org/entity/Q1082740', 'http://www.wikidata.org/entity/Q1082749', 'http://www.wikidata.org/entity/Q1082798', 'http://www.wikidata.org/entity/Q1082818', 'http://www.wikidata.org/entity/Q1082872', 'http://www.wikidata.org/entity/Q1082880', 'http://www.wikidata.org/entity/Q108296809', 'http://www.wikidata.org/entity/Q108299', 'http://www.wikidata.org/entity/Q108302', 'http://www.wikidata.org/entity/Q108306', 'http://www.wikidata.org/entity/Q1083125', 'http://www.wikidata.org/entity/Q1083144', 'http://www.wikidata.org/entity/Q1083162', 'http://www.wikidata.org/entity/Q1083168', 'http://www.wikidata.org/entity/Q108318', 'http://www.wikidata.org/entity/Q1083254', 'http://www.wikidata.org/entity/Q1083281', 'http://www.wikidata.org/entity/Q108329', 'http://www.wikidata.org/entity/Q1083490', 'http://www.wikidata.org/entity/Q108358', 'http://www.wikidata.org/entity/Q108360', 'http://www.wikidata.org/entity/Q1083601', 'http://www.wikidata.org/entity/Q108365', 'http://www.wikidata.org/entity/Q108370597', 'http://www.wikidata.org/entity/Q1083738', 'http://www.wikidata.org/entity/Q1083743', 'http://www.wikidata.org/entity/Q1083753', 'http://www.wikidata.org/entity/Q1083780', 'http://www.wikidata.org/entity/Q1083807', 'http://www.wikidata.org/entity/Q1083820', 'http://www.wikidata.org/entity/Q1083853', 'http://www.wikidata.org/entity/Q108394', 'http://www.wikidata.org/entity/Q108406215', 'http://www.wikidata.org/entity/Q108428830', 'http://www.wikidata.org/entity/Q1084549', 'http://www.wikidata.org/entity/Q1084564', 'http://www.wikidata.org/entity/Q1084770', 'http://www.wikidata.org/entity/Q108486457', 'http://www.wikidata.org/entity/Q108493', 'http://www.wikidata.org/entity/Q1085038', 'http://www.wikidata.org/entity/Q108504516', 'http://www.wikidata.org/entity/Q1085074', 'http://www.wikidata.org/entity/Q1085198', 'http://www.wikidata.org/entity/Q108523', 'http://www.wikidata.org/entity/Q108531', 'http://www.wikidata.org/entity/Q1085346', 'http://www.wikidata.org/entity/Q1085424', 'http://www.wikidata.org/entity/Q108554', 'http://www.wikidata.org/entity/Q1085544', 'http://www.wikidata.org/entity/Q1085547', 'http://www.wikidata.org/entity/Q10858821', 'http://www.wikidata.org/entity/Q108590', 'http://www.wikidata.org/entity/Q1086079', 'http://www.wikidata.org/entity/Q1086086', 'http://www.wikidata.org/entity/Q1086128', 'http://www.wikidata.org/entity/Q108617', 'http://www.wikidata.org/entity/Q108619723', 'http://www.wikidata.org/entity/Q108630', 'http://www.wikidata.org/entity/Q108654', 'http://www.wikidata.org/entity/Q108668917', 'http://www.wikidata.org/entity/Q1086785', 'http://www.wikidata.org/entity/Q1086797', 'http://www.wikidata.org/entity/Q108683', 'http://www.wikidata.org/entity/Q108688300', 'http://www.wikidata.org/entity/Q1086902', 'http://www.wikidata.org/entity/Q108699374', 'http://www.wikidata.org/entity/Q108755958', 'http://www.wikidata.org/entity/Q108763', 'http://www.wikidata.org/entity/Q108773', 'http://www.wikidata.org/entity/Q108792', 'http://www.wikidata.org/entity/Q108811', 'http://www.wikidata.org/entity/Q108822170', 'http://www.wikidata.org/entity/Q108826', 'http://www.wikidata.org/entity/Q108837313', 'http://www.wikidata.org/entity/Q108845', 'http://www.wikidata.org/entity/Q108853', 'http://www.wikidata.org/entity/Q108856185', 'http://www.wikidata.org/entity/Q108858479', 'http://www.wikidata.org/entity/Q108864', 'http://www.wikidata.org/entity/Q108867', 'http://www.wikidata.org/entity/Q108873', 'http://www.wikidata.org/entity/Q108888633', 'http://www.wikidata.org/entity/Q108895073', 'http://www.wikidata.org/entity/Q108900954', 'http://www.wikidata.org/entity/Q108906', 'http://www.wikidata.org/entity/Q108934202', 'http://www.wikidata.org/entity/Q108936', 'http://www.wikidata.org/entity/Q108942', 'http://www.wikidata.org/entity/Q108965', 'http://www.wikidata.org/entity/Q108978', 'http://www.wikidata.org/entity/Q108984', 'http://www.wikidata.org/entity/Q108987', 'http://www.wikidata.org/entity/Q109001', 'http://www.wikidata.org/entity/Q109028', 'http://www.wikidata.org/entity/Q109041476', 'http://www.wikidata.org/entity/Q109043', 'http://www.wikidata.org/entity/Q109111', 'http://www.wikidata.org/entity/Q109119', 'http://www.wikidata.org/entity/Q109127', 'http://www.wikidata.org/entity/Q109133', 'http://www.wikidata.org/entity/Q109143', 'http://www.wikidata.org/entity/Q109174772', 'http://www.wikidata.org/entity/Q1091893', 'http://www.wikidata.org/entity/Q1091958', 'http://www.wikidata.org/entity/Q1091975', 'http://www.wikidata.org/entity/Q109211', 'http://www.wikidata.org/entity/Q109304', 'http://www.wikidata.org/entity/Q1093078', 'http://www.wikidata.org/entity/Q109328680', 'http://www.wikidata.org/entity/Q109335', 'http://www.wikidata.org/entity/Q109354', 'http://www.wikidata.org/entity/Q109357', 'http://www.wikidata.org/entity/Q109358', 'http://www.wikidata.org/entity/Q109360', 'http://www.wikidata.org/entity/Q109417403', 'http://www.wikidata.org/entity/Q109430', 'http://www.wikidata.org/entity/Q109438', 'http://www.wikidata.org/entity/Q109443', 'http://www.wikidata.org/entity/Q109444', 'http://www.wikidata.org/entity/Q1094766', 'http://www.wikidata.org/entity/Q109477', 'http://www.wikidata.org/entity/Q1094818', 'http://www.wikidata.org/entity/Q1094819', 'http://www.wikidata.org/entity/Q1094829', 'http://www.wikidata.org/entity/Q109505', 'http://www.wikidata.org/entity/Q109514', 'http://www.wikidata.org/entity/Q1095148', 'http://www.wikidata.org/entity/Q1095157', 'http://www.wikidata.org/entity/Q1095167', 'http://www.wikidata.org/entity/Q1095238', 'http://www.wikidata.org/entity/Q109556', 'http://www.wikidata.org/entity/Q1095622', 'http://www.wikidata.org/entity/Q109574948', 'http://www.wikidata.org/entity/Q109608', 'http://www.wikidata.org/entity/Q109629', 'http://www.wikidata.org/entity/Q109642', 'http://www.wikidata.org/entity/Q109645', 'http://www.wikidata.org/entity/Q109648', 'http://www.wikidata.org/entity/Q109658', 'http://www.wikidata.org/entity/Q109658353', 'http://www.wikidata.org/entity/Q109672985', 'http://www.wikidata.org/entity/Q109673', 'http://www.wikidata.org/entity/Q109718', 'http://www.wikidata.org/entity/Q1097198', 'http://www.wikidata.org/entity/Q109720', 'http://www.wikidata.org/entity/Q1097276', 'http://www.wikidata.org/entity/Q1097307', 'http://www.wikidata.org/entity/Q1097347', 'http://www.wikidata.org/entity/Q1097349', 'http://www.wikidata.org/entity/Q109735550', 'http://www.wikidata.org/entity/Q109744813', 'http://www.wikidata.org/entity/Q109745076', 'http://www.wikidata.org/entity/Q1097458', 'http://www.wikidata.org/entity/Q1097499', 'http://www.wikidata.org/entity/Q1097570', 'http://www.wikidata.org/entity/Q1097633', 'http://www.wikidata.org/entity/Q1097768', 'http://www.wikidata.org/entity/Q1097777', 'http://www.wikidata.org/entity/Q109778', 'http://www.wikidata.org/entity/Q1097845', 'http://www.wikidata.org/entity/Q1097857', 'http://www.wikidata.org/entity/Q109786', 'http://www.wikidata.org/entity/Q109796', 'http://www.wikidata.org/entity/Q1097963', 'http://www.wikidata.org/entity/Q109813', 'http://www.wikidata.org/entity/Q10981679', 'http://www.wikidata.org/entity/Q109819', 'http://www.wikidata.org/entity/Q109824', 'http://www.wikidata.org/entity/Q1098306', 'http://www.wikidata.org/entity/Q1098373', 'http://www.wikidata.org/entity/Q109842', 'http://www.wikidata.org/entity/Q1098447', 'http://www.wikidata.org/entity/Q1098453', 'http://www.wikidata.org/entity/Q1098483', 'http://www.wikidata.org/entity/Q109854884', 'http://www.wikidata.org/entity/Q109855', 'http://www.wikidata.org/entity/Q109855027', 'http://www.wikidata.org/entity/Q1098728', 'http://www.wikidata.org/entity/Q109876569', 'http://www.wikidata.org/entity/Q1098848', 'http://www.wikidata.org/entity/Q109953', 'http://www.wikidata.org/entity/Q1099826', 'http://www.wikidata.org/entity/Q109990', 'http://www.wikidata.org/entity/Q1100074', 'http://www.wikidata.org/entity/Q1100192', 'http://www.wikidata.org/entity/Q1100448', 'http://www.wikidata.org/entity/Q110064', 'http://www.wikidata.org/entity/Q110097975', 'http://www.wikidata.org/entity/Q110124', 'http://www.wikidata.org/entity/Q110136', 'http://www.wikidata.org/entity/Q110141', 'http://www.wikidata.org/entity/Q110163', 'http://www.wikidata.org/entity/Q110184075', 'http://www.wikidata.org/entity/Q110253393', 'http://www.wikidata.org/entity/Q110300368', 'http://www.wikidata.org/entity/Q110303', 'http://www.wikidata.org/entity/Q110314', 'http://www.wikidata.org/entity/Q110349', 'http://www.wikidata.org/entity/Q110363506', 'http://www.wikidata.org/entity/Q110364', 'http://www.wikidata.org/entity/Q110376735', 'http://www.wikidata.org/entity/Q110386841', 'http://www.wikidata.org/entity/Q1103874', 'http://www.wikidata.org/entity/Q110391', 'http://www.wikidata.org/entity/Q110402', 'http://www.wikidata.org/entity/Q110411297', 'http://www.wikidata.org/entity/Q110413723', 'http://www.wikidata.org/entity/Q110425', 'http://www.wikidata.org/entity/Q110453300', 'http://www.wikidata.org/entity/Q110454754', 'http://www.wikidata.org/entity/Q110458807', 'http://www.wikidata.org/entity/Q1105384', 'http://www.wikidata.org/entity/Q1105394', 'http://www.wikidata.org/entity/Q110568', 'http://www.wikidata.org/entity/Q110569', 'http://www.wikidata.org/entity/Q110571', 'http://www.wikidata.org/entity/Q110605', 'http://www.wikidata.org/entity/Q110618471', 'http://www.wikidata.org/entity/Q110626464', 'http://www.wikidata.org/entity/Q110647', 'http://www.wikidata.org/entity/Q110663466', 'http://www.wikidata.org/entity/Q110665062', 'http://www.wikidata.org/entity/Q110669', 'http://www.wikidata.org/entity/Q110685', 'http://www.wikidata.org/entity/Q110695', 'http://www.wikidata.org/entity/Q110746185', 'http://www.wikidata.org/entity/Q110749', 'http://www.wikidata.org/entity/Q110757', 'http://www.wikidata.org/entity/Q110762', 'http://www.wikidata.org/entity/Q110769667', 'http://www.wikidata.org/entity/Q110827221', 'http://www.wikidata.org/entity/Q110829764', 'http://www.wikidata.org/entity/Q110835', 'http://www.wikidata.org/entity/Q110850', 'http://w</t>
+        </is>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>What is the currency of the Czech Republic?</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q131016']</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q131016']</t>
+        </is>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Give me all people that were born in Vienna and died in Berlin.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q95199838', 'http://www.wikidata.org/entity/Q55451835', 'http://www.wikidata.org/entity/Q19966956', 'http://www.wikidata.org/entity/Q125207247', 'http://www.wikidata.org/entity/Q11764172', 'http://www.wikidata.org/entity/Q105047314', 'http://www.wikidata.org/entity/Q124369289', 'http://www.wikidata.org/entity/Q114245296', 'http://www.wikidata.org/entity/Q129847804', 'http://www.wikidata.org/entity/Q106689415', 'http://www.wikidata.org/entity/Q125168660', 'http://www.wikidata.org/entity/Q125134505', 'http://www.wikidata.org/entity/Q125141527', 'http://www.wikidata.org/entity/Q13578778', 'http://www.wikidata.org/entity/Q12271681', 'http://www.wikidata.org/entity/Q105953781', 'http://www.wikidata.org/entity/Q1234160', 'http://www.wikidata.org/entity/Q100706635', 'http://www.wikidata.org/entity/Q123474414', 'http://www.wikidata.org/entity/Q126418132', 'http://www.wikidata.org/entity/Q128222132', 'http://www.wikidata.org/entity/Q1360278', 'http://www.wikidata.org/entity/Q128209458', 'http://www.wikidata.org/entity/Q125224535', 'http://www.wikidata.org/entity/Q125207322', 'http://www.wikidata.org/entity/Q113027456', 'http://www.wikidata.org/entity/Q128255861', 'http://www.wikidata.org/entity/Q105953', 'http://www.wikidata.org/entity/Q1246642', 'http://www.wikidata.org/entity/Q109745', 'http://www.wikidata.org/entity/Q114557', 'http://www.wikidata.org/entity/Q124365519', 'http://www.wikidata.org/entity/Q125381657', 'http://www.wikidata.org/entity/Q11923016', 'http://www.wikidata.org/entity/Q124821984', 'http://www.wikidata.org/entity/Q124823586', 'http://www.wikidata.org/entity/Q1289012', 'http://www.wikidata.org/entity/Q110162770', 'http://www.wikidata.org/entity/Q124823640', 'http://www.wikidata.org/entity/Q1338621', 'http://www.wikidata.org/entity/Q124825392', 'http://www.wikidata.org/entity/Q112057', 'http://www.wikidata.org/entity/Q124826025', 'http://www.wikidata.org/entity/Q124821935', 'http://www.wikidata.org/entity/Q124826477', 'http://www.wikidata.org/entity/Q124827127', 'http://www.wikidata.org/entity/Q124834393', 'http://www.wikidata.org/entity/Q124835415', 'http://www.wikidata.org/entity/Q1036737', 'http://www.wikidata.org/entity/Q1336307', 'http://www.wikidata.org/entity/Q112376', 'http://www.wikidata.org/entity/Q124959174', 'http://www.wikidata.org/entity/Q124798509', 'http://www.wikidata.org/entity/Q124848868', 'http://www.wikidata.org/entity/Q1336841', 'http://www.wikidata.org/entity/Q111241', 'http://www.wikidata.org/entity/Q124747852', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q1558906', 'http://www.wikidata.org/entity/Q1510986', 'http://www.wikidata.org/entity/Q16029991', 'http://www.wikidata.org/entity/Q1449083', 'http://www.wikidata.org/entity/Q1735870', 'http://www.wikidata.org/entity/Q1449370', 'http://www.wikidata.org/entity/Q18508198', 'http://www.wikidata.org/entity/Q1379473', 'http://www.wikidata.org/entity/Q15439910', 'http://www.wikidata.org/entity/Q1546037', 'http://www.wikidata.org/entity/Q1555666', 'http://www.wikidata.org/entity/Q1707482', 'http://www.wikidata.org/entity/Q18508531', 'http://www.wikidata.org/entity/Q1465742', 'http://www.wikidata.org/entity/Q1379309', 'http://www.wikidata.org/entity/Q18029152', 'http://www.wikidata.org/entity/Q1708747', 'http://www.wikidata.org/entity/Q1705540', 'http://www.wikidata.org/entity/Q14842646', 'http://www.wikidata.org/entity/Q1484506', 'http://www.wikidata.org/entity/Q1501097', 'http://www.wikidata.org/entity/Q1691423', 'http://www.wikidata.org/entity/Q1500209', 'http://www.wikidata.org/entity/Q1614614', 'http://www.wikidata.org/entity/Q1732733', 'http://www.wikidata.org/entity/Q16663352', 'http://www.wikidata.org/entity/Q1527091', 'http://www.wikidata.org/entity/Q18027381', 'http://www.wikidata.org/entity/Q1579455', 'http://www.wikidata.org/entity/Q15430458', 'http://www.wikidata.org/entity/Q15810299', 'http://www.wikidata.org/entity/Q1581174', 'http://www.wikidata.org/entity/Q1505019', 'http://www.wikidata.org/entity/Q1446365', 'http://www.wikidata.org/entity/Q18223339', 'http://www.wikidata.org/entity/Q1414628', 'http://www.wikidata.org/entity/Q1701554', 'http://www.wikidata.org/entity/Q15979728', 'http://www.wikidata.org/entity/Q1707099', 'http://www.wikidata.org/entity/Q1570857', 'http://www.wikidata.org/entity/Q1781063', 'http://www.wikidata.org/entity/Q1368561', 'http://www.wikidata.org/entity/Q15734397', 'http://www.wikidata.org/entity/Q1511264', 'http://www.wikidata.org/entity/Q15452195', 'http://www.wikidata.org/entity/Q1819735', 'http://www.wikidata.org/entity/Q1903438', 'http://www.wikidata.org/entity/Q22249925', 'http://www.wikidata.org/entity/Q22482410', 'http://www.wikidata.org/entity/Q19288504', 'http://www.wikidata.org/entity/Q55675291', 'http://www.wikidata.org/entity/Q55676433', 'http://www.wikidata.org/entity/Q2588636', 'http://www.wikidata.org/entity/Q2517436', 'http://www.wikidata.org/entity/Q550639', 'http://www.wikidata.org/entity/Q4058928', 'http://www.wikidata.org/entity/Q20801784', 'http://www.wikidata.org/entity/Q2077276', 'http://www.wikidata.org/entity/Q475749', 'http://www.wikidata.org/entity/Q28999', 'http://www.wikidata.org/entity/Q2581891', 'http://www.wikidata.org/entity/Q2040666', 'http://www.wikidata.org/entity/Q19273686', 'http://www.wikidata.org/entity/Q194563', 'http://www.wikidata.org/entity/Q4191716', 'http://www.wikidata.org/entity/Q551155', 'http://www.wikidata.org/entity/Q493058', 'http://www.wikidata.org/entity/Q27672503', 'http://www.wikidata.org/entity/Q54862358', 'http://www.wikidata.org/entity/Q43378651', 'http://www.wikidata.org/entity/Q2645934', 'http://www.wikidata.org/entity/Q326252', 'http://www.wikidata.org/entity/Q27670830', 'http://www.wikidata.org/entity/Q36668532', 'http://www.wikidata.org/entity/Q362952', 'http://www.wikidata.org/entity/Q2338888', 'http://www.wikidata.org/entity/Q354466', 'http://www.wikidata.org/entity/Q347559', 'http://www.wikidata.org/entity/Q21168969', 'http://www.wikidata.org/entity/Q20056905', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q23928916', 'http://www.wikidata.org/entity/Q51886108', 'http://www.wikidata.org/entity/Q55674501', 'http://www.wikidata.org/entity/Q2020596', 'http://www.wikidata.org/entity/Q51844316', 'http://www.wikidata.org/entity/Q51844339', 'http://www.wikidata.org/entity/Q45927183', 'http://www.wikidata.org/entity/Q1908687', 'http://www.wikidata.org/entity/Q86323', 'http://www.wikidata.org/entity/Q62076483', 'http://www.wikidata.org/entity/Q650151', 'http://www.wikidata.org/entity/Q7782918', 'http://www.wikidata.org/entity/Q94938005', 'http://www.wikidata.org/entity/Q77736', 'http://www.wikidata.org/entity/Q86293', 'http://www.wikidata.org/entity/Q56487519', 'http://www.wikidata.org/entity/Q6373188', 'http://www.wikidata.org/entity/Q94906393', 'http://www.wikidata.org/entity/Q71198', 'http://www.wikidata.org/entity/Q7983614', 'http://www.wikidata.org/entity/Q94753105', 'http://www.wikidata.org/entity/Q94922778', 'http://www.wikidata.org/entity/Q78614', 'http://www.wikidata.org/entity/Q90462', 'http://www.wikidata.org/entity/Q94761001', 'http://www.wikidata.org/entity/Q63485351', 'http://www.wikidata.org/entity/Q85448', 'http://www.wikidata.org/entity/Q94887584', 'http://www.wikidata.org/entity/Q85692', 'http://www.wikidata.org/entity/Q61971231', 'http://www.wikidata.org/entity/Q94040', 'http://www.wikidata.org/entity/Q710106', 'http://www.wikidata.org/entity/Q61930459', 'http://www.wikidata.org/entity/Q94872174', 'http://www.wikidata.org/entity/Q55885976', 'http://www.wikidata.org/entity/Q87698', 'http://www.wikidata.org/entity/Q87595', 'http://www.wikidata.org/entity/Q87593', 'http://www.wikidata.org/entity/Q87498', 'http://www.wikidata.org/entity/Q60820294', 'http://www.wikidata.org/entity/Q60822973', 'http://www.wikidata.org/entity/Q96452', 'http://www.wikidata.org/entity/Q95227952', 'http://www.wikidata.org/entity/Q88140', 'http://www.wikidata.org/entity/Q95249180', 'http://www.wikidata.org/entity/Q911548', 'http://www.wikidata.org/entity/Q89164', 'http://www.wikidata.org/entity/Q55681103', 'http://www.wikidata.org/entity/Q872165', 'http://www.wikidata.org/entity/Q94731605', 'http://www.wikidata.org/entity/Q95805826', 'http://www.wikidata.org/entity/Q60528', 'http://www.wikidata.org/entity/Q76143', 'http://www.wikidata.org/entity/Q95389052', 'http://www.wikidata.org/entity/Q88627', 'http://www.wikidata.org/entity/Q86718', 'http://www.wikidata.org/entity/Q88835', 'http://www.wikidata.org/entity/Q86516', 'http://www.wikidata.org/entity/Q94777816', 'http://www.wikidata.org/entity/Q90014', 'http://www.wikidata.org/entity/Q94577', 'http://www.wikidata.org/entity/Q57385917', 'http://www.wikidata.org/entity/Q24078', 'http://www.wikidata.org/entity/Q1441046', 'http://www.wikidata.org/entity/Q16563052', 'http://www.wikidata.org/entity/Q87735', 'http://www.wikidata.org/entity/Q111031308', 'http://www.wikidata.org/entity/Q125347249', 'http://www.wikidata.org/entity/Q112469746', 'http://www.wikidata.org/entity/Q15436531', 'http://www.wikidata.org/entity/Q1468949', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q5946570', 'http://www.wikidata.org/entity/Q43382717', 'http://www.wikidata.org/entity/Q85051', 'http://www.wikidata.org/entity/Q78934', 'http://www.wikidata.org/entity/Q697055', 'http://www.wikidata.org/entity/Q113027456', 'http://www.wikidata.org/entity/Q124369289', 'http://www.wikidata.org/entity/Q111241', 'http://www.wikidata.org/entity/Q105047314', 'http://www.wikidata.org/entity/Q11923016', 'http://www.wikidata.org/entity/Q114245296', 'http://www.wikidata.org/entity/Q114557', 'http://www.wikidata.org/entity/Q112057', 'http://www.wikidata.org/entity/Q109745', 'http://www.wikidata.org/entity/Q124365519', 'http://www.wikidata.org/entity/Q1234160', 'http://www.wikidata.org/entity/Q11764172', 'http://www.wikidata.org/entity/Q105953', 'http://www.wikidata.org/entity/Q12271681', 'http://www.wikidata.org/entity/Q105953781', 'http://www.wikidata.org/entity/Q112376', 'http://www.wikidata.org/entity/Q1246642', 'http://www.wikidata.org/entity/Q106689415', 'http://www.wikidata.org/entity/Q123474414', 'http://www.wikidata.org/entity/Q100706635', 'http://www.wikidata.org/entity/Q110162770', 'http://www.wikidata.org/entity/Q1036737', 'http://www.wikidata.org/entity/Q21168969', 'http://www.wikidata.org/entity/Q2020596', 'http://www.wikidata.org/entity/Q128255861', 'http://www.wikidata.org/entity/Q125207322', 'http://www.wikidata.org/entity/Q124823640', 'http://www.wikidata.org/entity/Q124827127', 'http://www.wikidata.org/entity/Q124798509', 'http://www.wikidata.org/entity/Q2040666', 'http://www.wikidata.org/entity/Q128222132', 'http://www.wikidata.org/entity/Q124825392', 'http://www.wikidata.org/entity/Q20056905', 'http://www.wikidata.org/entity/Q128209458', 'http://www.wikidata.org/entity/Q124826025', 'http://www.wikidata.org/entity/Q125141527', 'http://www.wikidata.org/entity/Q124821935', 'http://www.wikidata.org/entity/Q124821984', 'http://www.wikidata.org/entity/Q125381657', 'http://www.wikidata.org/entity/Q125224535', 'http://www.wikidata.org/entity/Q126418132', 'http://www.wikidata.org/entity/Q125134505', 'http://www.wikidata.org/entity/Q124747852', 'http://www.wikidata.org/entity/Q124848868', 'http://www.wikidata.org/entity/Q124835415', 'http://www.wikidata.org/entity/Q125207247', 'http://www.wikidata.org/entity/Q124834393', 'http://www.wikidata.org/entity/Q20801784', 'http://www.wikidata.org/entity/Q124823586', 'http://www.wikidata.org/entity/Q125168660', 'http://www.wikidata.org/entity/Q2077276', 'http://www.wikidata.org/entity/Q124959174', 'http://www.wikidata.org/entity/Q124826477', 'http://www.wikidata.org/entity/Q1379309', 'http://www.wikidata.org/entity/Q16029991', 'http://www.wikidata.org/entity/Q1707099', 'http://www.wikidata.org/entity/Q18508531', 'http://www.wikidata.org/entity/Q19273686', 'http://www.wikidata.org/entity/Q1449083', 'http://www.wikidata.org/entity/Q1449370', 'http://www.wikidata.org/entity/Q1705540', 'http://www.wikidata.org/entity/Q15979728', 'http://www.wikidata.org/entity/Q1701554', 'http://www.wikidata.org/entity/Q15439910', 'http://www.wikidata.org/entity/Q1338621', 'http://www.wikidata.org/entity/Q1465742', 'http://www.wikidata.org/entity/Q1691423', 'http://www.wikidata.org/entity/Q1336841', 'http://www.wikidata.org/entity/Q15430458', 'http://www.wikidata.org/entity/Q18508198', 'http://www.wikidata.org/entity/Q14842646', 'http://www.wikidata.org/entity/Q1908687', 'http://www.wikidata.org/entity/Q1484506', 'http://www.wikidata.org/entity/Q1903438', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q1527091', 'http://www.wikidata.org/entity/Q1336307', 'http://www.wikidata.org/entity/Q16663352', 'http://www.wikidata.org/entity/Q1500209', 'http://www.wikidata.org/entity/Q1614614', 'http://www.wikidata.org/entity/Q1501097', 'http://www.wikidata.org/entity/Q1511264', 'http://www.wikidata.org/entity/Q1510986', 'http://www.wikidata.org/entity/Q1505019', 'http://www.wikidata.org/entity/Q13578778', 'http://www.wikidata.org/entity/Q1570857', 'http://www.wikidata.org/entity/Q1360278', 'http://www.wikidata.org/entity/Q15734397', 'http://www.wikidata.org/entity/Q18027381', 'http://www.wikidata.org/entity/Q1368561', 'http://www.wikidata.org/entity/Q1579455', 'http://www.wikidata.org/entity/Q1558906', 'http://www.wikidata.org/entity/Q1781063', 'http://www.wikidata.org/entity/Q15810299', 'http://www.wikidata.org/entity/Q1819735', 'http://www.wikidata.org/entity/Q1379473', 'http://www.wikidata.org/entity/Q1289012', 'http://www.wikidata.org/entity/Q1581174', 'http://www.wikidata.org/entity/Q19288504', 'http://www.wikidata.org/entity/Q1735870', 'http://www.wikidata.org/entity/Q194563', 'http://www.wikidata.org/entity/Q1414628', 'http://www.wikidata.org/entity/Q1555666', 'http://www.wikidata.org/entity/Q1732733', 'http://www.wikidata.org/entity/Q129847804', 'http://www.wikidata.org/entity/Q18223339', 'http://www.wikidata.org/entity/Q1546037', 'http://www.wikidata.org/entity/Q1446365', 'http://www.wikidata.org/entity/Q1708747', 'http://www.wikidata.org/entity/Q1707482', 'http://www.wikidata.org/entity/Q15452195', 'http://www.wikidata.org/entity/Q18029152', 'http://www.wikidata.org/entity/Q493058', 'http://www.wikidata.org/entity/Q55681103', 'http://www.wikidata.org/entity/Q2581891', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q22249925', 'http://www.wikidata.org/entity/Q2338888', 'http://www.wikidata.org/entity/Q36668532', 'http://www.wikidata.org/entity/Q51886108', 'http://www.wikidata.org/entity/Q22482410', 'http://www.wikidata.org/entity/Q2588636', 'http://www.wikidata.org/entity/Q475749', 'http://www.wikidata.org/entity/Q43378651', 'http://www.wikidata.org/entity/Q51844339', 'http://www.wikidata.org/entity/Q362952', 'http://www.wikidata.org/entity/Q51844316', 'http://www.wikidata.org/entity/Q354466', 'http://www.wikidata.org/entity/Q60528', 'http://www.wikidata.org/entity/Q2645934', 'http://www.wikidata.org/entity/Q45927183', 'http://www.wikidata.org/entity/Q347559', 'http://www.wikidata.org/entity/Q4058928', 'http://www.wikidata.org/entity/Q2517436', 'http://www.wikidata.org/entity/Q28999', 'http://www.wikidata.org/entity/Q55676433', 'http://www.wikidata.org/entity/Q57385917', 'http://www.wikidata.org/entity/Q27672503', 'http://www.wikidata.org/entity/Q27670830', 'http://www.wikidata.org/entity/Q54862358', 'http://www.wikidata.org/entity/Q23928916', 'http://www.wikidata.org/entity/Q55674501', 'http://www.wikidata.org/entity/Q550639', 'http://www.wikidata.org/entity/Q326252', 'http://www.wikidata.org/entity/Q56487519', 'http://www.wikidata.org/entity/Q551155', 'http://www.wikidata.org/entity/Q55675291', 'http://www.wikidata.org/entity/Q4191716', 'http://www.wikidata.org/entity/Q55885976', 'http://www.wikidata.org/entity/Q911548', 'http://www.wikidata.org/entity/Q71198', 'http://www.wikidata.org/entity/Q94761001', 'http://www.wikidata.org/entity/Q78614', 'http://www.wikidata.org/entity/Q94906393', 'http://www.wikidata.org/entity/Q61930459', 'http://www.wikidata.org/entity/Q90014', 'http://www.wikidata.org/entity/Q94777816', 'http://www.wikidata.org/entity/Q63485351', 'http://www.wikidata.org/entity/Q88835', 'http://www.wikidata.org/entity/Q94938005', 'http://www.wikidata.org/entity/Q87698', 'http://www.wikidata.org/entity/Q88627', 'http://www.wikidata.org/entity/Q94577', 'http://www.wikidata.org/entity/Q60822973', 'http://www.wikidata.org/entity/Q95249180', 'http://www.wikidata.org/entity/Q85692', 'http://www.wikidata.org/entity/Q94872174', 'http://www.wikidata.org/entity/Q76143', 'http://www.wikidata.org/entity/Q94887584', 'http://www.wikidata.org/entity/Q85448', 'http://www.wikidata.org/entity/Q60820294', 'http://www.wikidata.org/entity/Q77736', 'http://www.wikidata.org/entity/Q6373188', 'http://www.wikidata.org/entity/Q88140', 'http://www.wikidata.org/entity/Q95389052', 'http://www.wikidata.org/entity/Q94731605', 'http://www.wikidata.org/entity/Q7782918', 'http://www.wikidata.org/entity/Q710106', 'http://www.wikidata.org/entity/Q86293', 'http://www.wikidata.org/entity/Q96452', 'http://www.wikidata.org/entity/Q86718', 'http://www.wikidata.org/entity/Q7983614', 'http://www.wikidata.org/entity/Q86516', 'http://www.wikidata.org/entity/Q90462', 'http://www.wikidata.org/entity/Q94922778', 'http://www.wikidata.org/entity/Q61971231', 'http://www.wikidata.org/entity/Q872165', 'http://www.wikidata.org/entity/Q86323', 'http://www.wikidata.org/entity/Q89164', 'http://www.wikidata.org/entity/Q62076483', 'http://www.wikidata.org/entity/Q94040', 'http://www.wikidata.org/entity/Q650151', 'http://www.wikidata.org/entity/Q87498', 'http://www.wikidata.org/entity/Q95805826', 'http://www.wikidata.org/entity/Q95227952', 'http://www.wikidata.org/entity/Q94753105', 'http://www.wikidata.org/entity/Q87593', 'http://www.wikidata.org/entity/Q87595', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q55682962', 'http://www.wikidata.org/entity/Q12028148', 'http://www.wikidata.org/entity/Q19309506', 'http://www.wikidata.org/entity/Q78793', 'http://www.wikidata.org/entity/Q2173626', 'http://www.wikidata.org/entity/Q51844338', 'http://www.wikidata.org/entity/Q61199008', 'http://www.wikidata.org/entity/Q94743563']</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q100706635', 'http://www.wikidata.org/entity/Q1036737', 'http://www.wikidata.org/entity/Q105047314', 'http://www.wikidata.org/entity/Q105953', 'http://www.wikidata.org/entity/Q105953781', 'http://www.wikidata.org/entity/Q106689415', 'http://www.wikidata.org/entity/Q109745', 'http://www.wikidata.org/entity/Q110162770', 'http://www.wikidata.org/entity/Q111241', 'http://www.wikidata.org/entity/Q112057', 'http://www.wikidata.org/entity/Q112376', 'http://www.wikidata.org/entity/Q113027456', 'http://www.wikidata.org/entity/Q114245296', 'http://www.wikidata.org/entity/Q114557', 'http://www.wikidata.org/entity/Q11764172', 'http://www.wikidata.org/entity/Q11923016', 'http://www.wikidata.org/entity/Q12271681', 'http://www.wikidata.org/entity/Q1234160', 'http://www.wikidata.org/entity/Q123474414', 'http://www.wikidata.org/entity/Q124365519', 'http://www.wikidata.org/entity/Q124369289', 'http://www.wikidata.org/entity/Q1246642', 'http://www.wikidata.org/entity/Q124747852', 'http://www.wikidata.org/entity/Q124798509', 'http://www.wikidata.org/entity/Q124821935', 'http://www.wikidata.org/entity/Q124821984', 'http://www.wikidata.org/entity/Q124823586', 'http://www.wikidata.org/entity/Q124823640', 'http://www.wikidata.org/entity/Q124825392', 'http://www.wikidata.org/entity/Q124826025', 'http://www.wikidata.org/entity/Q124826477', 'http://www.wikidata.org/entity/Q124827127', 'http://www.wikidata.org/entity/Q124834393', 'http://www.wikidata.org/entity/Q124835415', 'http://www.wikidata.org/entity/Q124848868', 'http://www.wikidata.org/entity/Q124959174', 'http://www.wikidata.org/entity/Q125134505', 'http://www.wikidata.org/entity/Q125141527', 'http://www.wikidata.org/entity/Q125168660', 'http://www.wikidata.org/entity/Q125207247', 'http://www.wikidata.org/entity/Q125207322', 'http://www.wikidata.org/entity/Q125224535', 'http://www.wikidata.org/entity/Q125381657', 'http://www.wikidata.org/entity/Q126418132', 'http://www.wikidata.org/entity/Q128209458', 'http://www.wikidata.org/entity/Q128222132', 'http://www.wikidata.org/entity/Q128255861', 'http://www.wikidata.org/entity/Q1289012', 'http://www.wikidata.org/entity/Q129847804', 'http://www.wikidata.org/entity/Q1336307', 'http://www.wikidata.org/entity/Q1336841', 'http://www.wikidata.org/entity/Q1338621', 'http://www.wikidata.org/entity/Q13578778', 'http://www.wikidata.org/entity/Q1360278', 'http://www.wikidata.org/entity/Q1368561', 'http://www.wikidata.org/entity/Q1379309', 'http://www.wikidata.org/entity/Q1379473', 'http://www.wikidata.org/entity/Q1414628', 'http://www.wikidata.org/entity/Q1446365', 'http://www.wikidata.org/entity/Q1449083', 'http://www.wikidata.org/entity/Q1449370', 'http://www.wikidata.org/entity/Q1465742', 'http://www.wikidata.org/entity/Q14842646', 'http://www.wikidata.org/entity/Q1484506', 'http://www.wikidata.org/entity/Q1500209', 'http://www.wikidata.org/entity/Q1501097', 'http://www.wikidata.org/entity/Q1505019', 'http://www.wikidata.org/entity/Q1510986', 'http://www.wikidata.org/entity/Q1511264', 'http://www.wikidata.org/entity/Q1527091', 'http://www.wikidata.org/entity/Q15430458', 'http://www.wikidata.org/entity/Q15439910', 'http://www.wikidata.org/entity/Q15452195', 'http://www.wikidata.org/entity/Q1546037', 'http://www.wikidata.org/entity/Q1555666', 'http://www.wikidata.org/entity/Q1558906', 'http://www.wikidata.org/entity/Q1570857', 'http://www.wikidata.org/entity/Q15734397', 'http://www.wikidata.org/entity/Q1579455', 'http://www.wikidata.org/entity/Q15810299', 'http://www.wikidata.org/entity/Q1581174', 'http://www.wikidata.org/entity/Q15979728', 'http://www.wikidata.org/entity/Q16029991', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q1614614', 'http://www.wikidata.org/entity/Q16663352', 'http://www.wikidata.org/entity/Q1691423', 'http://www.wikidata.org/entity/Q1701554', 'http://www.wikidata.org/entity/Q1705540', 'http://www.wikidata.org/entity/Q1707099', 'http://www.wikidata.org/entity/Q1707482', 'http://www.wikidata.org/entity/Q1708747', 'http://www.wikidata.org/entity/Q1732733', 'http://www.wikidata.org/entity/Q1735870', 'http://www.wikidata.org/entity/Q1781063', 'http://www.wikidata.org/entity/Q18027381', 'http://www.wikidata.org/entity/Q18029152', 'http://www.wikidata.org/entity/Q1819735', 'http://www.wikidata.org/entity/Q18223339', 'http://www.wikidata.org/entity/Q18508198', 'http://www.wikidata.org/entity/Q18508531', 'http://www.wikidata.org/entity/Q1903438', 'http://www.wikidata.org/entity/Q1908687', 'http://www.wikidata.org/entity/Q19273686', 'http://www.wikidata.org/entity/Q19288504', 'http://www.wikidata.org/entity/Q194563', 'http://www.wikidata.org/entity/Q20056905', 'http://www.wikidata.org/entity/Q2020596', 'http://www.wikidata.org/entity/Q2040666', 'http://www.wikidata.org/entity/Q2077276', 'http://www.wikidata.org/entity/Q20801784', 'http://www.wikidata.org/entity/Q21168969', 'http://www.wikidata.org/entity/Q22249925', 'http://www.wikidata.org/entity/Q22482410', 'http://www.wikidata.org/entity/Q2338888', 'http://www.wikidata.org/entity/Q23928916', 'http://www.wikidata.org/entity/Q2517436', 'http://www.wikidata.org/entity/Q2581891', 'http://www.wikidata.org/entity/Q2588636', 'http://www.wikidata.org/entity/Q2645934', 'http://www.wikidata.org/entity/Q27670830', 'http://www.wikidata.org/entity/Q27672503', 'http://www.wikidata.org/entity/Q28999', 'http://www.wikidata.org/entity/Q326252', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q347559', 'http://www.wikidata.org/entity/Q354466', 'http://www.wikidata.org/entity/Q362952', 'http://www.wikidata.org/entity/Q36668532', 'http://www.wikidata.org/entity/Q4058928', 'http://www.wikidata.org/entity/Q4191716', 'http://www.wikidata.org/entity/Q43378651', 'http://www.wikidata.org/entity/Q45927183', 'http://www.wikidata.org/entity/Q475749', 'http://www.wikidata.org/entity/Q493058', 'http://www.wikidata.org/entity/Q51844316', 'http://www.wikidata.org/entity/Q51844339', 'http://www.wikidata.org/entity/Q51886108', 'http://www.wikidata.org/entity/Q54862358', 'http://www.wikidata.org/entity/Q550639', 'http://www.wikidata.org/entity/Q551155', 'http://www.wikidata.org/entity/Q55674501', 'http://www.wikidata.org/entity/Q55675291', 'http://www.wikidata.org/entity/Q55676433', 'http://www.wikidata.org/entity/Q55681103', 'http://www.wikidata.org/entity/Q55885976', 'http://www.wikidata.org/entity/Q56487519', 'http://www.wikidata.org/entity/Q57385917', 'http://www.wikidata.org/entity/Q60528', 'http://www.wikidata.org/entity/Q60820294', 'http://www.wikidata.org/entity/Q60822973', 'http://www.wikidata.org/entity/Q61930459', 'http://www.wikidata.org/entity/Q61971231', 'http://www.wikidata.org/entity/Q62076483', 'http://www.wikidata.org/entity/Q63485351', 'http://www.wikidata.org/entity/Q6373188', 'http://www.wikidata.org/entity/Q650151', 'http://www.wikidata.org/entity/Q710106', 'http://www.wikidata.org/entity/Q71198', 'http://www.wikidata.org/entity/Q76143', 'http://www.wikidata.org/entity/Q77736', 'http://www.wikidata.org/entity/Q7782918', 'http://www.wikidata.org/entity/Q78614', 'http://www.wikidata.org/entity/Q7983614', 'http://www.wikidata.org/entity/Q85448', 'http://www.wikidata.org/entity/Q85692', 'http://www.wikidata.org/entity/Q86293', 'http://www.wikidata.org/entity/Q86323', 'http://www.wikidata.org/entity/Q86516', 'http://www.wikidata.org/entity/Q86718', 'http://www.wikidata.org/entity/Q872165', 'http://www.wikidata.org/entity/Q87498', 'http://www.wikidata.org/entity/Q87593', 'http://www.wikidata.org/entity/Q87595', 'http://www.wikidata.org/entity/Q87698', 'http://www.wikidata.org/entity/Q88140', 'http://www.wikidata.org/entity/Q88627', 'http://www.wikidata.org/entity/Q88835', 'http://www.wikidata.org/entity/Q89164', 'http://www.wikidata.org/entity/Q90014', 'http://www.wikidata.org/entity/Q90462', 'http://www.wikidata.org/entity/Q911548', 'http://www.wikidata.org/entity/Q94040', 'http://www.wikidata.org/entity/Q94577', 'http://www.wikidata.org/entity/Q94731605', 'http://www.wikidata.org/entity/Q94753105', 'http://www.wikidata.org/entity/Q94761001', 'http://www.wikidata.org/entity/Q94777816', 'http://www.wikidata.org/entity/Q94872174', 'http://www.wikidata.org/entity/Q94887584', 'http://www.wikidata.org/entity/Q94906393', 'http://www.wikidata.org/entity/Q94922778', 'http://www.wikidata.org/entity/Q94938005', 'http://www.wikidata.org/entity/Q95227952', 'http://www.wikidata.org/entity/Q95249180', 'http://www.wikidata.org/entity/Q95389052', 'http://www.wikidata.org/entity/Q95805826', 'http://www.wikidata.org/entity/Q96452']</t>
+        </is>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Which musician wrote the most books?</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q113669']</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q6069405']</t>
+        </is>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Show me all basketball players that are higher than 2 meters.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q100149428', 'http://www.wikidata.org/entity/Q100159428', 'http://www.wikidata.org/entity/Q100159740', 'http://www.wikidata.org/entity/Q100233973', 'http://www.wikidata.org/entity/Q100234056', 'http://www.wikidata.org/entity/Q100255739', 'http://www.wikidata.org/entity/Q100268106', 'http://www.wikidata.org/entity/Q100718552', 'http://www.wikidata.org/entity/Q100718566', 'http://www.wikidata.org/entity/Q100719358', 'http://www.wikidata.org/entity/Q100720834', 'http://www.wikidata.org/entity/Q100721176', 'http://www.wikidata.org/entity/Q100723552', 'http://www.wikidata.org/entity/Q100723716', 'http://www.wikidata.org/entity/Q100741864', 'http://www.wikidata.org/entity/Q100747188', 'http://www.wikidata.org/entity/Q100751464', 'http://www.wikidata.org/entity/Q100753561', 'http://www.wikidata.org/entity/Q100753967', 'http://www.wikidata.org/entity/Q100759002', 'http://www.wikidata.org/entity/Q100759458', 'http://www.wikidata.org/entity/Q100761605', 'http://www.wikidata.org/entity/Q100766876', 'http://www.wikidata.org/entity/Q100766896', 'http://www.wikidata.org/entity/Q100768753', 'http://www.wikidata.org/entity/Q100769398', 'http://www.wikidata.org/entity/Q100769656', 'http://www.wikidata.org/entity/Q100769714', 'http://www.wikidata.org/entity/Q100770818', 'http://www.wikidata.org/entity/Q100771309', 'http://www.wikidata.org/entity/Q100771698', 'http://www.wikidata.org/entity/Q100774597', 'http://www.wikidata.org/entity/Q100775493', 'http://www.wikidata.org/entity/Q100776047', 'http://www.wikidata.org/entity/Q100776321', 'http://www.wikidata.org/entity/Q100779909', 'http://www.wikidata.org/entity/Q100779924', 'http://www.wikidata.org/entity/Q100781781', 'http://www.wikidata.org/entity/Q100782988', 'http://www.wikidata.org/entity/Q100784464', 'http://www.wikidata.org/entity/Q100785232', 'http://www.wikidata.org/entity/Q100787706', 'http://www.wikidata.org/entity/Q100789903', 'http://www.wikidata.org/entity/Q100792158', 'http://www.wikidata.org/entity/Q100793447', 'http://www.wikidata.org/entity/Q100793756', 'http://www.wikidata.org/entity/Q100794271', 'http://www.wikidata.org/entity/Q100794996', 'http://www.wikidata.org/entity/Q100795231', 'http://www.wikidata.org/entity/Q100796414', 'http://www.wikidata.org/entity/Q100796580', 'http://www.wikidata.org/entity/Q100798031', 'http://www.wikidata.org/entity/Q100798302', 'http://www.wikidata.org/entity/Q100798640', 'http://www.wikidata.org/entity/Q100798922', 'http://www.wikidata.org/entity/Q100801342', 'http://www.wikidata.org/entity/Q100802268', 'http://www.wikidata.org/entity/Q100805424', 'http://www.wikidata.org/entity/Q100806402', 'http://www.wikidata.org/entity/Q100806617', 'http://www.wikidata.org/entity/Q100808900', 'http://www.wikidata.org/entity/Q100819704', 'http://www.wikidata.org/entity/Q100868390', 'http://www.wikidata.org/entity/Q100869366', 'http://www.wikidata.org/entity/Q100870520', 'http://www.wikidata.org/entity/Q100871090', 'http://www.wikidata.org/entity/Q100874361', 'http://www.wikidata.org/entity/Q100874765', 'http://www.wikidata.org/entity/Q100876161', 'http://www.wikidata.org/entity/Q100877072', 'http://www.wikidata.org/entity/Q100880911', 'http://www.wikidata.org/entity/Q100884422', 'http://www.wikidata.org/entity/Q100884743', 'http://www.wikidata.org/entity/Q100888756', 'http://www.wikidata.org/entity/Q100889736', 'http://www.wikidata.org/entity/Q100890360', 'http://www.wikidata.org/entity/Q100892340', 'http://www.wikidata.org/entity/Q100892958', 'http://www.wikidata.org/entity/Q100893004', 'http://www.wikidata.org/entity/Q100893220', 'http://www.wikidata.org/entity/Q100893856', 'http://www.wikidata.org/entity/Q100894411', 'http://www.wikidata.org/entity/Q100894417', 'http://www.wikidata.org/entity/Q100905529', 'http://www.wikidata.org/entity/Q100907217', 'http://www.wikidata.org/entity/Q100907395', 'http://www.wikidata.org/entity/Q100907778', 'http://www.wikidata.org/entity/Q100911168', 'http://www.wikidata.org/entity/Q100911312', 'http://www.wikidata.org/entity/Q100914058', 'http://www.wikidata.org/entity/Q100917187', 'http://www.wikidata.org/entity/Q100917336', 'http://www.wikidata.org/entity/Q100918539', 'http://www.wikidata.org/entity/Q100919123', 'http://www.wikidata.org/entity/Q100922723', 'http://www.wikidata.org/entity/Q100922847', 'http://www.wikidata.org/entity/Q100924163', 'http://www.wikidata.org/entity/Q100925349', 'http://www.wikidata.org/entity/Q100929792', 'http://www.wikidata.org/entity/Q100930247', 'http://www.wikidata.org/entity/Q100934497', 'http://www.wikidata.org/entity/Q100935310', 'http://www.wikidata.org/entity/Q100935721', 'http://www.wikidata.org/entity/Q100935989', 'http://www.wikidata.org/entity/Q100939038', 'http://www.wikidata.org/entity/Q100940712', 'http://www.wikidata.org/entity/Q100942674', 'http://www.wikidata.org/entity/Q1009435', 'http://www.wikidata.org/entity/Q100944889', 'http://www.wikidata.org/entity/Q100951898', 'http://www.wikidata.org/entity/Q100952898', 'http://www.wikidata.org/entity/Q100958614', 'http://www.wikidata.org/entity/Q100961111', 'http://www.wikidata.org/entity/Q100963772', 'http://www.wikidata.org/entity/Q100963834', 'http://www.wikidata.org/entity/Q100964085', 'http://www.wikidata.org/entity/Q100981581', 'http://www.wikidata.org/entity/Q100981767', 'http://www.wikidata.org/entity/Q100981910', 'http://www.wikidata.org/entity/Q100987430', 'http://www.wikidata.org/entity/Q100987618', 'http://www.wikidata.org/entity/Q101072753', 'http://www.wikidata.org/entity/Q101385200', 'http://www.wikidata.org/entity/Q102007152', 'http://www.wikidata.org/entity/Q102282451', 'http://www.wikidata.org/entity/Q102400266', 'http://www.wikidata.org/entity/Q10261637', 'http://www.wikidata.org/entity/Q102955', 'http://www.wikidata.org/entity/Q10307612', 'http://www.wikidata.org/entity/Q1032471', 'http://www.wikidata.org/entity/Q1032693', 'http://www.wikidata.org/entity/Q1034012', 'http://www.wikidata.org/entity/Q1039453', 'http://www.wikidata.org/entity/Q104165992', 'http://www.wikidata.org/entity/Q104166462', 'http://www.wikidata.org/entity/Q104361', 'http://www.wikidata.org/entity/Q104375', 'http://www.wikidata.org/entity/Q104870461', 'http://www.wikidata.org/entity/Q105101971', 'http://www.wikidata.org/entity/Q105102366', 'http://www.wikidata.org/entity/Q105394701', 'http://www.wikidata.org/entity/Q1053971', 'http://www.wikidata.org/entity/Q105465865', 'http://www.wikidata.org/entity/Q105501473', 'http://www.wikidata.org/entity/Q1055229', 'http://www.wikidata.org/entity/Q105622399', 'http://www.wikidata.org/entity/Q105632314', 'http://www.wikidata.org/entity/Q1056335', 'http://www.wikidata.org/entity/Q1056746', 'http://www.wikidata.org/entity/Q1058595', 'http://www.wikidata.org/entity/Q1061731', 'http://www.wikidata.org/entity/Q1061776', 'http://www.wikidata.org/entity/Q106279', 'http://www.wikidata.org/entity/Q106338045', 'http://www.wikidata.org/entity/Q106448577', 'http://www.wikidata.org/entity/Q106451', 'http://www.wikidata.org/entity/Q106473444', 'http://www.wikidata.org/entity/Q106519612', 'http://www.wikidata.org/entity/Q106524904', 'http://www.wikidata.org/entity/Q106616516', 'http://www.wikidata.org/entity/Q106627490', 'http://www.wikidata.org/entity/Q106635227', 'http://www.wikidata.org/entity/Q106660414', 'http://www.wikidata.org/entity/Q106671635', 'http://www.wikidata.org/entity/Q106671703', 'http://www.wikidata.org/entity/Q106677205', 'http://www.wikidata.org/entity/Q106680697', 'http://www.wikidata.org/entity/Q106720122', 'http://www.wikidata.org/entity/Q106778918', 'http://www.wikidata.org/entity/Q106781914', 'http://www.wikidata.org/entity/Q106806341', 'http://www.wikidata.org/entity/Q106817973', 'http://www.wikidata.org/entity/Q106818099', 'http://www.wikidata.org/entity/Q106818169', 'http://www.wikidata.org/entity/Q106818559', 'http://www.wikidata.org/entity/Q106818739', 'http://www.wikidata.org/entity/Q106825117', 'http://www.wikidata.org/entity/Q106963403', 'http://www.wikidata.org/entity/Q106963499', 'http://www.wikidata.org/entity/Q106977533', 'http://www.wikidata.org/entity/Q107093740', 'http://www.wikidata.org/entity/Q107118384', 'http://www.wikidata.org/entity/Q107151952', 'http://www.wikidata.org/entity/Q107152625', 'http://www.wikidata.org/entity/Q107178241', 'http://www.wikidata.org/entity/Q107178269', 'http://www.wikidata.org/entity/Q107185703', 'http://www.wikidata.org/entity/Q107207765', 'http://www.wikidata.org/entity/Q107253264', 'http://www.wikidata.org/entity/Q107287851', 'http://www.wikidata.org/entity/Q107287942', 'http://www.wikidata.org/entity/Q107305764', 'http://www.wikidata.org/entity/Q107309089', 'http://www.wikidata.org/entity/Q107314128', 'http://www.wikidata.org/entity/Q107327655', 'http://www.wikidata.org/entity/Q107337984', 'http://www.wikidata.org/entity/Q107344389', 'http://www.wikidata.org/entity/Q107355280', 'http://www.wikidata.org/entity/Q107363162', 'http://www.wikidata.org/entity/Q107369214', 'http://www.wikidata.org/entity/Q107378373', 'http://www.wikidata.org/entity/Q107419969', 'http://www.wikidata.org/entity/Q107422938', 'http://www.wikidata.org/entity/Q107504019', 'http://www.wikidata.org/entity/Q107504309', 'http://www.wikidata.org/entity/Q107530183', 'http://www.wikidata.org/entity/Q107549720', 'http://www.wikidata.org/entity/Q107585991', 'http://www.wikidata.org/entity/Q107586380', 'http://www.wikidata.org/entity/Q107588913', 'http://www.wikidata.org/entity/Q1075978', 'http://www.wikidata.org/entity/Q1075984', 'http://www.wikidata.org/entity/Q1076942', 'http://www.wikidata.org/entity/Q1077184', 'http://www.wikidata.org/entity/Q1077193', 'http://www.wikidata.org/entity/Q1077292', 'http://www.wikidata.org/entity/Q1077437', 'http://www.wikidata.org/entity/Q107752619', 'http://www.wikidata.org/entity/Q1077607', 'http://www.wikidata.org/entity/Q1077613', 'http://www.wikidata.org/entity/Q1077634', 'http://www.wikidata.org/entity/Q108112686', 'http://www.wikidata.org/entity/Q108113174', 'http://www.wikidata.org/entity/Q108152227', 'http://www.wikidata.org/entity/Q108170613', 'http://www.wikidata.org/entity/Q1081976', 'http://www.wikidata.org/entity/Q108291', 'http://www.wikidata.org/entity/Q108293322', 'http://www.wikidata.org/entity/Q1082954', 'http://www.wikidata.org/entity/Q108307199', 'http://www.wikidata.org/entity/Q10831393', 'http://www.wikidata.org/entity/Q108314957', 'http://www.wikidata.org/entity/Q108333', 'http://www.wikidata.org/entity/Q108444645', 'http://www.wikidata.org/entity/Q108464191', 'http://www.wikidata.org/entity/Q108502580', 'http://www.wikidata.org/entity/Q108560985', 'http://www.wikidata.org/entity/Q108561381', 'http://www.wikidata.org/entity/Q108650400', 'http://www.wikidata.org/entity/Q108697360', 'http://www.wikidata.org/entity/Q1086985', 'http://www.wikidata.org/entity/Q108733631', 'http://www.wikidata.org/entity/Q108757835', 'http://www.wikidata.org/entity/Q108761974', 'http://www.wikidata.org/entity/Q10877291', 'http://www.wikidata.org/entity/Q108809817', 'http://www.wikidata.org/entity/Q108822235', 'http://www.wikidata.org/entity/Q108823000', 'http://www.wikidata.org/entity/Q108858175', 'http://www.wikidata.org/entity/Q108870659', 'http://www.wikidata.org/entity/Q108915542', 'http://www.wikidata.org/entity/Q1089188', 'http://www.wikidata.org/entity/Q10917065', 'http://www.wikidata.org/entity/Q1091785', 'http://www.wikidata.org/entity/Q109336431', 'http://www.wikidata.org/entity/Q1093458', 'http://www.wikidata.org/entity/Q109425776', 'http://www.wikidata.org/entity/Q109463904', 'http://www.wikidata.org/entity/Q109468740', 'http://www.wikidata.org/entity/Q109524417', 'http://www.wikidata.org/entity/Q109540571', 'http://www.wikidata.org/entity/Q109540589', 'http://www.wikidata.org/entity/Q109544933', 'http://www.wikidata.org/entity/Q109553878', 'http://www.wikidata.org/entity/Q109728722', 'http://www.wikidata.org/entity/Q1097554', 'http://www.wikidata.org/entity/Q109780503', 'http://www.wikidata.org/entity/Q109780810', 'http://www.wikidata.org/entity/Q109829337', 'http://www.wikidata.org/entity/Q109829404', 'http://www.wikidata.org/entity/Q10983515', 'http://www.wikidata.org/entity/Q109851380', 'http://www.wikidata.org/entity/Q109853277', 'http://www.wikidata.org/entity/Q109933627', 'http://www.wikidata.org/entity/Q109967900', 'http://www.wikidata.org/entity/Q109983648', 'http://www.wikidata.org/entity/Q110024215', 'http://www.wikidata.org/entity/Q110070283', 'http://www.wikidata.org/entity/Q1101335', 'http://www.wikidata.org/entity/Q11019119', 'http://www.wikidata.org/entity/Q1102088', 'http://www.wikidata.org/entity/Q110252034', 'http://www.wikidata.org/entity/Q110271131', 'http://www.wikidata.org/entity/Q110322226', 'http://www.wikidata.org/entity/Q1103788', 'http://www.wikidata.org/entity/Q1103821', 'http://www.wikidata.org/entity/Q110457791', 'http://www.wikidata.org/entity/Q110546841', 'http://www.wikidata.org/entity/Q110619093', 'http://www.wikidata.org/entity/Q110619637', 'http://www.wikidata.org/entity/Q110637006', 'http://www.wikidata.org/entity/Q110664194', 'http://www.wikidata.org/entity/Q110914467', 'http://www.wikidata.org/entity/Q110983769', 'http://www.wikidata.org/entity/Q111008', 'http://www.wikidata.org/entity/Q111025353', 'http://www.wikidata.org/entity/Q111025906', 'http://www.wikidata.org/entity/Q111031599', 'http://www.wikidata.org/entity/Q111049849', 'http://www.wikidata.org/entity/Q111049873', 'http://www.wikidata.org/entity/Q111049881', 'http://www.wikidata.org/entity/Q111049894', 'http://www.wikidata.org/entity/Q1111021', 'http://www.wikidata.org/entity/Q1111167', 'http://www.wikidata.org/entity/Q1111983', 'http://www.wikidata.org/entity/Q1112016', 'http://www.wikidata.org/entity/Q1112771', 'http://www.wikidata.org/entity/Q1112996', 'http://www.wikidata.org/entity/Q1113963', 'http://www.wikidata.org/entity/Q1114256', 'http://www.wikidata.org/entity/Q111508849', 'http://www.wikidata.org/entity/Q1115784', 'http://www.wikidata.org/entity/Q1115975', 'http://www.wikidata.org/entity/Q1116123', 'http://www.wikidata.org/entity/Q111631232', 'http://www.wikidata.org/entity/Q111765767', 'http://www.wikidata.org/entity/Q1117816', 'http://www.wikidata.org/entity/Q1118250', 'http://www.wikidata.org/entity/Q1119099', 'http://www.wikidata.org/entity/Q1119288', 'http://www.wikidata.org/entity/Q112062135', 'http://www.wikidata.org/entity/Q112073280', 'http://www.wikidata.org/entity/Q112080040', 'http://www.wikidata.org/entity/Q1120880', 'http://www.wikidata.org/entity/Q112148353', 'http://www.wikidata.org/entity/Q112183592', 'http://www.wikidata.org/entity/Q112435', 'http://www.wikidata.org/entity/Q112449', 'http://www.wikidata.org/entity/Q1125388', 'http://www.wikidata.org/entity/Q1125913', 'http://www.wikidata.org/entity/Q1125990', 'http://www.wikidata.org/entity/Q112625459', 'http://www.wikidata.org/entity/Q1126347', 'http://www.wikidata.org/entity/Q112659357', 'http://www.wikidata.org/entity/Q112687854', 'http://www.wikidata.org/entity/Q112726895', 'http://www.wikidata.org/entity/Q112894312', 'http://www.wikidata.org/entity/Q11289612', 'http://www.wikidata.org/entity/Q112913802', 'http://www.wikidata.org/entity/Q11299322', 'http://www.wikidata.org/entity/Q11299342', 'http://www.wikidata.org/entity/Q113112644', 'http://www.wikidata.org/entity/Q113202398', 'http://www.wikidata.org/entity/Q113214570', 'http://www.wikidata.org/entity/Q113215147', 'http://www.wikidata.org/entity/Q1132365', 'http://www.wikidata.org/entity/Q1132507', 'http://www.wikidata.org/entity/Q1132527', 'http://www.wikidata.org/entity/Q1132528', 'http://www.wikidata.org/entity/Q1132658', 'http://www.wikidata.org/entity/Q1132738', 'http://www.wikidata.org/entity/Q1132834', 'http://www.wikidata.org/entity/Q113291458', 'http://www.wikidata.org/entity/Q113292358', 'http://www.wikidata.org/entity/Q113292554', 'http://www.wikidata.org/entity/Q113292603', 'http://www.wikidata.org/entity/Q113298428', 'http://www.wikidata.org/entity/Q1134048', 'http://www.wikidata.org/entity/Q1134258', 'http://www.wikidata.org/entity/Q113494597', 'http://www.wikidata.org/entity/Q113549293', 'http://www.wikidata.org/entity/Q113566316', 'http://www.wikidata.org/entity/Q113569', 'http://www.wikidata.org/entity/Q113576', 'http://www.wikidata.org/entity/Q113649755', 'http://www.wikidata.org/entity/Q113661680', 'http://www.wikidata.org/entity/Q113674416', 'http://www.wikidata.org/entity/Q11379850', 'http://www.wikidata.org/entity/Q1138128', 'http://www.wikidata.org/entity/Q1138514', 'http://www.wikidata.org/entity/Q1138783', 'http://www.wikidata.org/entity/Q11401248', 'http://www.wikidata.org/entity/Q114032183', 'http://www.wikidata.org/entity/Q114045156', 'http://www.wikidata.org/entity/Q1141637', 'http://www.wikidata.org/entity/Q1142331', 'http://www.wikidata.org/entity/Q114349752', 'http://www.wikidata.org/entity/Q114566945', 'http://www.wikidata.org/entity/Q114667692', 'http://www.wikidata.org/entity/Q1147376', 'http://www.wikidata.org/entity/Q114857113', 'http://www.wikidata.org/entity/Q114863064', 'http://www.wikidata.org/entity/Q11500583', 'http://www.wikidata.org/entity/Q1150317', 'http://www.wikidata.org/entity/Q115102703', 'http://www.wikidata.org/entity/Q1151037', 'http://www.wikidata.org/entity/Q115119808', 'http://www.wikidata.org/entity/Q115154999', 'http://www.wikidata.org/entity/Q115161001', 'http://www.wikidata.org/entity/Q115161434', 'http://www.wikidata.org/entity/Q1152506', 'http://www.wikidata.org/entity/Q115475940', 'http://www.wikidata.org/entity/Q115581265', 'http://www.wikidata.org/entity/Q115629', 'http://www.wikidata.org/entity/Q115634', 'http://www.wikidata.org/entity/Q115722', 'http://www.wikidata.org/entity/Q1159084', 'http://www.wikidata.org/entity/Q115915', 'http://www.wikidata.org/entity/Q1160342', 'http://www.wikidata.org/entity/Q116037', 'http://www.wikidata.org/entity/Q116176311', 'http://www.wikidata.org/entity/Q116176433', 'http://www.wikidata.org/entity/Q116185196', 'http://www.wikidata.org/entity/Q116186160', 'http://www.wikidata.org/entity/Q116189529', 'http://www.wikidata.org/entity/Q116195972', 'http://www.wikidata.org/entity/Q116198', 'http://www.wikidata.org/entity/Q116198940', 'http://www.wikidata.org/entity/Q116254', 'http://www.wikidata.org/entity/Q116257813', 'http://www.wikidata.org/entity/Q116431030', 'http://www.wikidata.org/entity/Q1164595', 'http://www.wikidata.org/entity/Q116551', 'http://www.wikidata.org/entity/Q1165980', 'http://www.wikidata.org/entity/Q1166617', 'http://www.wikidata.org/entity/Q116699', 'http://www.wikidata.org/entity/Q116783152', 'http://www.wikidata.org/entity/Q11685267', 'http://www.wikidata.org/entity/Q11693116', 'http://www.wikidata.org/entity/Q11699292', 'http://www.wikidata.org/entity/Q11699400', 'http://www.wikidata.org/entity/Q11702775', 'http://www.wikidata.org/entity/Q117037725', 'http://www.wikidata.org/entity/Q117038081', 'http://www.wikidata.org/entity/Q1170394', 'http://www.wikidata.org/entity/Q11716504', 'http://www.wikidata.org/entity/Q11720871', 'http://www.wikidata.org/entity/Q11721059', 'http://www.wikidata.org/entity/Q117220242', 'http://www.wikidata.org/entity/Q11722423', 'http://www.wikidata.org/entity/Q11722534', 'http://www.wikidata.org/entity/Q11724895', 'http://www.wikidata.org/entity/Q11727964', 'http://www.wikidata.org/entity/Q1173006', 'http://www.wikidata.org/entity/Q117348117', 'http://www.wikidata.org/entity/Q117350394', 'http://www.wikidata.org/entity/Q117360100', 'http://www.wikidata.org/entity/Q11739472', 'http://www.wikidata.org/entity/Q11743625', 'http://www.wikidata.org/entity/Q11748193', 'http://www.wikidata.org/entity/Q11748226', 'http://www.wikidata.org/entity/Q11749180', 'http://www.wikidata.org/entity/Q11749793', 'http://www.wikidata.org/entity/Q11753337', 'http://www.wikidata.org/entity/Q11754931', 'http://www.wikidata.org/entity/Q11754983', 'http://www.wikidata.org/entity/Q11765656', 'http://www.wikidata.org/entity/Q11767971', 'http://www.wikidata.org/entity/Q11768324', 'http://www.wikidata.org/entity/Q11768382', 'http://www.wikidata.org/entity/Q11768625', 'http://www.wikidata.org/entity/Q11770209', 'http://www.wikidata.org/entity/Q11770367', 'http://www.wikidata.org/entity/Q11771408', 'http://www.wikidata.org/entity/Q11778743', 'http://www.wikidata.org/entity/Q11778794', 'http://www.wikidata.org/entity/Q11779346', 'http://www.wikidata.org/entity/Q11781314', 'http://www.wikidata.org/entity/Q11781980', 'http://www.wikidata.org/entity/Q1178241', 'http://www.wikidata.org/entity/Q11790090', 'http://www.wikidata.org/entity/Q11791016', 'http://www.wikidata.org/entity/Q1179612', 'http://www.wikidata.org/entity/Q11798199', 'http://www.wikidata.org/entity/Q118067', 'http://www.wikidata.org/entity/Q11813536', 'http://www.wikidata.org/entity/Q11813953', 'http://www.wikidata.org/entity/Q11813969', 'http://www.wikidata.org/entity/Q11814182', 'http://www.wikidata.org/entity/Q11814272', 'http://www.wikidata.org/entity/Q11814493', 'http://www.wikidata.org/entity/Q11817884', 'http://www.wikidata.org/entity/Q11818115', 'http://www.wikidata.org/entity/Q11818159', 'http://www.wikidata.org/entity/Q118235978', 'http://www.wikidata.org/entity/Q11833807', 'http://www.wikidata.org/entity/Q11835010', 'http://www.wikidata.org/entity/Q11857841', 'http://www.wikidata.org/entity/Q118842860', 'http://www.wikidata.org/entity/Q1188603', 'http://www.wikidata.org/entity/Q11891970', 'http://www.wikidata.org/entity/Q11892200', 'http://www.wikidata.org/entity/Q1189243', 'http://www.wikidata.org/entity/Q118929123', 'http://www.wikidata.org/entity/Q1189516', 'http://www.wikidata.org/entity/Q119478026', 'http://www.wikidata.org/entity/Q1195813', 'http://www.wikidata.org/entity/Q1200325', 'http://www.wikidata.org/entity/Q1200330', 'http://www.wikidata.org/entity/Q1200332', 'http://www.wikidata.org/entity/Q120098', 'http://www.wikidata.org/entity/Q12023140', 'http://www.wikidata.org/entity/Q12058834', 'http://www.wikidata.org/entity/Q1206898', 'http://www.wikidata.org/entity/Q120758808', 'http://www.wikidata.org/entity/Q121345616', 'http://www.wikidata.org/entity/Q121509892', 'http://www.wikidata.org/entity/Q121647', 'http://www.wikidata.org/entity/Q121819110', 'http://www.wikidata.org/entity/Q1225976', 'http://www.wikidata.org/entity/Q1226046', 'http://www.wikidata.org/entity/Q122618263', 'http://www.wikidata.org/entity/Q12269620', 'http://www.wikidata.org/entity/Q1227980', 'http://www.wikidata.org/entity/Q122906791', 'http://www.wikidata.org/entity/Q122917377', 'http://www.wikidata.org/entity/Q122920596', 'http://www.wikidata.org/entity/Q122943752', 'http://www.wikidata.org/entity/Q122952', 'http://www.wikidata.org/entity/Q123040', 'http://www.wikidata.org/entity/Q123146620', 'http://www.wikidata.org/entity/Q123248759', 'http://www.wikidata.org/entity/Q123248763', 'http://www.wikidata.org/entity/Q123248782', 'http://www.wikidata.org/entity/Q123248783', 'http://www.wikidata.org/entity/Q123258476', 'http://www.wikidata.org/entity/Q123258478', 'http://www.wikidata.org/entity/Q123259128', 'http://www.wikidata.org/entity/Q123335401', 'http://www.wikidata.org/entity/Q123379966', 'http://www.wikidata.org/entity/Q12360491', 'http://www.wikidata.org/entity/Q123684928', 'http://www.wikidata.org/entity/Q123741611', 'http://www.wikidata.org/entity/Q1238103', 'http://www.wikidata.org/entity/Q12387305', 'http://www.wikidata.org/entity/Q124048598', 'http://www.wikidata.org/entity/Q124131733', 'http://www.wikidata.org/entity/Q1242197', 'http://www.wikidata.org/entity/Q124328139', 'http://www.wikidata.org/entity/Q124540519', 'http://www.wikidata.org/entity/Q124620825', 'http://www.wikidata.org/entity/Q124637208', 'http://www.wikidata.org/entity/Q124694773', 'http://www.wikidata.org/entity/Q124694878', 'http://www.wikidata.org/entity/Q125017196', 'http://www.wikidata.org/entity/Q125080586', 'http://www.wikidata.org/entity/Q1254600', 'http://www.wikidata.org/entity/Q125563664', 'http://www.wikidata.org/entity/Q125563895', 'http://www.wikidata.org/entity/Q125563998', 'http://www.wikidata.org/entity/Q125569524', 'http://www.wikidata.org/entity/Q126114396', 'http://www.wikidata.org/entity/Q12633139', 'http://www.wikidata.org/entity/Q12633230', 'http://www.wikidata.org/entity/Q12641301', 'http://www.wikidata.org/entity/Q12643733', 'http://www.wikidata.org/entity/Q1264436', 'http://www.wikidata.org/entity/Q126487461', 'http://www.wikidata.org/entity/Q126487462', 'http://www.wikidata.org/entity/Q12649488', 'http://www.wikidata.org/entity/Q12659740', 'http://www.wikidata.org/entity/Q1267570', 'http://www.wikidata.org/entity/Q1267622', 'http://www.wikidata.org/entity/Q126923070', 'http://www.wikidata.org/entity/Q126947594', 'http://www.wikidata.org/entity/Q1270684', 'http://www.wikidata.org/entity/Q1273047', 'http://www.wikidata.org/entity/Q12749074', 'http://www.wikidata.org/entity/Q127561', 'http://www.wikidata.org/entity/Q12756207', 'http://www.wikidata.org/entity/Q1277708', 'http://www.wikidata.org/entity/Q1279010', 'http://www.wikidata.org/entity/Q127925147', 'http://www.wikidata.org/entity/Q1279973', 'http://www.wikidata.org/entity/Q128188', 'http://www.wikidata.org/entity/Q1282320', 'http://www.wikidata.org/entity/Q1282809', 'http://www.wikidata.org/entity/Q128530', 'http://www.wikidata.org/entity/Q12858621', 'http://www.wikidata.org/entity/Q1286476', 'http://www.wikidata.org/entity/Q12875341', 'http://www.wikidata.org/entity/Q12880385', 'http://www.wikidata.org/entity/Q1289729', 'http://www.wikidata.org/entity/Q129041', 'http://www.wikidata.org/entity/Q12911186', 'http://www.wikidata.org/entity/Q1291124', 'http://www.wikidata.org/entity/Q1292529', 'http://www.wikidata.org/entity/Q1293573', 'http://www.wikidata.org/entity/Q1296648', 'http://www.wikidata.org/entity/Q12981769', 'http://www.wikidata.org/entity/Q130215388', 'http://www.wikidata.org/entity/Q130221109', 'http://www.wikidata.org/entity/Q130240633', 'http://www.wikidata.org/entity/Q130242077', 'http://www.wikidata.org/entity/Q130298106', 'http://www.wikidata.org/entity/Q1314733', 'http://www.wikidata.org/entity/Q131942', 'http://www.wikidata.org/entity/Q132208', 'http://www.wikidata.org/entity/Q1327649', 'http://www.wikidata.org/entity/Q1328504', 'http://www.wikidata.org/entity/Q1332856', 'http://www.wikidata.org/entity/Q1334238', 'http://www.wikidata.org/entity/Q1336737', 'http://www.wikidata.org/entity/Q1338315', 'http://www.wikidata.org/entity/Q1339658', 'http://www.wikidata.org/entity/Q13410394', 'http://www.wikidata.org/entity/Q13416839', 'http://www.wikidata.org/entity/Q134183', 'http://www.wikidata.org/entity/Q1343292', 'http://www.wikidata.org/entity/Q13464007', 'http://www.wikidata.org/entity/Q135109', 'http://www.wikidata.org/entity/Q13512907', 'http://www.wikidata.org/entity/Q13515766', 'http://www.wikidata.org/entity/Q135167', 'http://www.wikidata.org/entity/Q1351678', 'http://www.wikidata.org/entity/Q1353620', 'http://www.wikidata.org/entity/Q1355070', 'http://www.wikidata.org/entity/Q13561021', 'http://www.wikidata.org/entity/Q13563911', 'http://www.wikidata.org/entity/Q1356519', 'http://www.wikidata.org/entity/Q13582445', 'http://www.wikidata.org/entity/Q1358452', 'http://www.wikidata.org/entity/Q1359588', 'http://www.wikidata.org/entity/Q13605907', 'http://www.wikidata.org/entity/Q13605931', 'http://www.wikidata.org/entity/Q13605936', 'http://www.wikidata.org/entity/Q13605944', 'http://www.wikidata.org/entity/Q13605975', 'http://www.wikidata.org/entity/Q13605982', 'http://www.wikidata.org/entity/Q13606007', 'http://www.wikidata.org/entity/Q1361081', 'http://www.wikidata.org/entity/Q1362580', 'http://www.wikidata.org/entity/Q1362664', 'http://www.wikidata.org/entity/Q1362904', 'http://www.wikidata.org/entity/Q1363177', 'http://www.wikidata.org/entity/Q1363787', 'http://www.wikidata.org/entity/Q1363884', 'http://www.wikidata.org/entity/Q1363974', 'http://www.wikidata.org/entity/Q1364009', 'http://www.wikidata.org/entity/Q1364223', 'http://www.wikidata.org/entity/Q1365630', 'http://www.wikidata.org/entity/Q1365645', 'http://www.wikidata.org/entity/Q1366501', 'http://www.wikidata.org/entity/Q1370831', 'http://www.wikidata.org/entity/Q13708767', 'http://www.wikidata.org/entity/Q13709114', 'http://www.wikidata.org/entity/Q1370925', 'http://www.wikidata.org/entity/Q1371485', 'http://www.wikidata.org/entity/Q1373712', 'http://www.wikidata.org/entity/Q137450', 'http://www.wikidata.org/entity/Q1375461', 'http://www.wikidata.org/entity/Q1375950', 'http://www.wikidata.org/entity/Q1377443', 'http://www.wikidata.org/entity/Q1380489', 'http://www.wikidata.org/entity/Q1380719', 'http://www.wikidata.org/entity/Q1381445', 'http://www.wikidata.org/entity/Q1381732', 'http://www.wikidata.org/entity/Q13860876', 'http://www.wikidata.org/entity/Q13876407', 'http://www.wikidata.org/entity/Q1387820', 'http://www.wikidata.org/entity/Q13899976', 'http://www.wikidata.org/entity/Q1390262', 'http://www.wikidata.org/entity/Q1392517', 'http://www.wikidata.org/entity/Q13930506', 'http://www.wikidata.org/entity/Q13930814', 'http://www.wikidata.org/entity/Q1393378', 'http://www.wikidata.org/entity/Q1393433', 'http://www.wikidata.org/entity/Q139376', 'http://www.wikidata.org/entity/Q1398536', 'http://www.wikidata.org/entity/Q1401783', 'http://www.wikidata.org/entity/Q1406261', 'http://www.wikidata.org/entity/Q14073727', 'http://www.wikidata.org/entity/Q1407902', 'http://www.wikidata.org/entity/Q1408291', 'http://www.wikidata.org/entity/Q14088570', 'http://www.wikidata.org/entity/Q1413920', 'http://www.wikidata.org/entity/Q14163514', 'http://www.wikidata.org/entity/Q14172158', 'http://www.wikidata.org/entity/Q14172238', 'http://www.wikidata.org/entity/Q1421720', 'http://www.wikidata.org/entity/Q142214', 'http://www.wikidata.org/entity/Q1422575', 'http://www.wikidata.org/entity/Q1424128', 'http://www.wikidata.org/entity/Q1424134', 'http://www.wikidata.org/entity/Q1424165', 'http://www.wikidata.org/entity/Q1424414', 'http://www.wikidata.org/entity/Q1424455', 'http://www.wikidata.org/entity/Q1424462', 'http://www.wikidata.org/entity/Q1424475', 'http://www.wikidata.org/entity/Q1424495', 'http://www.wikidata.org/entity/Q1424502', 'http://www.wikidata.org/entity/Q1429702', 'http://www.wikidata.org/entity/Q14320215', 'http://www.wikidata.org/entity/Q14324145', 'http://www.wikidata.org/entity/Q14324284', 'http://www.wikidata.org/entity/Q14324339', 'http://www.wikidata.org/entity/Q14324358', 'http://www.wikidata.org/entity/Q14324364', 'http://www.wikidata.org/entity/Q14325764', 'http://www.wikidata.org/entity/Q14325768', 'http://www.wikidata.org/entity/Q1432596', 'http://www.wikidata.org/entity/Q14326804', 'http://www.wikidata.org/entity/Q14327036', 'http://www.wikidata.org/entity/Q14327270', 'http://www.wikidata.org/entity/Q14327391', 'http://www.wikidata.org/entity/Q14327750', 'http://www.wikidata.org/entity/Q14329123', 'http://www.wikidata.org/entity/Q14329138', 'http://www.wikidata.org/entity/Q14329365', 'http://www.wikidata.org/entity/Q14329497', 'http://www.wikidata.org/entity/Q14329695', 'http://www.wikidata.org/entity/Q14330245', 'http://www.wikidata.org/entity/Q14330465', 'http://www.wikidata.org/entity/Q14330469', 'http://www.wikidata.org/entity/Q1435883', 'http://www.wikidata.org/entity/Q1438347', 'http://www.wikidata.org/entity/Q1438348', 'http://www.wikidata.org/entity/Q1439529', 'http://www.wikidata.org/entity/Q1439541', 'http://www.wikidata.org/entity/Q14399923', 'http://www.wikidata.org/entity/Q1440606', 'http://www.wikidata.org/entity/Q1441343', 'http://www.wikidata.org/entity/Q1441397', 'http://www.wikidata.org/entity/Q1441492', 'http://www.wikidata.org/entity/Q1441499', 'http://www.wikidata.org/entity/Q1442053', 'http://www.wikidata.org/entity/Q1442329', 'http://www.wikidata.org/entity/Q14425572', 'http://www.wikidata.org/entity/Q14427097', 'http://www.wikidata.org/entity/Q14432081', 'http://www.wikidata.org/entity/Q1444910', 'http://www.wikidata.org/entity/Q1444934', 'http://www.wikidata.org/entity/Q1445196', 'http://www.wikidata.org/entity/Q1445455', 'http://www.wikidata.org/entity/Q1445762', 'http://www.wikidata.org/entity/Q1445827', 'http://www.wikidata.org/entity/Q144703', 'http://www.wikidata.org/entity/Q1449836', 'http://www.wikidata.org/entity/Q1449882', 'http://www.wikidata.org/entity/Q1452892', 'http://www.wikidata.org/entity/Q1453383', 'http://www.wikidata.org/entity/Q1454479', 'http://www.wikidata.org/entity/Q1455079', 'http://www.wikidata.org/entity/Q1458225', 'http://www.wikidata.org/entity/Q1458255', 'http://www.wikidata.org/entity/Q1458276', 'http://www.wikidata.org/entity/Q1458282', 'http://www.wikidata.org/entity/Q1458307', 'http://www.wikidata.org/entity/Q1458320', 'http://www.wikidata.org/entity/Q1458331', 'http://www.wikidata.org/entity/Q1458344', 'http://www.wikidata.org/entity/Q1458359', 'http://www.wikidata.org/entity/Q145840</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q100149428', 'http://www.wikidata.org/entity/Q100159428', 'http://www.wikidata.org/entity/Q100159740', 'http://www.wikidata.org/entity/Q100233973', 'http://www.wikidata.org/entity/Q100234056', 'http://www.wikidata.org/entity/Q100255739', 'http://www.wikidata.org/entity/Q100268106', 'http://www.wikidata.org/entity/Q100718552', 'http://www.wikidata.org/entity/Q100718566', 'http://www.wikidata.org/entity/Q100719358', 'http://www.wikidata.org/entity/Q100720834', 'http://www.wikidata.org/entity/Q100721176', 'http://www.wikidata.org/entity/Q100723552', 'http://www.wikidata.org/entity/Q100723716', 'http://www.wikidata.org/entity/Q100741864', 'http://www.wikidata.org/entity/Q100747188', 'http://www.wikidata.org/entity/Q100751464', 'http://www.wikidata.org/entity/Q100753561', 'http://www.wikidata.org/entity/Q100753967', 'http://www.wikidata.org/entity/Q100759002', 'http://www.wikidata.org/entity/Q100759458', 'http://www.wikidata.org/entity/Q100761605', 'http://www.wikidata.org/entity/Q100766876', 'http://www.wikidata.org/entity/Q100766896', 'http://www.wikidata.org/entity/Q100768753', 'http://www.wikidata.org/entity/Q100769398', 'http://www.wikidata.org/entity/Q100769656', 'http://www.wikidata.org/entity/Q100769714', 'http://www.wikidata.org/entity/Q100770818', 'http://www.wikidata.org/entity/Q100771309', 'http://www.wikidata.org/entity/Q100771698', 'http://www.wikidata.org/entity/Q100774597', 'http://www.wikidata.org/entity/Q100775493', 'http://www.wikidata.org/entity/Q100776047', 'http://www.wikidata.org/entity/Q100776321', 'http://www.wikidata.org/entity/Q100779909', 'http://www.wikidata.org/entity/Q100779924', 'http://www.wikidata.org/entity/Q100781781', 'http://www.wikidata.org/entity/Q100782988', 'http://www.wikidata.org/entity/Q100784464', 'http://www.wikidata.org/entity/Q100785232', 'http://www.wikidata.org/entity/Q100787706', 'http://www.wikidata.org/entity/Q100789903', 'http://www.wikidata.org/entity/Q100792158', 'http://www.wikidata.org/entity/Q100793447', 'http://www.wikidata.org/entity/Q100793756', 'http://www.wikidata.org/entity/Q100794271', 'http://www.wikidata.org/entity/Q100794996', 'http://www.wikidata.org/entity/Q100795231', 'http://www.wikidata.org/entity/Q100796414', 'http://www.wikidata.org/entity/Q100796580', 'http://www.wikidata.org/entity/Q100798031', 'http://www.wikidata.org/entity/Q100798302', 'http://www.wikidata.org/entity/Q100798640', 'http://www.wikidata.org/entity/Q100798922', 'http://www.wikidata.org/entity/Q100801342', 'http://www.wikidata.org/entity/Q100802268', 'http://www.wikidata.org/entity/Q100805424', 'http://www.wikidata.org/entity/Q100806402', 'http://www.wikidata.org/entity/Q100806617', 'http://www.wikidata.org/entity/Q100808900', 'http://www.wikidata.org/entity/Q100819704', 'http://www.wikidata.org/entity/Q100868390', 'http://www.wikidata.org/entity/Q100869366', 'http://www.wikidata.org/entity/Q100870520', 'http://www.wikidata.org/entity/Q100871090', 'http://www.wikidata.org/entity/Q100874361', 'http://www.wikidata.org/entity/Q100874765', 'http://www.wikidata.org/entity/Q100876161', 'http://www.wikidata.org/entity/Q100877072', 'http://www.wikidata.org/entity/Q100880911', 'http://www.wikidata.org/entity/Q100884422', 'http://www.wikidata.org/entity/Q100884743', 'http://www.wikidata.org/entity/Q100888756', 'http://www.wikidata.org/entity/Q100889736', 'http://www.wikidata.org/entity/Q100890360', 'http://www.wikidata.org/entity/Q100892340', 'http://www.wikidata.org/entity/Q100892958', 'http://www.wikidata.org/entity/Q100893004', 'http://www.wikidata.org/entity/Q100893220', 'http://www.wikidata.org/entity/Q100893856', 'http://www.wikidata.org/entity/Q100894411', 'http://www.wikidata.org/entity/Q100894417', 'http://www.wikidata.org/entity/Q100905529', 'http://www.wikidata.org/entity/Q100907217', 'http://www.wikidata.org/entity/Q100907395', 'http://www.wikidata.org/entity/Q100907778', 'http://www.wikidata.org/entity/Q100911168', 'http://www.wikidata.org/entity/Q100911312', 'http://www.wikidata.org/entity/Q100914058', 'http://www.wikidata.org/entity/Q100917187', 'http://www.wikidata.org/entity/Q100917336', 'http://www.wikidata.org/entity/Q100918539', 'http://www.wikidata.org/entity/Q100919123', 'http://www.wikidata.org/entity/Q100922723', 'http://www.wikidata.org/entity/Q100922847', 'http://www.wikidata.org/entity/Q100924163', 'http://www.wikidata.org/entity/Q100925349', 'http://www.wikidata.org/entity/Q100929792', 'http://www.wikidata.org/entity/Q100930247', 'http://www.wikidata.org/entity/Q100934497', 'http://www.wikidata.org/entity/Q100935310', 'http://www.wikidata.org/entity/Q100935721', 'http://www.wikidata.org/entity/Q100935989', 'http://www.wikidata.org/entity/Q100939038', 'http://www.wikidata.org/entity/Q100940712', 'http://www.wikidata.org/entity/Q100942674', 'http://www.wikidata.org/entity/Q1009435', 'http://www.wikidata.org/entity/Q100944889', 'http://www.wikidata.org/entity/Q100951898', 'http://www.wikidata.org/entity/Q100952898', 'http://www.wikidata.org/entity/Q100958614', 'http://www.wikidata.org/entity/Q100961111', 'http://www.wikidata.org/entity/Q100963772', 'http://www.wikidata.org/entity/Q100963834', 'http://www.wikidata.org/entity/Q100964085', 'http://www.wikidata.org/entity/Q100981581', 'http://www.wikidata.org/entity/Q100981767', 'http://www.wikidata.org/entity/Q100981910', 'http://www.wikidata.org/entity/Q100987430', 'http://www.wikidata.org/entity/Q100987618', 'http://www.wikidata.org/entity/Q101072753', 'http://www.wikidata.org/entity/Q101385200', 'http://www.wikidata.org/entity/Q102007152', 'http://www.wikidata.org/entity/Q102282451', 'http://www.wikidata.org/entity/Q102400266', 'http://www.wikidata.org/entity/Q10261637', 'http://www.wikidata.org/entity/Q102955', 'http://www.wikidata.org/entity/Q10307612', 'http://www.wikidata.org/entity/Q1032471', 'http://www.wikidata.org/entity/Q1032693', 'http://www.wikidata.org/entity/Q1034012', 'http://www.wikidata.org/entity/Q1039453', 'http://www.wikidata.org/entity/Q104165992', 'http://www.wikidata.org/entity/Q104166462', 'http://www.wikidata.org/entity/Q104361', 'http://www.wikidata.org/entity/Q104375', 'http://www.wikidata.org/entity/Q104870461', 'http://www.wikidata.org/entity/Q105101971', 'http://www.wikidata.org/entity/Q105102366', 'http://www.wikidata.org/entity/Q105394701', 'http://www.wikidata.org/entity/Q1053971', 'http://www.wikidata.org/entity/Q105465865', 'http://www.wikidata.org/entity/Q105501473', 'http://www.wikidata.org/entity/Q1055229', 'http://www.wikidata.org/entity/Q105622399', 'http://www.wikidata.org/entity/Q105632314', 'http://www.wikidata.org/entity/Q1056335', 'http://www.wikidata.org/entity/Q1056746', 'http://www.wikidata.org/entity/Q1058595', 'http://www.wikidata.org/entity/Q1061731', 'http://www.wikidata.org/entity/Q1061776', 'http://www.wikidata.org/entity/Q106279', 'http://www.wikidata.org/entity/Q106338045', 'http://www.wikidata.org/entity/Q106448577', 'http://www.wikidata.org/entity/Q106451', 'http://www.wikidata.org/entity/Q106473444', 'http://www.wikidata.org/entity/Q106519612', 'http://www.wikidata.org/entity/Q106524904', 'http://www.wikidata.org/entity/Q106616516', 'http://www.wikidata.org/entity/Q106627490', 'http://www.wikidata.org/entity/Q106635227', 'http://www.wikidata.org/entity/Q106660414', 'http://www.wikidata.org/entity/Q106671635', 'http://www.wikidata.org/entity/Q106671703', 'http://www.wikidata.org/entity/Q106677205', 'http://www.wikidata.org/entity/Q106680697', 'http://www.wikidata.org/entity/Q106720122', 'http://www.wikidata.org/entity/Q106778918', 'http://www.wikidata.org/entity/Q106781914', 'http://www.wikidata.org/entity/Q106806341', 'http://www.wikidata.org/entity/Q106817973', 'http://www.wikidata.org/entity/Q106818099', 'http://www.wikidata.org/entity/Q106818169', 'http://www.wikidata.org/entity/Q106818559', 'http://www.wikidata.org/entity/Q106818739', 'http://www.wikidata.org/entity/Q106825117', 'http://www.wikidata.org/entity/Q106963403', 'http://www.wikidata.org/entity/Q106963499', 'http://www.wikidata.org/entity/Q106977533', 'http://www.wikidata.org/entity/Q107093740', 'http://www.wikidata.org/entity/Q107118384', 'http://www.wikidata.org/entity/Q107151952', 'http://www.wikidata.org/entity/Q107152625', 'http://www.wikidata.org/entity/Q107178241', 'http://www.wikidata.org/entity/Q107178269', 'http://www.wikidata.org/entity/Q107185703', 'http://www.wikidata.org/entity/Q107207765', 'http://www.wikidata.org/entity/Q107253264', 'http://www.wikidata.org/entity/Q107287851', 'http://www.wikidata.org/entity/Q107287942', 'http://www.wikidata.org/entity/Q107305764', 'http://www.wikidata.org/entity/Q107309089', 'http://www.wikidata.org/entity/Q107314128', 'http://www.wikidata.org/entity/Q107327655', 'http://www.wikidata.org/entity/Q107337984', 'http://www.wikidata.org/entity/Q107344389', 'http://www.wikidata.org/entity/Q107355280', 'http://www.wikidata.org/entity/Q107363162', 'http://www.wikidata.org/entity/Q107369214', 'http://www.wikidata.org/entity/Q107378373', 'http://www.wikidata.org/entity/Q107419969', 'http://www.wikidata.org/entity/Q107422938', 'http://www.wikidata.org/entity/Q107504019', 'http://www.wikidata.org/entity/Q107504309', 'http://www.wikidata.org/entity/Q107530183', 'http://www.wikidata.org/entity/Q107549720', 'http://www.wikidata.org/entity/Q107585991', 'http://www.wikidata.org/entity/Q107586380', 'http://www.wikidata.org/entity/Q107588913', 'http://www.wikidata.org/entity/Q1075978', 'http://www.wikidata.org/entity/Q1075984', 'http://www.wikidata.org/entity/Q1076942', 'http://www.wikidata.org/entity/Q1077184', 'http://www.wikidata.org/entity/Q1077193', 'http://www.wikidata.org/entity/Q1077292', 'http://www.wikidata.org/entity/Q1077437', 'http://www.wikidata.org/entity/Q107752619', 'http://www.wikidata.org/entity/Q1077607', 'http://www.wikidata.org/entity/Q1077613', 'http://www.wikidata.org/entity/Q1077634', 'http://www.wikidata.org/entity/Q108112686', 'http://www.wikidata.org/entity/Q108113174', 'http://www.wikidata.org/entity/Q108152227', 'http://www.wikidata.org/entity/Q108170613', 'http://www.wikidata.org/entity/Q1081976', 'http://www.wikidata.org/entity/Q108291', 'http://www.wikidata.org/entity/Q108293322', 'http://www.wikidata.org/entity/Q1082954', 'http://www.wikidata.org/entity/Q108307199', 'http://www.wikidata.org/entity/Q10831393', 'http://www.wikidata.org/entity/Q108314957', 'http://www.wikidata.org/entity/Q108333', 'http://www.wikidata.org/entity/Q108444645', 'http://www.wikidata.org/entity/Q108464191', 'http://www.wikidata.org/entity/Q108502580', 'http://www.wikidata.org/entity/Q108560985', 'http://www.wikidata.org/entity/Q108561381', 'http://www.wikidata.org/entity/Q108650400', 'http://www.wikidata.org/entity/Q108697360', 'http://www.wikidata.org/entity/Q1086985', 'http://www.wikidata.org/entity/Q108733631', 'http://www.wikidata.org/entity/Q108757835', 'http://www.wikidata.org/entity/Q108761974', 'http://www.wikidata.org/entity/Q10877291', 'http://www.wikidata.org/entity/Q108809817', 'http://www.wikidata.org/entity/Q108822235', 'http://www.wikidata.org/entity/Q108823000', 'http://www.wikidata.org/entity/Q108858175', 'http://www.wikidata.org/entity/Q108870659', 'http://www.wikidata.org/entity/Q108915542', 'http://www.wikidata.org/entity/Q1089188', 'http://www.wikidata.org/entity/Q10917065', 'http://www.wikidata.org/entity/Q1091785', 'http://www.wikidata.org/entity/Q109336431', 'http://www.wikidata.org/entity/Q1093458', 'http://www.wikidata.org/entity/Q109425776', 'http://www.wikidata.org/entity/Q109463904', 'http://www.wikidata.org/entity/Q109468740', 'http://www.wikidata.org/entity/Q109524417', 'http://www.wikidata.org/entity/Q109540571', 'http://www.wikidata.org/entity/Q109540589', 'http://www.wikidata.org/entity/Q109544933', 'http://www.wikidata.org/entity/Q109553878', 'http://www.wikidata.org/entity/Q109728722', 'http://www.wikidata.org/entity/Q1097554', 'http://www.wikidata.org/entity/Q109780503', 'http://www.wikidata.org/entity/Q109780810', 'http://www.wikidata.org/entity/Q109829337', 'http://www.wikidata.org/entity/Q109829404', 'http://www.wikidata.org/entity/Q10983515', 'http://www.wikidata.org/entity/Q109851380', 'http://www.wikidata.org/entity/Q109853277', 'http://www.wikidata.org/entity/Q109933627', 'http://www.wikidata.org/entity/Q109967900', 'http://www.wikidata.org/entity/Q109983648', 'http://www.wikidata.org/entity/Q110024215', 'http://www.wikidata.org/entity/Q110070283', 'http://www.wikidata.org/entity/Q1101335', 'http://www.wikidata.org/entity/Q11019119', 'http://www.wikidata.org/entity/Q1102088', 'http://www.wikidata.org/entity/Q110252034', 'http://www.wikidata.org/entity/Q110271131', 'http://www.wikidata.org/entity/Q110322226', 'http://www.wikidata.org/entity/Q1103788', 'http://www.wikidata.org/entity/Q1103821', 'http://www.wikidata.org/entity/Q110457791', 'http://www.wikidata.org/entity/Q110546841', 'http://www.wikidata.org/entity/Q110619093', 'http://www.wikidata.org/entity/Q110619637', 'http://www.wikidata.org/entity/Q110637006', 'http://www.wikidata.org/entity/Q110664194', 'http://www.wikidata.org/entity/Q110914467', 'http://www.wikidata.org/entity/Q110983769', 'http://www.wikidata.org/entity/Q111008', 'http://www.wikidata.org/entity/Q111025353', 'http://www.wikidata.org/entity/Q111025906', 'http://www.wikidata.org/entity/Q111031599', 'http://www.wikidata.org/entity/Q111049849', 'http://www.wikidata.org/entity/Q111049873', 'http://www.wikidata.org/entity/Q111049881', 'http://www.wikidata.org/entity/Q111049894', 'http://www.wikidata.org/entity/Q1111021', 'http://www.wikidata.org/entity/Q1111167', 'http://www.wikidata.org/entity/Q1111983', 'http://www.wikidata.org/entity/Q1112016', 'http://www.wikidata.org/entity/Q1112771', 'http://www.wikidata.org/entity/Q1112996', 'http://www.wikidata.org/entity/Q1113963', 'http://www.wikidata.org/entity/Q1114256', 'http://www.wikidata.org/entity/Q111508849', 'http://www.wikidata.org/entity/Q1115784', 'http://www.wikidata.org/entity/Q1115975', 'http://www.wikidata.org/entity/Q1116123', 'http://www.wikidata.org/entity/Q111631232', 'http://www.wikidata.org/entity/Q111765767', 'http://www.wikidata.org/entity/Q1117816', 'http://www.wikidata.org/entity/Q1118250', 'http://www.wikidata.org/entity/Q1119099', 'http://www.wikidata.org/entity/Q1119288', 'http://www.wikidata.org/entity/Q112062135', 'http://www.wikidata.org/entity/Q112073280', 'http://www.wikidata.org/entity/Q112080040', 'http://www.wikidata.org/entity/Q1120880', 'http://www.wikidata.org/entity/Q112148353', 'http://www.wikidata.org/entity/Q112183592', 'http://www.wikidata.org/entity/Q112435', 'http://www.wikidata.org/entity/Q112449', 'http://www.wikidata.org/entity/Q1125388', 'http://www.wikidata.org/entity/Q1125913', 'http://www.wikidata.org/entity/Q1125990', 'http://www.wikidata.org/entity/Q112625459', 'http://www.wikidata.org/entity/Q1126347', 'http://www.wikidata.org/entity/Q112659357', 'http://www.wikidata.org/entity/Q112687854', 'http://www.wikidata.org/entity/Q112726895', 'http://www.wikidata.org/entity/Q112894312', 'http://www.wikidata.org/entity/Q11289612', 'http://www.wikidata.org/entity/Q112913802', 'http://www.wikidata.org/entity/Q11299322', 'http://www.wikidata.org/entity/Q11299342', 'http://www.wikidata.org/entity/Q113112644', 'http://www.wikidata.org/entity/Q113202398', 'http://www.wikidata.org/entity/Q113214570', 'http://www.wikidata.org/entity/Q113215147', 'http://www.wikidata.org/entity/Q1132365', 'http://www.wikidata.org/entity/Q1132507', 'http://www.wikidata.org/entity/Q1132527', 'http://www.wikidata.org/entity/Q1132528', 'http://www.wikidata.org/entity/Q1132658', 'http://www.wikidata.org/entity/Q1132738', 'http://www.wikidata.org/entity/Q1132834', 'http://www.wikidata.org/entity/Q113291458', 'http://www.wikidata.org/entity/Q113292358', 'http://www.wikidata.org/entity/Q113292554', 'http://www.wikidata.org/entity/Q113292603', 'http://www.wikidata.org/entity/Q113298428', 'http://www.wikidata.org/entity/Q1134048', 'http://www.wikidata.org/entity/Q1134258', 'http://www.wikidata.org/entity/Q113494597', 'http://www.wikidata.org/entity/Q113549293', 'http://www.wikidata.org/entity/Q113566316', 'http://www.wikidata.org/entity/Q113569', 'http://www.wikidata.org/entity/Q113576', 'http://www.wikidata.org/entity/Q113649755', 'http://www.wikidata.org/entity/Q113661680', 'http://www.wikidata.org/entity/Q113674416', 'http://www.wikidata.org/entity/Q11379850', 'http://www.wikidata.org/entity/Q1138128', 'http://www.wikidata.org/entity/Q1138514', 'http://www.wikidata.org/entity/Q1138783', 'http://www.wikidata.org/entity/Q11401248', 'http://www.wikidata.org/entity/Q114032183', 'http://www.wikidata.org/entity/Q114045156', 'http://www.wikidata.org/entity/Q1141637', 'http://www.wikidata.org/entity/Q1142331', 'http://www.wikidata.org/entity/Q114349752', 'http://www.wikidata.org/entity/Q114566945', 'http://www.wikidata.org/entity/Q114667692', 'http://www.wikidata.org/entity/Q1147376', 'http://www.wikidata.org/entity/Q114857113', 'http://www.wikidata.org/entity/Q114863064', 'http://www.wikidata.org/entity/Q11500583', 'http://www.wikidata.org/entity/Q1150317', 'http://www.wikidata.org/entity/Q115102703', 'http://www.wikidata.org/entity/Q1151037', 'http://www.wikidata.org/entity/Q115119808', 'http://www.wikidata.org/entity/Q115154999', 'http://www.wikidata.org/entity/Q115161001', 'http://www.wikidata.org/entity/Q115161434', 'http://www.wikidata.org/entity/Q1152506', 'http://www.wikidata.org/entity/Q115475940', 'http://www.wikidata.org/entity/Q115581265', 'http://www.wikidata.org/entity/Q115629', 'http://www.wikidata.org/entity/Q115634', 'http://www.wikidata.org/entity/Q115722', 'http://www.wikidata.org/entity/Q1159084', 'http://www.wikidata.org/entity/Q115915', 'http://www.wikidata.org/entity/Q1160342', 'http://www.wikidata.org/entity/Q116037', 'http://www.wikidata.org/entity/Q116176311', 'http://www.wikidata.org/entity/Q116176433', 'http://www.wikidata.org/entity/Q116185196', 'http://www.wikidata.org/entity/Q116186160', 'http://www.wikidata.org/entity/Q116189529', 'http://www.wikidata.org/entity/Q116195972', 'http://www.wikidata.org/entity/Q116198', 'http://www.wikidata.org/entity/Q116198940', 'http://www.wikidata.org/entity/Q116254', 'http://www.wikidata.org/entity/Q116257813', 'http://www.wikidata.org/entity/Q116431030', 'http://www.wikidata.org/entity/Q1164595', 'http://www.wikidata.org/entity/Q116551', 'http://www.wikidata.org/entity/Q1165980', 'http://www.wikidata.org/entity/Q1166617', 'http://www.wikidata.org/entity/Q116699', 'http://www.wikidata.org/entity/Q116783152', 'http://www.wikidata.org/entity/Q11685267', 'http://www.wikidata.org/entity/Q11693116', 'http://www.wikidata.org/entity/Q11699292', 'http://www.wikidata.org/entity/Q11699400', 'http://www.wikidata.org/entity/Q11702775', 'http://www.wikidata.org/entity/Q117037725', 'http://www.wikidata.org/entity/Q117038081', 'http://www.wikidata.org/entity/Q1170394', 'http://www.wikidata.org/entity/Q11716504', 'http://www.wikidata.org/entity/Q11720871', 'http://www.wikidata.org/entity/Q11721059', 'http://www.wikidata.org/entity/Q117220242', 'http://www.wikidata.org/entity/Q11722423', 'http://www.wikidata.org/entity/Q11722534', 'http://www.wikidata.org/entity/Q11724895', 'http://www.wikidata.org/entity/Q11727964', 'http://www.wikidata.org/entity/Q1173006', 'http://www.wikidata.org/entity/Q117348117', 'http://www.wikidata.org/entity/Q117350394', 'http://www.wikidata.org/entity/Q117360100', 'http://www.wikidata.org/entity/Q11739472', 'http://www.wikidata.org/entity/Q11743625', 'http://www.wikidata.org/entity/Q11748193', 'http://www.wikidata.org/entity/Q11748226', 'http://www.wikidata.org/entity/Q11749180', 'http://www.wikidata.org/entity/Q11749793', 'http://www.wikidata.org/entity/Q11753337', 'http://www.wikidata.org/entity/Q11754931', 'http://www.wikidata.org/entity/Q11754983', 'http://www.wikidata.org/entity/Q11765656', 'http://www.wikidata.org/entity/Q11767971', 'http://www.wikidata.org/entity/Q11768324', 'http://www.wikidata.org/entity/Q11768382', 'http://www.wikidata.org/entity/Q11768625', 'http://www.wikidata.org/entity/Q11770209', 'http://www.wikidata.org/entity/Q11770367', 'http://www.wikidata.org/entity/Q11771408', 'http://www.wikidata.org/entity/Q11778743', 'http://www.wikidata.org/entity/Q11778794', 'http://www.wikidata.org/entity/Q11779346', 'http://www.wikidata.org/entity/Q11781314', 'http://www.wikidata.org/entity/Q11781980', 'http://www.wikidata.org/entity/Q1178241', 'http://www.wikidata.org/entity/Q11790090', 'http://www.wikidata.org/entity/Q11791016', 'http://www.wikidata.org/entity/Q1179612', 'http://www.wikidata.org/entity/Q11798199', 'http://www.wikidata.org/entity/Q118067', 'http://www.wikidata.org/entity/Q11813536', 'http://www.wikidata.org/entity/Q11813953', 'http://www.wikidata.org/entity/Q11813969', 'http://www.wikidata.org/entity/Q11814182', 'http://www.wikidata.org/entity/Q11814272', 'http://www.wikidata.org/entity/Q11814493', 'http://www.wikidata.org/entity/Q11817884', 'http://www.wikidata.org/entity/Q11818115', 'http://www.wikidata.org/entity/Q11818159', 'http://www.wikidata.org/entity/Q118235978', 'http://www.wikidata.org/entity/Q11833807', 'http://www.wikidata.org/entity/Q11835010', 'http://www.wikidata.org/entity/Q11857841', 'http://www.wikidata.org/entity/Q118842860', 'http://www.wikidata.org/entity/Q1188603', 'http://www.wikidata.org/entity/Q11891970', 'http://www.wikidata.org/entity/Q11892200', 'http://www.wikidata.org/entity/Q1189243', 'http://www.wikidata.org/entity/Q118929123', 'http://www.wikidata.org/entity/Q1189516', 'http://www.wikidata.org/entity/Q119478026', 'http://www.wikidata.org/entity/Q1195813', 'http://www.wikidata.org/entity/Q1200325', 'http://www.wikidata.org/entity/Q1200330', 'http://www.wikidata.org/entity/Q1200332', 'http://www.wikidata.org/entity/Q120098', 'http://www.wikidata.org/entity/Q12023140', 'http://www.wikidata.org/entity/Q12058834', 'http://www.wikidata.org/entity/Q1206898', 'http://www.wikidata.org/entity/Q120758808', 'http://www.wikidata.org/entity/Q121345616', 'http://www.wikidata.org/entity/Q121509892', 'http://www.wikidata.org/entity/Q121647', 'http://www.wikidata.org/entity/Q121819110', 'http://www.wikidata.org/entity/Q1225976', 'http://www.wikidata.org/entity/Q1226046', 'http://www.wikidata.org/entity/Q122618263', 'http://www.wikidata.org/entity/Q12269620', 'http://www.wikidata.org/entity/Q1227980', 'http://www.wikidata.org/entity/Q122906791', 'http://www.wikidata.org/entity/Q122917377', 'http://www.wikidata.org/entity/Q122920596', 'http://www.wikidata.org/entity/Q122943752', 'http://www.wikidata.org/entity/Q122952', 'http://www.wikidata.org/entity/Q123040', 'http://www.wikidata.org/entity/Q123146620', 'http://www.wikidata.org/entity/Q123248759', 'http://www.wikidata.org/entity/Q123248763', 'http://www.wikidata.org/entity/Q123248782', 'http://www.wikidata.org/entity/Q123248783', 'http://www.wikidata.org/entity/Q123258476', 'http://www.wikidata.org/entity/Q123258478', 'http://www.wikidata.org/entity/Q123259128', 'http://www.wikidata.org/entity/Q123335401', 'http://www.wikidata.org/entity/Q123379966', 'http://www.wikidata.org/entity/Q12360491', 'http://www.wikidata.org/entity/Q123684928', 'http://www.wikidata.org/entity/Q123741611', 'http://www.wikidata.org/entity/Q1238103', 'http://www.wikidata.org/entity/Q12387305', 'http://www.wikidata.org/entity/Q124048598', 'http://www.wikidata.org/entity/Q124131733', 'http://www.wikidata.org/entity/Q1242197', 'http://www.wikidata.org/entity/Q124328139', 'http://www.wikidata.org/entity/Q124540519', 'http://www.wikidata.org/entity/Q124620825', 'http://www.wikidata.org/entity/Q124637208', 'http://www.wikidata.org/entity/Q124694773', 'http://www.wikidata.org/entity/Q124694878', 'http://www.wikidata.org/entity/Q125017196', 'http://www.wikidata.org/entity/Q125080586', 'http://www.wikidata.org/entity/Q1254600', 'http://www.wikidata.org/entity/Q125563664', 'http://www.wikidata.org/entity/Q125563895', 'http://www.wikidata.org/entity/Q125563998', 'http://www.wikidata.org/entity/Q125569524', 'http://www.wikidata.org/entity/Q126114396', 'http://www.wikidata.org/entity/Q12633139', 'http://www.wikidata.org/entity/Q12633230', 'http://www.wikidata.org/entity/Q12641301', 'http://www.wikidata.org/entity/Q12643733', 'http://www.wikidata.org/entity/Q1264436', 'http://www.wikidata.org/entity/Q126487461', 'http://www.wikidata.org/entity/Q126487462', 'http://www.wikidata.org/entity/Q12649488', 'http://www.wikidata.org/entity/Q12659740', 'http://www.wikidata.org/entity/Q1267570', 'http://www.wikidata.org/entity/Q1267622', 'http://www.wikidata.org/entity/Q126923070', 'http://www.wikidata.org/entity/Q126947594', 'http://www.wikidata.org/entity/Q1270684', 'http://www.wikidata.org/entity/Q1273047', 'http://www.wikidata.org/entity/Q12749074', 'http://www.wikidata.org/entity/Q127561', 'http://www.wikidata.org/entity/Q12756207', 'http://www.wikidata.org/entity/Q1277708', 'http://www.wikidata.org/entity/Q1279010', 'http://www.wikidata.org/entity/Q127925147', 'http://www.wikidata.org/entity/Q1279973', 'http://www.wikidata.org/entity/Q128188', 'http://www.wikidata.org/entity/Q1282320', 'http://www.wikidata.org/entity/Q1282809', 'http://www.wikidata.org/entity/Q128530', 'http://www.wikidata.org/entity/Q12858621', 'http://www.wikidata.org/entity/Q1286476', 'http://www.wikidata.org/entity/Q12875341', 'http://www.wikidata.org/entity/Q12880385', 'http://www.wikidata.org/entity/Q1289729', 'http://www.wikidata.org/entity/Q129041', 'http://www.wikidata.org/entity/Q12911186', 'http://www.wikidata.org/entity/Q1291124', 'http://www.wikidata.org/entity/Q1292529', 'http://www.wikidata.org/entity/Q1293573', 'http://www.wikidata.org/entity/Q1296648', 'http://www.wikidata.org/entity/Q12981769', 'http://www.wikidata.org/entity/Q130215388', 'http://www.wikidata.org/entity/Q130221109', 'http://www.wikidata.org/entity/Q130240633', 'http://www.wikidata.org/entity/Q130242077', 'http://www.wikidata.org/entity/Q130298106', 'http://www.wikidata.org/entity/Q1314733', 'http://www.wikidata.org/entity/Q131942', 'http://www.wikidata.org/entity/Q132208', 'http://www.wikidata.org/entity/Q1327649', 'http://www.wikidata.org/entity/Q1328504', 'http://www.wikidata.org/entity/Q1332856', 'http://www.wikidata.org/entity/Q1334238', 'http://www.wikidata.org/entity/Q1336737', 'http://www.wikidata.org/entity/Q1338315', 'http://www.wikidata.org/entity/Q1339658', 'http://www.wikidata.org/entity/Q13410394', 'http://www.wikidata.org/entity/Q13416839', 'http://www.wikidata.org/entity/Q134183', 'http://www.wikidata.org/entity/Q1343292', 'http://www.wikidata.org/entity/Q13464007', 'http://www.wikidata.org/entity/Q135109', 'http://www.wikidata.org/entity/Q13512907', 'http://www.wikidata.org/entity/Q13515766', 'http://www.wikidata.org/entity/Q135167', 'http://www.wikidata.org/entity/Q1351678', 'http://www.wikidata.org/entity/Q1353620', 'http://www.wikidata.org/entity/Q1355070', 'http://www.wikidata.org/entity/Q13561021', 'http://www.wikidata.org/entity/Q13563911', 'http://www.wikidata.org/entity/Q1356519', 'http://www.wikidata.org/entity/Q13582445', 'http://www.wikidata.org/entity/Q1358452', 'http://www.wikidata.org/entity/Q1359588', 'http://www.wikidata.org/entity/Q13605907', 'http://www.wikidata.org/entity/Q13605931', 'http://www.wikidata.org/entity/Q13605936', 'http://www.wikidata.org/entity/Q13605944', 'http://www.wikidata.org/entity/Q13605975', 'http://www.wikidata.org/entity/Q13605982', 'http://www.wikidata.org/entity/Q13606007', 'http://www.wikidata.org/entity/Q1361081', 'http://www.wikidata.org/entity/Q1362580', 'http://www.wikidata.org/entity/Q1362664', 'http://www.wikidata.org/entity/Q1362904', 'http://www.wikidata.org/entity/Q1363177', 'http://www.wikidata.org/entity/Q1363787', 'http://www.wikidata.org/entity/Q1363884', 'http://www.wikidata.org/entity/Q1363974', 'http://www.wikidata.org/entity/Q1364009', 'http://www.wikidata.org/entity/Q1364223', 'http://www.wikidata.org/entity/Q1365630', 'http://www.wikidata.org/entity/Q1365645', 'http://www.wikidata.org/entity/Q1366501', 'http://www.wikidata.org/entity/Q1370831', 'http://www.wikidata.org/entity/Q13708767', 'http://www.wikidata.org/entity/Q13709114', 'http://www.wikidata.org/entity/Q1370925', 'http://www.wikidata.org/entity/Q1371485', 'http://www.wikidata.org/entity/Q1373712', 'http://www.wikidata.org/entity/Q137450', 'http://www.wikidata.org/entity/Q1375461', 'http://www.wikidata.org/entity/Q1375950', 'http://www.wikidata.org/entity/Q1377443', 'http://www.wikidata.org/entity/Q1380489', 'http://www.wikidata.org/entity/Q1380719', 'http://www.wikidata.org/entity/Q1381445', 'http://www.wikidata.org/entity/Q1381732', 'http://www.wikidata.org/entity/Q13860876', 'http://www.wikidata.org/entity/Q13876407', 'http://www.wikidata.org/entity/Q1387820', 'http://www.wikidata.org/entity/Q13899976', 'http://www.wikidata.org/entity/Q1390262', 'http://www.wikidata.org/entity/Q1392517', 'http://www.wikidata.org/entity/Q13930506', 'http://www.wikidata.org/entity/Q13930814', 'http://www.wikidata.org/entity/Q1393378', 'http://www.wikidata.org/entity/Q1393433', 'http://www.wikidata.org/entity/Q139376', 'http://www.wikidata.org/entity/Q1398536', 'http://www.wikidata.org/entity/Q1401783', 'http://www.wikidata.org/entity/Q1406261', 'http://www.wikidata.org/entity/Q14073727', 'http://www.wikidata.org/entity/Q1407902', 'http://www.wikidata.org/entity/Q1408291', 'http://www.wikidata.org/entity/Q14088570', 'http://www.wikidata.org/entity/Q1413920', 'http://www.wikidata.org/entity/Q14163514', 'http://www.wikidata.org/entity/Q14172158', 'http://www.wikidata.org/entity/Q14172238', 'http://www.wikidata.org/entity/Q1421720', 'http://www.wikidata.org/entity/Q142214', 'http://www.wikidata.org/entity/Q1422575', 'http://www.wikidata.org/entity/Q1424128', 'http://www.wikidata.org/entity/Q1424134', 'http://www.wikidata.org/entity/Q1424165', 'http://www.wikidata.org/entity/Q1424414', 'http://www.wikidata.org/entity/Q1424455', 'http://www.wikidata.org/entity/Q1424462', 'http://www.wikidata.org/entity/Q1424475', 'http://www.wikidata.org/entity/Q1424495', 'http://www.wikidata.org/entity/Q1424502', 'http://www.wikidata.org/entity/Q1429702', 'http://www.wikidata.org/entity/Q14320215', 'http://www.wikidata.org/entity/Q14324145', 'http://www.wikidata.org/entity/Q14324284', 'http://www.wikidata.org/entity/Q14324339', 'http://www.wikidata.org/entity/Q14324358', 'http://www.wikidata.org/entity/Q14324364', 'http://www.wikidata.org/entity/Q14325764', 'http://www.wikidata.org/entity/Q14325768', 'http://www.wikidata.org/entity/Q1432596', 'http://www.wikidata.org/entity/Q14326804', 'http://www.wikidata.org/entity/Q14327036', 'http://www.wikidata.org/entity/Q14327270', 'http://www.wikidata.org/entity/Q14327391', 'http://www.wikidata.org/entity/Q14327750', 'http://www.wikidata.org/entity/Q14329123', 'http://www.wikidata.org/entity/Q14329138', 'http://www.wikidata.org/entity/Q14329365', 'http://www.wikidata.org/entity/Q14329497', 'http://www.wikidata.org/entity/Q14329695', 'http://www.wikidata.org/entity/Q14330245', 'http://www.wikidata.org/entity/Q14330465', 'http://www.wikidata.org/entity/Q14330469', 'http://www.wikidata.org/entity/Q1435883', 'http://www.wikidata.org/entity/Q1438347', 'http://www.wikidata.org/entity/Q1438348', 'http://www.wikidata.org/entity/Q1439529', 'http://www.wikidata.org/entity/Q1439541', 'http://www.wikidata.org/entity/Q14399923', 'http://www.wikidata.org/entity/Q1440606', 'http://www.wikidata.org/entity/Q1441343', 'http://www.wikidata.org/entity/Q1441397', 'http://www.wikidata.org/entity/Q1441492', 'http://www.wikidata.org/entity/Q1441499', 'http://www.wikidata.org/entity/Q1442053', 'http://www.wikidata.org/entity/Q1442329', 'http://www.wikidata.org/entity/Q14425572', 'http://www.wikidata.org/entity/Q14427097', 'http://www.wikidata.org/entity/Q14432081', 'http://www.wikidata.org/entity/Q1444910', 'http://www.wikidata.org/entity/Q1444934', 'http://www.wikidata.org/entity/Q1445196', 'http://www.wikidata.org/entity/Q1445455', 'http://www.wikidata.org/entity/Q1445762', 'http://www.wikidata.org/entity/Q1445827', 'http://www.wikidata.org/entity/Q144703', 'http://www.wikidata.org/entity/Q1449836', 'http://www.wikidata.org/entity/Q1449882', 'http://www.wikidata.org/entity/Q1452892', 'http://www.wikidata.org/entity/Q1453383', 'http://www.wikidata.org/entity/Q1454479', 'http://www.wikidata.org/entity/Q1455079', 'http://www.wikidata.org/entity/Q1458225', 'http://www.wikidata.org/entity/Q1458255', 'http://www.wikidata.org/entity/Q1458276', 'http://www.wikidata.org/entity/Q1458282', 'http://www.wikidata.org/entity/Q1458307', 'http://www.wikidata.org/entity/Q1458320', 'http://www.wikidata.org/entity/Q1458331', 'http://www.wikidata.org/entity/Q1458344', 'http://www.wikidata.org/entity/Q1458359', 'http://www.wikidata.org/entity/Q145840</t>
+        </is>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>What is the capital of Canada?</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q1930']</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q1930']</t>
+        </is>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Which soccer players were born on Malta?</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q100151816', 'http://www.wikidata.org/entity/Q101490959', 'http://www.wikidata.org/entity/Q101492327', 'http://www.wikidata.org/entity/Q1042258', 'http://www.wikidata.org/entity/Q10474461', 'http://www.wikidata.org/entity/Q10509157', 'http://www.wikidata.org/entity/Q105118495', 'http://www.wikidata.org/entity/Q10558160', 'http://www.wikidata.org/entity/Q106228741', 'http://www.wikidata.org/entity/Q1065590', 'http://www.wikidata.org/entity/Q107128661', 'http://www.wikidata.org/entity/Q1096922', 'http://www.wikidata.org/entity/Q1173914', 'http://www.wikidata.org/entity/Q124285622', 'http://www.wikidata.org/entity/Q125118333', 'http://www.wikidata.org/entity/Q125397277', 'http://www.wikidata.org/entity/Q129674231', 'http://www.wikidata.org/entity/Q1356211', 'http://www.wikidata.org/entity/Q1371542', 'http://www.wikidata.org/entity/Q1453597', 'http://www.wikidata.org/entity/Q1507832', 'http://www.wikidata.org/entity/Q15966855', 'http://www.wikidata.org/entity/Q16146513', 'http://www.wikidata.org/entity/Q16163013', 'http://www.wikidata.org/entity/Q16214810', 'http://www.wikidata.org/entity/Q1648234', 'http://www.wikidata.org/entity/Q1655475', 'http://www.wikidata.org/entity/Q16598377', 'http://www.wikidata.org/entity/Q1685756', 'http://www.wikidata.org/entity/Q1686437', 'http://www.wikidata.org/entity/Q16944482', 'http://www.wikidata.org/entity/Q16977455', 'http://www.wikidata.org/entity/Q16977456', 'http://www.wikidata.org/entity/Q16977477', 'http://www.wikidata.org/entity/Q16977559', 'http://www.wikidata.org/entity/Q1699362', 'http://www.wikidata.org/entity/Q1703195', 'http://www.wikidata.org/entity/Q17057003', 'http://www.wikidata.org/entity/Q17144475', 'http://www.wikidata.org/entity/Q17279925', 'http://www.wikidata.org/entity/Q17280065', 'http://www.wikidata.org/entity/Q17280963', 'http://www.wikidata.org/entity/Q17284905', 'http://www.wikidata.org/entity/Q17284928', 'http://www.wikidata.org/entity/Q17298627', 'http://www.wikidata.org/entity/Q17303639', 'http://www.wikidata.org/entity/Q17306893', 'http://www.wikidata.org/entity/Q17327586', 'http://www.wikidata.org/entity/Q17327760', 'http://www.wikidata.org/entity/Q17352178', 'http://www.wikidata.org/entity/Q17352188', 'http://www.wikidata.org/entity/Q1740253', 'http://www.wikidata.org/entity/Q179952', 'http://www.wikidata.org/entity/Q18412697', 'http://www.wikidata.org/entity/Q18515962', 'http://www.wikidata.org/entity/Q18589449', 'http://www.wikidata.org/entity/Q18620693', 'http://www.wikidata.org/entity/Q18811153', 'http://www.wikidata.org/entity/Q1907692', 'http://www.wikidata.org/entity/Q1927207', 'http://www.wikidata.org/entity/Q1927514', 'http://www.wikidata.org/entity/Q19560231', 'http://www.wikidata.org/entity/Q19643722', 'http://www.wikidata.org/entity/Q19643731', 'http://www.wikidata.org/entity/Q19643733', 'http://www.wikidata.org/entity/Q19872307', 'http://www.wikidata.org/entity/Q19956337', 'http://www.wikidata.org/entity/Q19956650', 'http://www.wikidata.org/entity/Q19956753', 'http://www.wikidata.org/entity/Q2018463', 'http://www.wikidata.org/entity/Q20641558', 'http://www.wikidata.org/entity/Q20641651', 'http://www.wikidata.org/entity/Q20986521', 'http://www.wikidata.org/entity/Q2134271', 'http://www.wikidata.org/entity/Q2146518', 'http://www.wikidata.org/entity/Q2161068', 'http://www.wikidata.org/entity/Q2178030', 'http://www.wikidata.org/entity/Q2178054', 'http://www.wikidata.org/entity/Q2277399', 'http://www.wikidata.org/entity/Q2336395', 'http://www.wikidata.org/entity/Q2350107', 'http://www.wikidata.org/entity/Q24266711', 'http://www.wikidata.org/entity/Q24450398', 'http://www.wikidata.org/entity/Q2600084', 'http://www.wikidata.org/entity/Q2601973', 'http://www.wikidata.org/entity/Q2641446', 'http://www.wikidata.org/entity/Q28145338', 'http://www.wikidata.org/entity/Q28145349', 'http://www.wikidata.org/entity/Q28145357', 'http://www.wikidata.org/entity/Q29077561', 'http://www.wikidata.org/entity/Q29161403', 'http://www.wikidata.org/entity/Q302914', 'http://www.wikidata.org/entity/Q304222', 'http://www.wikidata.org/entity/Q30532844', 'http://www.wikidata.org/entity/Q3438358', 'http://www.wikidata.org/entity/Q3640619', 'http://www.wikidata.org/entity/Q372749', 'http://www.wikidata.org/entity/Q373986', 'http://www.wikidata.org/entity/Q3788418', 'http://www.wikidata.org/entity/Q3805894', 'http://www.wikidata.org/entity/Q3808641', 'http://www.wikidata.org/entity/Q3903429', 'http://www.wikidata.org/entity/Q393288', 'http://www.wikidata.org/entity/Q3984246', 'http://www.wikidata.org/entity/Q4168933', 'http://www.wikidata.org/entity/Q4281245', 'http://www.wikidata.org/entity/Q4320324', 'http://www.wikidata.org/entity/Q43252374', 'http://www.wikidata.org/entity/Q444083', 'http://www.wikidata.org/entity/Q446027', 'http://www.wikidata.org/entity/Q446040', 'http://www.wikidata.org/entity/Q446060', 'http://www.wikidata.org/entity/Q4576036', 'http://www.wikidata.org/entity/Q47501255', 'http://www.wikidata.org/entity/Q4775558', 'http://www.wikidata.org/entity/Q4831692', 'http://www.wikidata.org/entity/Q4965405', 'http://www.wikidata.org/entity/Q504142', 'http://www.wikidata.org/entity/Q5075274', 'http://www.wikidata.org/entity/Q5080928', 'http://www.wikidata.org/entity/Q5082378', 'http://www.wikidata.org/entity/Q51090087', 'http://www.wikidata.org/entity/Q51090088', 'http://www.wikidata.org/entity/Q5171387', 'http://www.wikidata.org/entity/Q5218912', 'http://www.wikidata.org/entity/Q522722', 'http://www.wikidata.org/entity/Q5257150', 'http://www.wikidata.org/entity/Q5258750', 'http://www.wikidata.org/entity/Q5318734', 'http://www.wikidata.org/entity/Q5341660', 'http://www.wikidata.org/entity/Q5342530', 'http://www.wikidata.org/entity/Q5369048', 'http://www.wikidata.org/entity/Q5387450', 'http://www.wikidata.org/entity/Q54667230', 'http://www.wikidata.org/entity/Q55183403', 'http://www.wikidata.org/entity/Q5522971', 'http://www.wikidata.org/entity/Q55956335', 'http://www.wikidata.org/entity/Q56600130', 'http://www.wikidata.org/entity/Q5718354', 'http://www.wikidata.org/entity/Q57262270', 'http://www.wikidata.org/entity/Q587134', 'http://www.wikidata.org/entity/Q5981460', 'http://www.wikidata.org/entity/Q5982979', 'http://www.wikidata.org/entity/Q617595', 'http://www.wikidata.org/entity/Q61787980', 'http://www.wikidata.org/entity/Q6185765', 'http://www.wikidata.org/entity/Q6185783', 'http://www.wikidata.org/entity/Q6199667', 'http://www.wikidata.org/entity/Q6209096', 'http://www.wikidata.org/entity/Q6228011', 'http://www.wikidata.org/entity/Q62512800', 'http://www.wikidata.org/entity/Q6273795', 'http://www.wikidata.org/entity/Q6280016', 'http://www.wikidata.org/entity/Q6284402', 'http://www.wikidata.org/entity/Q633332', 'http://www.wikidata.org/entity/Q6437934', 'http://www.wikidata.org/entity/Q6554673', 'http://www.wikidata.org/entity/Q6668992', 'http://www.wikidata.org/entity/Q66827884', 'http://www.wikidata.org/entity/Q66841118', 'http://www.wikidata.org/entity/Q66938881', 'http://www.wikidata.org/entity/Q66939442', 'http://www.wikidata.org/entity/Q6764669', 'http://www.wikidata.org/entity/Q6775566', 'http://www.wikidata.org/entity/Q6776550', 'http://www.wikidata.org/entity/Q680512', 'http://www.wikidata.org/entity/Q6932071', 'http://www.wikidata.org/entity/Q7087842', 'http://www.wikidata.org/entity/Q71035154', 'http://www.wikidata.org/entity/Q718040', 'http://www.wikidata.org/entity/Q7197493', 'http://www.wikidata.org/entity/Q7279212', 'http://www.wikidata.org/entity/Q7297466', 'http://www.wikidata.org/entity/Q7308644', 'http://www.wikidata.org/entity/Q736771', 'http://www.wikidata.org/entity/Q7406948', 'http://www.wikidata.org/entity/Q7428345', 'http://www.wikidata.org/entity/Q7441461', 'http://www.wikidata.org/entity/Q745555', 'http://www.wikidata.org/entity/Q7463162', 'http://www.wikidata.org/entity/Q7463312', 'http://www.wikidata.org/entity/Q7463323', 'http://www.wikidata.org/entity/Q75135779', 'http://www.wikidata.org/entity/Q7519908', 'http://www.wikidata.org/entity/Q75635489', 'http://www.wikidata.org/entity/Q7608617', 'http://www.wikidata.org/entity/Q7611949', 'http://www.wikidata.org/entity/Q762057', 'http://www.wikidata.org/entity/Q768060', 'http://www.wikidata.org/entity/Q785842', 'http://www.wikidata.org/entity/Q7931678', 'http://www.wikidata.org/entity/Q79981875', 'http://www.wikidata.org/entity/Q8739830', 'http://www.wikidata.org/entity/Q8742822', 'http://www.wikidata.org/entity/Q8854881', 'http://www.wikidata.org/entity/Q887449', 'http://www.wikidata.org/entity/Q913048', 'http://www.wikidata.org/entity/Q92303735', 'http://www.wikidata.org/entity/Q93318463', 'http://www.wikidata.org/entity/Q93318464', 'http://www.wikidata.org/entity/Q93318466', 'http://www.wikidata.org/entity/Q94606737', 'http://www.wikidata.org/entity/Q949755', 'http://www.wikidata.org/entity/Q951577', 'http://www.wikidata.org/entity/Q952394', 'http://www.wikidata.org/entity/Q968613', 'http://www.wikidata.org/entity/Q983145', 'http://www.wikidata.org/entity/Q983148', 'http://www.wikidata.org/entity/Q98785910', 'http://www.wikidata.org/entity/Q98852975', 'http://www.wikidata.org/entity/Q98930910', 'http://www.wikidata.org/entity/Q98930945']</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q100151816', 'http://www.wikidata.org/entity/Q101490959', 'http://www.wikidata.org/entity/Q101492327', 'http://www.wikidata.org/entity/Q106228741', 'http://www.wikidata.org/entity/Q1065590', 'http://www.wikidata.org/entity/Q16146513', 'http://www.wikidata.org/entity/Q16163013', 'http://www.wikidata.org/entity/Q16214810', 'http://www.wikidata.org/entity/Q1685756', 'http://www.wikidata.org/entity/Q1686437', 'http://www.wikidata.org/entity/Q16977455', 'http://www.wikidata.org/entity/Q16977456', 'http://www.wikidata.org/entity/Q17284905', 'http://www.wikidata.org/entity/Q1907692', 'http://www.wikidata.org/entity/Q1927207', 'http://www.wikidata.org/entity/Q1927514', 'http://www.wikidata.org/entity/Q19560231', 'http://www.wikidata.org/entity/Q19956337', 'http://www.wikidata.org/entity/Q19956650', 'http://www.wikidata.org/entity/Q20641558', 'http://www.wikidata.org/entity/Q20641651', 'http://www.wikidata.org/entity/Q3640619', 'http://www.wikidata.org/entity/Q372749', 'http://www.wikidata.org/entity/Q3808641', 'http://www.wikidata.org/entity/Q3903429', 'http://www.wikidata.org/entity/Q4320324', 'http://www.wikidata.org/entity/Q4576036', 'http://www.wikidata.org/entity/Q47501255', 'http://www.wikidata.org/entity/Q4831692', 'http://www.wikidata.org/entity/Q4965405', 'http://www.wikidata.org/entity/Q5080928', 'http://www.wikidata.org/entity/Q5082378', 'http://www.wikidata.org/entity/Q5171387', 'http://www.wikidata.org/entity/Q5218912', 'http://www.wikidata.org/entity/Q5258750', 'http://www.wikidata.org/entity/Q5342530', 'http://www.wikidata.org/entity/Q5369048', 'http://www.wikidata.org/entity/Q5387450', 'http://www.wikidata.org/entity/Q54667230', 'http://www.wikidata.org/entity/Q56600130', 'http://www.wikidata.org/entity/Q57262270', 'http://www.wikidata.org/entity/Q5981460', 'http://www.wikidata.org/entity/Q6185765', 'http://www.wikidata.org/entity/Q6185783', 'http://www.wikidata.org/entity/Q6199667', 'http://www.wikidata.org/entity/Q6209096', 'http://www.wikidata.org/entity/Q6228011', 'http://www.wikidata.org/entity/Q62512800', 'http://www.wikidata.org/entity/Q6273795', 'http://www.wikidata.org/entity/Q6284402', 'http://www.wikidata.org/entity/Q6437934', 'http://www.wikidata.org/entity/Q6554673', 'http://www.wikidata.org/entity/Q6668992', 'http://www.wikidata.org/entity/Q66827884', 'http://www.wikidata.org/entity/Q66841118', 'http://www.wikidata.org/entity/Q66939442', 'http://www.wikidata.org/entity/Q6764669', 'http://www.wikidata.org/entity/Q6775566', 'http://www.wikidata.org/entity/Q6776550', 'http://www.wikidata.org/entity/Q71035154', 'http://www.wikidata.org/entity/Q7197493', 'http://www.wikidata.org/entity/Q7279212', 'http://www.wikidata.org/entity/Q7308644', 'http://www.wikidata.org/entity/Q7406948', 'http://www.wikidata.org/entity/Q75135779', 'http://www.wikidata.org/entity/Q8742822', 'http://www.wikidata.org/entity/Q93318464', 'http://www.wikidata.org/entity/Q93318466', 'http://www.wikidata.org/entity/Q98785910', 'http://www.wikidata.org/entity/Q98852975', 'http://www.wikidata.org/entity/Q98930910', 'http://www.wikidata.org/entity/Q98930945']</t>
+        </is>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>What is the capital of Cameroon?</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q3808']</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q3808']</t>
+        </is>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>How many programming languages are there?</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>['1811']</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>['1487']</t>
+        </is>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>how big is the total area of North Rhine- Westphalia?</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>['34112.5']</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>['2570']</t>
+        </is>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Give me all Danish movies.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q100165776', 'http://www.wikidata.org/entity/Q100235422', 'http://www.wikidata.org/entity/Q100272327', 'http://www.wikidata.org/entity/Q100272328', 'http://www.wikidata.org/entity/Q100272330', 'http://www.wikidata.org/entity/Q100272332', 'http://www.wikidata.org/entity/Q100272333', 'http://www.wikidata.org/entity/Q100272334', 'http://www.wikidata.org/entity/Q100272335', 'http://www.wikidata.org/entity/Q100272336', 'http://www.wikidata.org/entity/Q100272337', 'http://www.wikidata.org/entity/Q100272338', 'http://www.wikidata.org/entity/Q100272339', 'http://www.wikidata.org/entity/Q100272340', 'http://www.wikidata.org/entity/Q100272341', 'http://www.wikidata.org/entity/Q100272342', 'http://www.wikidata.org/entity/Q100272343', 'http://www.wikidata.org/entity/Q100272344', 'http://www.wikidata.org/entity/Q100272345', 'http://www.wikidata.org/entity/Q100272346', 'http://www.wikidata.org/entity/Q100272347', 'http://www.wikidata.org/entity/Q100272348', 'http://www.wikidata.org/entity/Q100272349', 'http://www.wikidata.org/entity/Q100272350', 'http://www.wikidata.org/entity/Q100272351', 'http://www.wikidata.org/entity/Q100272354', 'http://www.wikidata.org/entity/Q100272355', 'http://www.wikidata.org/entity/Q100272356', 'http://www.wikidata.org/entity/Q100272357', 'http://www.wikidata.org/entity/Q100272358', 'http://www.wikidata.org/entity/Q100272359', 'http://www.wikidata.org/entity/Q100272360', 'http://www.wikidata.org/entity/Q100272361', 'http://www.wikidata.org/entity/Q100272364', 'http://www.wikidata.org/entity/Q100272365', 'http://www.wikidata.org/entity/Q100272366', 'http://www.wikidata.org/entity/Q100272367', 'http://www.wikidata.org/entity/Q100272368', 'http://www.wikidata.org/entity/Q100272369', 'http://www.wikidata.org/entity/Q100272370', 'http://www.wikidata.org/entity/Q100272371', 'http://www.wikidata.org/entity/Q100272372', 'http://www.wikidata.org/entity/Q100272373', 'http://www.wikidata.org/entity/Q100272374', 'http://www.wikidata.org/entity/Q100272375', 'http://www.wikidata.org/entity/Q100272377', 'http://www.wikidata.org/entity/Q100272378', 'http://www.wikidata.org/entity/Q100272379', 'http://www.wikidata.org/entity/Q100272380', 'http://www.wikidata.org/entity/Q100272381', 'http://www.wikidata.org/entity/Q100272383', 'http://www.wikidata.org/entity/Q100272385', 'http://www.wikidata.org/entity/Q100272386', 'http://www.wikidata.org/entity/Q100272388', 'http://www.wikidata.org/entity/Q100272389', 'http://www.wikidata.org/entity/Q100272390', 'http://www.wikidata.org/entity/Q100272391', 'http://www.wikidata.org/entity/Q100272392', 'http://www.wikidata.org/entity/Q100272393', 'http://www.wikidata.org/entity/Q100272394', 'http://www.wikidata.org/entity/Q100272395', 'http://www.wikidata.org/entity/Q100272396', 'http://www.wikidata.org/entity/Q100272398', 'http://www.wikidata.org/entity/Q100272399', 'http://www.wikidata.org/entity/Q100272400', 'http://www.wikidata.org/entity/Q100272401', 'http://www.wikidata.org/entity/Q100272402', 'http://www.wikidata.org/entity/Q100272403', 'http://www.wikidata.org/entity/Q100272404', 'http://www.wikidata.org/entity/Q100272405', 'http://www.wikidata.org/entity/Q100272406', 'http://www.wikidata.org/entity/Q100272407', 'http://www.wikidata.org/entity/Q100272408', 'http://www.wikidata.org/entity/Q100272409', 'http://www.wikidata.org/entity/Q100272410', 'http://www.wikidata.org/entity/Q100272411', 'http://www.wikidata.org/entity/Q100272412', 'http://www.wikidata.org/entity/Q100272413', 'http://www.wikidata.org/entity/Q100272415', 'http://www.wikidata.org/entity/Q100272416', 'http://www.wikidata.org/entity/Q100272417', 'http://www.wikidata.org/entity/Q100272418', 'http://www.wikidata.org/entity/Q100272419', 'http://www.wikidata.org/entity/Q100272420', 'http://www.wikidata.org/entity/Q100272421', 'http://www.wikidata.org/entity/Q100272422', 'http://www.wikidata.org/entity/Q100272423', 'http://www.wikidata.org/entity/Q100272424', 'http://www.wikidata.org/entity/Q100272425', 'http://www.wikidata.org/entity/Q100272426', 'http://www.wikidata.org/entity/Q100272427', 'http://www.wikidata.org/entity/Q100272428', 'http://www.wikidata.org/entity/Q100272429', 'http://www.wikidata.org/entity/Q100272430', 'http://www.wikidata.org/entity/Q100272431', 'http://www.wikidata.org/entity/Q100272432', 'http://www.wikidata.org/entity/Q100272433', 'http://www.wikidata.org/entity/Q100272434', 'http://www.wikidata.org/entity/Q100272435', 'http://www.wikidata.org/entity/Q100272436', 'http://www.wikidata.org/entity/Q100272437', 'http://www.wikidata.org/entity/Q100272438', 'http://www.wikidata.org/entity/Q100334343', 'http://www.wikidata.org/entity/Q100334344', 'http://www.wikidata.org/entity/Q100334346', 'http://www.wikidata.org/entity/Q100334347', 'http://www.wikidata.org/entity/Q100334350', 'http://www.wikidata.org/entity/Q100334352', 'http://www.wikidata.org/entity/Q100334354', 'http://www.wikidata.org/entity/Q100334355', 'http://www.wikidata.org/entity/Q100334357', 'http://www.wikidata.org/entity/Q100334358', 'http://www.wikidata.org/entity/Q100334360', 'http://www.wikidata.org/entity/Q100334363', 'http://www.wikidata.org/entity/Q100334364', 'http://www.wikidata.org/entity/Q100334367', 'http://www.wikidata.org/entity/Q100334369', 'http://www.wikidata.org/entity/Q100334371', 'http://www.wikidata.org/entity/Q100334373', 'http://www.wikidata.org/entity/Q100334376', 'http://www.wikidata.org/entity/Q100334377', 'http://www.wikidata.org/entity/Q100334379', 'http://www.wikidata.org/entity/Q100334381', 'http://www.wikidata.org/entity/Q100334384', 'http://www.wikidata.org/entity/Q100334386', 'http://www.wikidata.org/entity/Q100334389', 'http://www.wikidata.org/entity/Q100334391', 'http://www.wikidata.org/entity/Q100334393', 'http://www.wikidata.org/entity/Q100334395', 'http://www.wikidata.org/entity/Q100334397', 'http://www.wikidata.org/entity/Q100334400', 'http://www.wikidata.org/entity/Q100334402', 'http://www.wikidata.org/entity/Q100334404', 'http://www.wikidata.org/entity/Q100334406', 'http://www.wikidata.org/entity/Q100334408', 'http://www.wikidata.org/entity/Q100334410', 'http://www.wikidata.org/entity/Q100334412', 'http://www.wikidata.org/entity/Q100334414', 'http://www.wikidata.org/entity/Q100334415', 'http://www.wikidata.org/entity/Q100334418', 'http://www.wikidata.org/entity/Q100334419', 'http://www.wikidata.org/entity/Q100334421', 'http://www.wikidata.org/entity/Q100334423', 'http://www.wikidata.org/entity/Q100334426', 'http://www.wikidata.org/entity/Q100334429', 'http://www.wikidata.org/entity/Q100334431', 'http://www.wikidata.org/entity/Q100334433', 'http://www.wikidata.org/entity/Q100334435', 'http://www.wikidata.org/entity/Q100334437', 'http://www.wikidata.org/entity/Q100334439', 'http://www.wikidata.org/entity/Q100334442', 'http://www.wikidata.org/entity/Q100334444', 'http://www.wikidata.org/entity/Q100334447', 'http://www.wikidata.org/entity/Q100334449', 'http://www.wikidata.org/entity/Q100334450', 'http://www.wikidata.org/entity/Q100334452', 'http://www.wikidata.org/entity/Q100334454', 'http://www.wikidata.org/entity/Q100334456', 'http://www.wikidata.org/entity/Q100334458', 'http://www.wikidata.org/entity/Q100334462', 'http://www.wikidata.org/entity/Q100334464', 'http://www.wikidata.org/entity/Q100334467', 'http://www.wikidata.org/entity/Q100334469', 'http://www.wikidata.org/entity/Q100334471', 'http://www.wikidata.org/entity/Q100334473', 'http://www.wikidata.org/entity/Q100334476', 'http://www.wikidata.org/entity/Q100334477', 'http://www.wikidata.org/entity/Q100334480', 'http://www.wikidata.org/entity/Q100334482', 'http://www.wikidata.org/entity/Q100334485', 'http://www.wikidata.org/entity/Q100334487', 'http://www.wikidata.org/entity/Q100334489', 'http://www.wikidata.org/entity/Q100334492', 'http://www.wikidata.org/entity/Q100334494', 'http://www.wikidata.org/entity/Q100334498', 'http://www.wikidata.org/entity/Q100334500', 'http://www.wikidata.org/entity/Q100334502', 'http://www.wikidata.org/entity/Q100334504', 'http://www.wikidata.org/entity/Q100334507', 'http://www.wikidata.org/entity/Q100334509', 'http://www.wikidata.org/entity/Q100334511', 'http://www.wikidata.org/entity/Q100334514', 'http://www.wikidata.org/entity/Q100334516', 'http://www.wikidata.org/entity/Q100334519', 'http://www.wikidata.org/entity/Q100334521', 'http://www.wikidata.org/entity/Q100334523', 'http://www.wikidata.org/entity/Q100334525', 'http://www.wikidata.org/entity/Q100334527', 'http://www.wikidata.org/entity/Q100334531', 'http://www.wikidata.org/entity/Q100334533', 'http://www.wikidata.org/entity/Q100334534', 'http://www.wikidata.org/entity/Q100334537', 'http://www.wikidata.org/entity/Q100334538', 'http://www.wikidata.org/entity/Q100334540', 'http://www.wikidata.org/entity/Q100334542', 'http://www.wikidata.org/entity/Q100334545', 'http://www.wikidata.org/entity/Q100334547', 'http://www.wikidata.org/entity/Q100334549', 'http://www.wikidata.org/entity/Q100334550', 'http://www.wikidata.org/entity/Q100334552', 'http://www.wikidata.org/entity/Q100334553', 'http://www.wikidata.org/entity/Q100334555', 'http://www.wikidata.org/entity/Q100334558', 'http://www.wikidata.org/entity/Q100334560', 'http://www.wikidata.org/entity/Q100334564', 'http://www.wikidata.org/entity/Q100334566', 'http://www.wikidata.org/entity/Q100334568', 'http://www.wikidata.org/entity/Q100334570', 'http://www.wikidata.org/entity/Q100334572', 'http://www.wikidata.org/entity/Q100334575', 'http://www.wikidata.org/entity/Q100334577', 'http://www.wikidata.org/entity/Q100334581', 'http://www.wikidata.org/entity/Q100334583', 'http://www.wikidata.org/entity/Q100334585', 'http://www.wikidata.org/entity/Q100334587', 'http://www.wikidata.org/entity/Q100334589', 'http://www.wikidata.org/entity/Q100334591', 'http://www.wikidata.org/entity/Q100334593', 'http://www.wikidata.org/entity/Q100334595', 'http://www.wikidata.org/entity/Q100334598', 'http://www.wikidata.org/entity/Q100334600', 'http://www.wikidata.org/entity/Q100334602', 'http://www.wikidata.org/entity/Q100334604', 'http://www.wikidata.org/entity/Q100334606', 'http://www.wikidata.org/entity/Q100334608', 'http://www.wikidata.org/entity/Q100334611', 'http://www.wikidata.org/entity/Q100334614', 'http://www.wikidata.org/entity/Q100334617', 'http://www.wikidata.org/entity/Q100334620', 'http://www.wikidata.org/entity/Q100334624', 'http://www.wikidata.org/entity/Q100334625', 'http://www.wikidata.org/entity/Q100334628', 'http://www.wikidata.org/entity/Q100334631', 'http://www.wikidata.org/entity/Q100334633', 'http://www.wikidata.org/entity/Q100334634', 'http://www.wikidata.org/entity/Q100334636', 'http://www.wikidata.org/entity/Q100334638', 'http://www.wikidata.org/entity/Q100334640', 'http://www.wikidata.org/entity/Q100334642', 'http://www.wikidata.org/entity/Q100334644', 'http://www.wikidata.org/entity/Q100334647', 'http://www.wikidata.org/entity/Q100334649', 'http://www.wikidata.org/entity/Q100334651', 'http://www.wikidata.org/entity/Q100334652', 'http://www.wikidata.org/entity/Q100334654', 'http://www.wikidata.org/entity/Q100334656', 'http://www.wikidata.org/entity/Q100334660', 'http://www.wikidata.org/entity/Q100334662', 'http://www.wikidata.org/entity/Q100334664', 'http://www.wikidata.org/entity/Q100334667', 'http://www.wikidata.org/entity/Q100334669', 'http://www.wikidata.org/entity/Q100334671', 'http://www.wikidata.org/entity/Q100334674', 'http://www.wikidata.org/entity/Q100334678', 'http://www.wikidata.org/entity/Q100334683', 'http://www.wikidata.org/entity/Q100334685', 'http://www.wikidata.org/entity/Q100334688', 'http://www.wikidata.org/entity/Q100334691', 'http://www.wikidata.org/entity/Q100334695', 'http://www.wikidata.org/entity/Q100334698', 'http://www.wikidata.org/entity/Q100334701', 'http://www.wikidata.org/entity/Q100334704', 'http://www.wikidata.org/entity/Q100334707', 'http://www.wikidata.org/entity/Q100334710', 'http://www.wikidata.org/entity/Q100334713', 'http://www.wikidata.org/entity/Q100334715', 'http://www.wikidata.org/entity/Q100334716', 'http://www.wikidata.org/entity/Q100334719', 'http://www.wikidata.org/entity/Q100334722', 'http://www.wikidata.org/entity/Q100334726', 'http://www.wikidata.org/entity/Q100334731', 'http://www.wikidata.org/entity/Q100334735', 'http://www.wikidata.org/entity/Q100334738', 'http://www.wikidata.org/entity/Q100334741', 'http://www.wikidata.org/entity/Q100334744', 'http://www.wikidata.org/entity/Q100334747', 'http://www.wikidata.org/entity/Q100334751', 'http://www.wikidata.org/entity/Q100334754', 'http://www.wikidata.org/entity/Q100334759', 'http://www.wikidata.org/entity/Q100334762', 'http://www.wikidata.org/entity/Q100334767', 'http://www.wikidata.org/entity/Q100334771', 'http://www.wikidata.org/entity/Q100334774', 'http://www.wikidata.org/entity/Q100334777', 'http://www.wikidata.org/entity/Q100334780', 'http://www.wikidata.org/entity/Q100334784', 'http://www.wikidata.org/entity/Q100334787', 'http://www.wikidata.org/entity/Q100334790', 'http://www.wikidata.org/entity/Q100334794', 'http://www.wikidata.org/entity/Q100334799', 'http://www.wikidata.org/entity/Q100334803', 'http://www.wikidata.org/entity/Q100334807', 'http://www.wikidata.org/entity/Q100334811', 'http://www.wikidata.org/entity/Q100334816', 'http://www.wikidata.org/entity/Q100334818', 'http://www.wikidata.org/entity/Q100334823', 'http://www.wikidata.org/entity/Q100334828', 'http://www.wikidata.org/entity/Q100334831', 'http://www.wikidata.org/entity/Q100334836', 'http://www.wikidata.org/entity/Q100334838', 'http://www.wikidata.org/entity/Q100334841', 'http://www.wikidata.org/entity/Q100334845', 'http://www.wikidata.org/entity/Q100334848', 'http://www.wikidata.org/entity/Q100334851', 'http://www.wikidata.org/entity/Q100334855', 'http://www.wikidata.org/entity/Q100334858', 'http://www.wikidata.org/entity/Q100334861', 'http://www.wikidata.org/entity/Q100334867', 'http://www.wikidata.org/entity/Q100334871', 'http://www.wikidata.org/entity/Q100334878', 'http://www.wikidata.org/entity/Q100334882', 'http://www.wikidata.org/entity/Q100334885', 'http://www.wikidata.org/entity/Q100334887', 'http://www.wikidata.org/entity/Q100334890', 'http://www.wikidata.org/entity/Q100334893', 'http://www.wikidata.org/entity/Q100334895', 'http://www.wikidata.org/entity/Q100334898', 'http://www.wikidata.org/entity/Q100334900', 'http://www.wikidata.org/entity/Q100334904', 'http://www.wikidata.org/entity/Q100334907', 'http://www.wikidata.org/entity/Q100334911', 'http://www.wikidata.org/entity/Q100334913', 'http://www.wikidata.org/entity/Q100334916', 'http://www.wikidata.org/entity/Q100334918', 'http://www.wikidata.org/entity/Q100334922', 'http://www.wikidata.org/entity/Q100334925', 'http://www.wikidata.org/entity/Q100334928', 'http://www.wikidata.org/entity/Q100334930', 'http://www.wikidata.org/entity/Q100334933', 'http://www.wikidata.org/entity/Q100334937', 'http://www.wikidata.org/entity/Q100334940', 'http://www.wikidata.org/entity/Q100334943', 'http://www.wikidata.org/entity/Q100334947', 'http://www.wikidata.org/entity/Q100334950', 'http://www.wikidata.org/entity/Q100334954', 'http://www.wikidata.org/entity/Q100334958', 'http://www.wikidata.org/entity/Q100334963', 'http://www.wikidata.org/entity/Q100334967', 'http://www.wikidata.org/entity/Q100334970', 'http://www.wikidata.org/entity/Q100334975', 'http://www.wikidata.org/entity/Q100334978', 'http://www.wikidata.org/entity/Q100334981', 'http://www.wikidata.org/entity/Q100334983', 'http://www.wikidata.org/entity/Q100334985', 'http://www.wikidata.org/entity/Q100334989', 'http://www.wikidata.org/entity/Q100334992', 'http://www.wikidata.org/entity/Q100334995', 'http://www.wikidata.org/entity/Q100334999', 'http://www.wikidata.org/entity/Q100335003', 'http://www.wikidata.org/entity/Q100335005', 'http://www.wikidata.org/entity/Q100335009', 'http://www.wikidata.org/entity/Q100335013', 'http://www.wikidata.org/entity/Q100335015', 'http://www.wikidata.org/entity/Q100335019', 'http://www.wikidata.org/entity/Q100335023', 'http://www.wikidata.org/entity/Q100335026', 'http://www.wikidata.org/entity/Q100335032', 'http://www.wikidata.org/entity/Q100335035', 'http://www.wikidata.org/entity/Q100335038', 'http://www.wikidata.org/entity/Q100335041', 'http://www.wikidata.org/entity/Q100335043', 'http://www.wikidata.org/entity/Q100335046', 'http://www.wikidata.org/entity/Q100335049', 'http://www.wikidata.org/entity/Q100335051', 'http://www.wikidata.org/entity/Q100335055', 'http://www.wikidata.org/entity/Q100335058', 'http://www.wikidata.org/entity/Q100335061', 'http://www.wikidata.org/entity/Q100335062', 'http://www.wikidata.org/entity/Q100335066', 'http://www.wikidata.org/entity/Q100335068', 'http://www.wikidata.org/entity/Q100335070', 'http://www.wikidata.org/entity/Q100335073', 'http://www.wikidata.org/entity/Q100335074', 'http://www.wikidata.org/entity/Q100335078', 'http://www.wikidata.org/entity/Q100335081', 'http://www.wikidata.org/entity/Q100335082', 'http://www.wikidata.org/entity/Q100335085', 'http://www.wikidata.org/entity/Q100335090', 'http://www.wikidata.org/entity/Q100335093', 'http://www.wikidata.org/entity/Q100335095', 'http://www.wikidata.org/entity/Q100335098', 'http://www.wikidata.org/entity/Q100335102', 'http://www.wikidata.org/entity/Q100335104', 'http://www.wikidata.org/entity/Q100335107', 'http://www.wikidata.org/entity/Q100335110', 'http://www.wikidata.org/entity/Q100335112', 'http://www.wikidata.org/entity/Q100335115', 'http://www.wikidata.org/entity/Q100335118', 'http://www.wikidata.org/entity/Q100335120', 'http://www.wikidata.org/entity/Q100335123', 'http://www.wikidata.org/entity/Q100335126', 'http://www.wikidata.org/entity/Q100335129', 'http://www.wikidata.org/entity/Q100335132', 'http://www.wikidata.org/entity/Q100335134', 'http://www.wikidata.org/entity/Q100335136', 'http://www.wikidata.org/entity/Q100335139', 'http://www.wikidata.org/entity/Q100335141', 'http://www.wikidata.org/entity/Q100335144', 'http://www.wikidata.org/entity/Q100335147', 'http://www.wikidata.org/entity/Q100335148', 'http://www.wikidata.org/entity/Q100335152', 'http://www.wikidata.org/entity/Q100335154', 'http://www.wikidata.org/entity/Q100335157', 'http://www.wikidata.org/entity/Q100335159', 'http://www.wikidata.org/entity/Q100335161', 'http://www.wikidata.org/entity/Q100335163', 'http://www.wikidata.org/entity/Q100335164', 'http://www.wikidata.org/entity/Q100335166', 'http://www.wikidata.org/entity/Q100335168', 'http://www.wikidata.org/entity/Q100335170', 'http://www.wikidata.org/entity/Q100335174', 'http://www.wikidata.org/entity/Q100335176', 'http://www.wikidata.org/entity/Q100335178', 'http://www.wikidata.org/entity/Q100335180', 'http://www.wikidata.org/entity/Q100335181', 'http://www.wikidata.org/entity/Q100335183', 'http://www.wikidata.org/entity/Q100335185', 'http://www.wikidata.org/entity/Q100335187', 'http://www.wikidata.org/entity/Q100335189', 'http://www.wikidata.org/entity/Q100335191', 'http://www.wikidata.org/entity/Q100335194', 'http://www.wikidata.org/entity/Q100335196', 'http://www.wikidata.org/entity/Q100335198', 'http://www.wikidata.org/entity/Q100335200', 'http://www.wikidata.org/entity/Q100335202', 'http://www.wikidata.org/entity/Q100335204', 'http://www.wikidata.org/entity/Q100335206', 'http://www.wikidata.org/entity/Q100335208', 'http://www.wikidata.org/entity/Q100335209', 'http://www.wikidata.org/entity/Q100335213', 'http://www.wikidata.org/entity/Q100335214', 'http://www.wikidata.org/entity/Q100335216', 'http://www.wikidata.org/entity/Q100335218', 'http://www.wikidata.org/entity/Q100335220', 'http://www.wikidata.org/entity/Q100335222', 'http://www.wikidata.org/entity/Q100335223', 'http://www.wikidata.org/entity/Q100335225', 'http://www.wikidata.org/entity/Q100335227', 'http://www.wikidata.org/entity/Q100335230', 'http://www.wikidata.org/entity/Q100335232', 'http://www.wikidata.org/entity/Q100335233', 'http://www.wikidata.org/entity/Q100335236', 'http://www.wikidata.org/entity/Q100335238', 'http://www.wikidata.org/entity/Q100335240', 'http://www.wikidata.org/entity/Q100335241', 'http://www.wikidata.org/entity/Q100335243', 'http://www.wikidata.org/entity/Q100335245', 'http://www.wikidata.org/entity/Q100335248', 'http://www.wikidata.org/entity/Q100335249', 'http://www.wikidata.org/entity/Q100335251', 'http://www.wikidata.org/entity/Q100335253', 'http://www.wikidata.org/entity/Q100335255', 'http://www.wikidata.org/entity/Q100335257', 'http://www.wikidata.org/entity/Q100335259', 'http://www.wikidata.org/entity/Q100335262', 'http://www.wikidata.org/entity/Q100335263', 'http://www.wikidata.org/entity/Q100335265', 'http://www.wikidata.org/entity/Q100335267', 'http://www.wikidata.org/entity/Q100335269', 'http://www.wikidata.org/entity/Q100335270', 'http://www.wikidata.org/entity/Q100335272', 'http://www.wikidata.org/entity/Q100335274', 'http://www.wikidata.org/entity/Q100335276', 'http://www.wikidata.org/entity/Q100335278', 'http://www.wikidata.org/entity/Q100335280', 'http://www.wikidata.org/entity/Q100335282', 'http://www.wikidata.org/entity/Q100335285', 'http://www.wikidata.org/entity/Q100335286', 'http://www.wikidata.org/entity/Q100335288', 'http://www.wikidata.org/entity/Q100335290', 'http://www.wikidata.org/entity/Q100335293', 'http://www.wikidata.org/entity/Q100335295', 'http://www.wikidata.org/entity/Q100335297', 'http://www.wikidata.org/entity/Q100335299', 'http://www.wikidata.org/entity/Q100335301', 'http://www.wikidata.org/entity/Q100335304', 'http://www.wikidata.org/entity/Q100335306', 'http://www.wikidata.org/entity/Q100335307', 'http://www.wikidata.org/entity/Q100335309', 'http://www.wikidata.org/entity/Q100335312', 'http://www.wikidata.org/entity/Q100335315', 'http://www.wikidata.org/entity/Q100335317', 'http://www.wikidata.org/entity/Q100335320', 'http://www.wikidata.org/entity/Q100335324', 'http://www.wikidata.org/entity/Q100335328', 'http://www.wikidata.org/entity/Q100335331', 'http://www.wikidata.org/entity/Q100335334', 'http://www.wikidata.org/entity/Q100335337', 'http://www.wikidata.org/entity/Q100335341', 'http://www.wikidata.org/entity/Q100335344', 'http://www.wikidata.org/entity/Q100335346', 'http://www.wikidata.org/entity/Q100335352', 'http://www.wikidata.org/entity/Q100335356', 'http://www.wikidata.org/entity/Q100335359', 'http://www.wikidata.org/entity/Q100335362', 'http://www.wikidata.org/entity/Q100335365', 'http://www.wikidata.org/entity/Q100335368', 'http://www.wikidata.org/entity/Q100335371', 'http://www.wikidata.org/entity/Q100335374', 'http://www.wikidata.org/entity/Q100335377', 'http://www.wikidata.org/entity/Q100335379', 'http://www.wikidata.org/entity/Q100335383', 'http://www.wikidata.org/entity/Q100335387', 'http://www.wikidata.org/entity/Q100335390', 'http://www.wikidata.org/entity/Q100335393', 'http://www.wikidata.org/entity/Q100335396', 'http://www.wikidata.org/entity/Q100335399', 'http://www.wikidata.org/entity/Q100335403', 'http://www.wikidata.org/entity/Q100335405', 'http://www.wikidata.org/entity/Q100335408', 'http://www.wikidata.org/entity/Q100335411', 'http://www.wikidata.org/entity/Q100335415', 'http://www.wikidata.org/entity/Q100335418', 'http://www.wikidata.org/entity/Q100335421', 'http://www.wikidata.org/entity/Q100335424', 'http://www.wikidata.org/entity/Q100335428', 'http://www.wikidata.org/entity/Q100335431', 'http://www.wikidata.org/entity/Q100335434', 'http://www.wikidata.org/entity/Q100335437', 'http://www.wikidata.org/entity/Q100335440', 'http://www.wikidata.org/entity/Q100335444', 'http://www.wikidata.org/entity/Q100335446', 'http://www.wikidata.org/entity/Q100335450', 'http://www.wikidata.org/entity/Q100335453', 'http://www.wikidata.org/entity/Q100335455', 'http://www.wikidata.org/entity/Q100335458', 'http://www.wikidata.org/entity/Q100335461', 'http://www.wikidata.org/entity/Q100335463', 'http://www.wikidata.org/entity/Q100335466', 'http://www.wikidata.org/entity/Q100335469', 'http://www.wikidata.org/entity/Q100335472', 'http://www.wikidata.org/entity/Q100335475', 'http://www.wikidata.org/entity/Q100335479', 'http://www.wikidata.org/entity/Q100335482', 'http://www.wikidata.org/entity/Q100335485', 'http://www.wikidata.org/entity/Q100335488', 'http://www.wikidata.org/entity/Q100335491', 'http://www.wikidata.org/entity/Q100335494', 'http://www.wikidata.org/entity/Q100335497', 'http://www.wikidata.org/entity/Q100335501', 'http://www.wikidata.org/entity/Q100335504', 'http://www.wikidata.org/entity/Q100335507', 'http://www.wikidata.org/entity/Q100335508', 'http://www.wikidata.org/entity/Q100335512', 'http://www.wikidata.org/entity/Q100335515', 'http://www.wikidata.org/entity/Q100335518', 'http://www.wikidata.org/entity/Q100335521', 'http://www.wikidata.org/entity/Q100335524', 'http://www.wikidata.org/entity/Q100335528', 'http://www.wikidata.org/entity/Q100335531', 'http://www.wikidata.org/entity/Q100335534', 'http://www.wikidata.org/entity/Q100335540', 'http://www.wikidata.org/entity/Q100335542', 'http://www.wikidata.org/entity/Q100335545', 'http://www.wikidata.org/entity/Q100335547', 'http://www.wikidata.org/entity/Q100335550', 'http://www.wikidata.org/entity/Q100335553', 'http://www.wikidata.org/entity/Q100335556', 'http://www.wikidata.org/entity/Q100335560', 'http://www.wikidata.org/entity/Q100335563', 'http://www.wikidata.org/entity/Q100335566', 'http://www.wikidata.org/entity/Q100335570', 'http://www.wikidata.org/entity/Q100335573', 'http://www.wikidata.org/entity/Q100335575', 'http://www.wikidata.org/entity/Q100335578', 'http://www.wikidata.org/entity/Q100335581', 'http://www.wikidata.org/entity/Q100335584', 'http://www.wikidata.org/entity/Q100335588', 'http://www.wikidata.org/entity/Q100335591', 'http://www.wikidata.org/entity/Q100335594', 'http://www.wikidata.org/entity/Q100335596', 'http://www.wikidata.org/entity/Q100335599', 'http://www.wikidata.org/entity/Q100335602', 'http://www.wikidata.org/entity/Q100335605', 'http://www.wikidata.org/entity/Q100335608', 'http://www.wikidata.org/entity/Q100335611', 'http://www.wikidata.org/entity/Q100335614', 'http://www.wikidata.org/entity/Q100335617', 'http://www.wikidata.org/entity/Q100335621', 'http://www.wikidata.org/entity/Q100335624', 'http://www.wikidata.org/entity/Q100335626', 'http://www.wikidata.org/entity/Q100335629', 'http://www.wikidata.org/entity/Q100335632', 'http://www.wikidata.org/entity/Q100335634', 'http://www.wikidata.org/entity/Q100335637', 'http://www.wikidata.org/entity/Q100335641', 'http://www.wikidata.org/entity/Q100335643', 'http://www.wikidata.org/entity/Q100335647', 'http://www.wikidata.org/entity/Q100335649', 'http://www.wikidata.org/entity/Q100335652', 'http://www.wikidata.org/entity/Q100335656', 'http://www.wikidata.org/entity/Q100335659', 'http://www.wikidata.org/entity/Q100335662', 'http://www.wikidata.org/entity/Q100335665', 'http://www.wikidata.org/entity/Q100335668', 'http://www.wikidata.org/entity/Q100335672', 'http://www.wikidata.org/entity/Q100335675', 'http://www.wikidata.org/entity/Q100335677', 'http://www.wikidata.org/entity/Q100335681', 'http://www.wikidata.org/entity/Q100335684', 'http://www.wikidata.org/entity/Q100335687', 'http://www.wikidata.org/entity/Q100335690', 'http://www.wikidata.org/entity/Q100335693', 'http://www.wikidata.org/entity/Q100335696', 'http://www.wikidata.org/entity/Q100335700', 'http://www.wikidata.org/entity/Q100335703', 'http://www.wikidata.org/entity/Q100335706', 'http://www.wikidata.org/entity/Q100335708', 'http://www.wikidata.org/entity/Q100335711', 'http://www.wikidata.org/entity/Q100335714', 'http://www.wikidata.org/entity/Q100335718', 'http://www.wikidata.org/entity/Q100335722', 'http://www.wikidata.org/entity/Q100335726', 'http://www.wikidata.org/entity/Q100335729', 'http://www.wikidata.org/entity/Q100335731', 'http://www.wikidata.org/entity/Q100335734', 'http://www.wikidata.org/entity/Q100335737', 'http://www.wikidata.org/entity/Q100335740', 'http://www.wikidata.org/entity/Q100335742', 'http://www.wikidata.org/entity/Q100335745', 'http://www.wikidata.org/entity/Q100335748', 'http://www.wikidata.org/entity/Q100335751', 'http://www.wikidata.org/entity/Q100335754', 'http://www.wikidata.org/entity/Q100335757', 'http://www.wikidata.org/entity/Q100335759', 'http://www.wikidata.org/entity/Q100335762', 'http://www.wikidata.org/entity/Q100335765', 'http://www.wikidata.org/entity/Q100335768', 'http://www.wikidata.org/entity/Q100335771', 'http://www.wikidata.org/entity/Q100335775', 'http://www.wikidata.org/entity/Q100335779', 'http://www.wikidata.org/entity/Q100335782', 'http://www.wikidata.org/entity/Q100335785', 'http://www.wikidata.org/entity/Q100335788', 'http://www.wikidata.org/entity/Q100335791', 'http://www.wikidata.org/entity/Q100335794', 'http://www.wikidata.org/entity/Q100335797', 'http://www.wikidata.org/entity/Q100335800', 'http://www.wikidata.org/entity/Q100335804', 'http://www.wikidata.org/entity/Q100335808', 'http://www.wikidata.org/entity/Q100335811', 'http://www.wikidata.org/entity/Q100335814', 'http://www.wikidata.org/entity/Q100335817', 'http://www.wikidata.org/entity/Q100335820', 'http://www.wikidata.org/entity/Q100335823', 'http://www.wikidata.org/entity/Q100335826', 'http://www.wikidata.org/entity/Q100335829', 'http://www.wikidata.org/entity/Q100335832', 'http://www.wikidata.org/entity/Q100335836', 'http://www.wikidata.org/entity/Q100335839', 'http://www.wikidata.org/entity/Q100335843', 'http://www.wikidata.org/entity/Q100335846', 'http://www.wikidata.org/entity/Q100335849', 'http://www.wikidata.org/entity/Q100335851', 'http://www.wikidata.org/entity/Q100335858', 'http://www.wikidata.org/entity/Q100335861', 'http://www.wikidata.org/entity/Q100335864', 'http://www.wikidata.org/entity/Q100335867', 'http://www.wikidata.org/entity/Q100335870', 'http://www.wikidata.org/entity/Q100335873', 'http://www.wikidata.org/entity/Q100335877', 'http://www.wikidata.org/entity/Q100335879', 'http://www.wikidata.org/entity/Q100335883', 'http://www.wikidata.org/entity/Q100335887', 'http://www.wikidata.org/entity/Q100335888', 'http://www.wikidata.org/entity/Q100335893', 'http://www.wikidata.org/entity/Q100335895', 'http://www.wikidata.org/entity/Q100335897', 'http://www.wikidata.org/entity/Q100335900', 'http://www.wikidata.org/entity/Q100335904', 'http://www.wikidata.org/entity/Q100335906', 'http://www.wikidata.org/entity/Q100335909', 'http://www.wikidata.org/entity/Q100335913', 'http://www.wikidata.org/entity/Q100335916', 'http://www.wikidata.org/entity/Q100335920', 'http://www.wikidata.org/entity/Q100335922', 'http://www.wikidata.org/entity/Q100335924', 'http://www.wikidata.org/entity/Q100335926', 'http://www.wikidata.org/entity/Q100335929', 'http://www.wikidata.org/entity/Q100335931', 'http://www.wikidata.org/entity/Q100335932', 'http://www.wikidata.org/entity/Q100335934', 'http://www.wikidata.org/entity/Q100335936', 'http://www.wikidata.org/entity/Q100335939', 'http://www.wikidata.org/entity/Q100335940', 'http://www.wikidata.org/entity/Q100335943', 'http://www.wikidata.org/entity/Q100335945', 'http://www.wikidata.org/entity/Q100335947', 'http://www.wikidata.org/entity/Q100335949', 'http://www.wikidata.org/entity/Q100335951', 'http://www.wikidata.org/entity/Q100335954', 'http://www.wikidata.org/entity/Q100335955', 'http://www.wikidata.org/entity/Q100335958', 'http://www.wikidata.org/entity/Q100335959', 'http://www.wikidata.org/entity/Q100335961', 'http://www.wikidata.org/entity/Q100335963', 'http://www.wikidata.org/entity/Q100335965', 'http://www.wikidata.org/entity/Q100335967', 'http://www.wikidata.org/entity/Q100335969', 'http://www.wikidata.org/entity/Q100335970', 'http://www.wikidata.org/entity/Q100335973', 'http://www.wikidata.org/entity/Q100335975', 'http://www.wikidata.org/entity/Q100335976', 'http://www.wikidata.org/entity/Q100335978', 'http://www.wikidata.org/entity/Q100335980', 'http://www.wikidata.org/entity/Q100335982', 'http://www.wikidata.org/entity/Q100335983', 'http://www.wikidata.org/entity/Q100335985', 'http://www.wikidata.org/entity/Q100335987', 'http://www.wikidata.org/entity/Q100335990', 'http://www.wikidata.org/entity/Q100335992', 'http://www.wikidata.org/entity/Q100335994', 'http://www.wikidata.org/entity/Q100335995', 'http://www.wikidata.org/entity/Q100335997', 'http://www.wikidata.org/entity/Q100335998', 'http://www.wikidata.org/entity/Q100336000', 'http://www.wikidata.org/entity/Q100336001', 'http://www.wikidata.org/entity/Q100336004', 'http://www.wikidata.org/entity/Q100336006', 'http://www.wikidata.org/entity/Q100336007', 'http://www.wikidata.org/entity/Q100336009', 'http://www.wikidata.org/entity/Q100336011', 'http://www.wikidata.org/entity/Q100336012', 'http://www.wikidata.org/entity/Q100336014', 'http://www.wikidata.org/entity/Q100336016', 'http://www.wikidata.org/entity/Q100336018', 'http://www.wikidata.org/entity/Q100336020', 'http://www.wikidata.org/entity/Q100336022', 'http:</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q100165776', 'http://www.wikidata.org/entity/Q100699368', 'http://www.wikidata.org/entity/Q101208716', 'http://www.wikidata.org/entity/Q101240388', 'http://www.wikidata.org/entity/Q1016657', 'http://www.wikidata.org/entity/Q101799929', 'http://www.wikidata.org/entity/Q1018491', 'http://www.wikidata.org/entity/Q10263747', 'http://www.wikidata.org/entity/Q10265027', 'http://www.wikidata.org/entity/Q1029748', 'http://www.wikidata.org/entity/Q10399295', 'http://www.wikidata.org/entity/Q104212872', 'http://www.wikidata.org/entity/Q10424655', 'http://www.wikidata.org/entity/Q10427794', 'http://www.wikidata.org/entity/Q10438507', 'http://www.wikidata.org/entity/Q104423070', 'http://www.wikidata.org/entity/Q10470137', 'http://www.wikidata.org/entity/Q10478647', 'http://www.wikidata.org/entity/Q104830609', 'http://www.wikidata.org/entity/Q10483276', 'http://www.wikidata.org/entity/Q10483278', 'http://www.wikidata.org/entity/Q104897335', 'http://www.wikidata.org/entity/Q104898332', 'http://www.wikidata.org/entity/Q104898349', 'http://www.wikidata.org/entity/Q10497055', 'http://www.wikidata.org/entity/Q10498919', 'http://www.wikidata.org/entity/Q10521846', 'http://www.wikidata.org/entity/Q1052389', 'http://www.wikidata.org/entity/Q10539208', 'http://www.wikidata.org/entity/Q10540694', 'http://www.wikidata.org/entity/Q10545976', 'http://www.wikidata.org/entity/Q10546459', 'http://www.wikidata.org/entity/Q10550108', 'http://www.wikidata.org/entity/Q10551144', 'http://www.wikidata.org/entity/Q10551800', 'http://www.wikidata.org/entity/Q10552257', 'http://www.wikidata.org/entity/Q105658120', 'http://www.wikidata.org/entity/Q10568431', 'http://www.wikidata.org/entity/Q10576347', 'http://www.wikidata.org/entity/Q1058095', 'http://www.wikidata.org/entity/Q10581740', 'http://www.wikidata.org/entity/Q1058578', 'http://www.wikidata.org/entity/Q105977832', 'http://www.wikidata.org/entity/Q105977836', 'http://www.wikidata.org/entity/Q105977866', 'http://www.wikidata.org/entity/Q10611490', 'http://www.wikidata.org/entity/Q10623223', 'http://www.wikidata.org/entity/Q10636269', 'http://www.wikidata.org/entity/Q10639468', 'http://www.wikidata.org/entity/Q10657971', 'http://www.wikidata.org/entity/Q10658192', 'http://www.wikidata.org/entity/Q106595791', 'http://www.wikidata.org/entity/Q106595920', 'http://www.wikidata.org/entity/Q106595928', 'http://www.wikidata.org/entity/Q106595937', 'http://www.wikidata.org/entity/Q106595945', 'http://www.wikidata.org/entity/Q106595954', 'http://www.wikidata.org/entity/Q106595963', 'http://www.wikidata.org/entity/Q10668100', 'http://www.wikidata.org/entity/Q106685309', 'http://www.wikidata.org/entity/Q10680375', 'http://www.wikidata.org/entity/Q10684386', 'http://www.wikidata.org/entity/Q10706553', 'http://www.wikidata.org/entity/Q107089587', 'http://www.wikidata.org/entity/Q10709353', 'http://www.wikidata.org/entity/Q107112059', 'http://www.wikidata.org/entity/Q10712726', 'http://www.wikidata.org/entity/Q10713122', 'http://www.wikidata.org/entity/Q107293417', 'http://www.wikidata.org/entity/Q1073856', 'http://www.wikidata.org/entity/Q107607703', 'http://www.wikidata.org/entity/Q10766854', 'http://www.wikidata.org/entity/Q108004917', 'http://www.wikidata.org/entity/Q108084314', 'http://www.wikidata.org/entity/Q108293356', 'http://www.wikidata.org/entity/Q10860196', 'http://www.wikidata.org/entity/Q108605363', 'http://www.wikidata.org/entity/Q10862359', 'http://www.wikidata.org/entity/Q10862557', 'http://www.wikidata.org/entity/Q108744469', 'http://www.wikidata.org/entity/Q108919301', 'http://www.wikidata.org/entity/Q1090737', 'http://www.wikidata.org/entity/Q109538749', 'http://www.wikidata.org/entity/Q109556784', 'http://www.wikidata.org/entity/Q109587838', 'http://www.wikidata.org/entity/Q109729135', 'http://www.wikidata.org/entity/Q110033838', 'http://www.wikidata.org/entity/Q110040047', 'http://www.wikidata.org/entity/Q110323699', 'http://www.wikidata.org/entity/Q1103638', 'http://www.wikidata.org/entity/Q110365', 'http://www.wikidata.org/entity/Q110613399', 'http://www.wikidata.org/entity/Q110651456', 'http://www.wikidata.org/entity/Q1106764', 'http://www.wikidata.org/entity/Q110726232', 'http://www.wikidata.org/entity/Q110892400', 'http://www.wikidata.org/entity/Q111043036', 'http://www.wikidata.org/entity/Q111309399', 'http://www.wikidata.org/entity/Q111309402', 'http://www.wikidata.org/entity/Q111309418', 'http://www.wikidata.org/entity/Q111309419', 'http://www.wikidata.org/entity/Q111309435', 'http://www.wikidata.org/entity/Q111309437', 'http://www.wikidata.org/entity/Q111309446', 'http://www.wikidata.org/entity/Q111309449', 'http://www.wikidata.org/entity/Q111309452', 'http://www.wikidata.org/entity/Q111309470', 'http://www.wikidata.org/entity/Q111309481', 'http://www.wikidata.org/entity/Q111309486', 'http://www.wikidata.org/entity/Q111530750', 'http://www.wikidata.org/entity/Q111600223', 'http://www.wikidata.org/entity/Q111667985', 'http://www.wikidata.org/entity/Q111905529', 'http://www.wikidata.org/entity/Q111985803', 'http://www.wikidata.org/entity/Q112034047', 'http://www.wikidata.org/entity/Q112133367', 'http://www.wikidata.org/entity/Q1126097', 'http://www.wikidata.org/entity/Q1127630', 'http://www.wikidata.org/entity/Q112869060', 'http://www.wikidata.org/entity/Q112977212', 'http://www.wikidata.org/entity/Q113362750', 'http://www.wikidata.org/entity/Q1134037', 'http://www.wikidata.org/entity/Q113446650', 'http://www.wikidata.org/entity/Q113487140', 'http://www.wikidata.org/entity/Q113679841', 'http://www.wikidata.org/entity/Q113731765', 'http://www.wikidata.org/entity/Q11394785', 'http://www.wikidata.org/entity/Q1141731', 'http://www.wikidata.org/entity/Q1142950', 'http://www.wikidata.org/entity/Q114456172', 'http://www.wikidata.org/entity/Q114687415', 'http://www.wikidata.org/entity/Q114730010', 'http://www.wikidata.org/entity/Q114958631', 'http://www.wikidata.org/entity/Q115162773', 'http://www.wikidata.org/entity/Q115206376', 'http://www.wikidata.org/entity/Q115242546', 'http://www.wikidata.org/entity/Q115269607', 'http://www.wikidata.org/entity/Q115323752', 'http://www.wikidata.org/entity/Q115739625', 'http://www.wikidata.org/entity/Q115751588', 'http://www.wikidata.org/entity/Q115942832', 'http://www.wikidata.org/entity/Q116141774', 'http://www.wikidata.org/entity/Q116141777', 'http://www.wikidata.org/entity/Q116141779', 'http://www.wikidata.org/entity/Q116141782', 'http://www.wikidata.org/entity/Q116141790', 'http://www.wikidata.org/entity/Q116141792', 'http://www.wikidata.org/entity/Q116141794', 'http://www.wikidata.org/entity/Q116141797', 'http://www.wikidata.org/entity/Q116141803', 'http://www.wikidata.org/entity/Q116141827', 'http://www.wikidata.org/entity/Q116141830', 'http://www.wikidata.org/entity/Q116141831', 'http://www.wikidata.org/entity/Q116141832', 'http://www.wikidata.org/entity/Q116141833', 'http://www.wikidata.org/entity/Q116141834', 'http://www.wikidata.org/entity/Q116141836', 'http://www.wikidata.org/entity/Q116141838', 'http://www.wikidata.org/entity/Q116141839', 'http://www.wikidata.org/entity/Q116141845', 'http://www.wikidata.org/entity/Q116141846', 'http://www.wikidata.org/entity/Q116141853', 'http://www.wikidata.org/entity/Q116141854', 'http://www.wikidata.org/entity/Q116141866', 'http://www.wikidata.org/entity/Q116141868', 'http://www.wikidata.org/entity/Q116141869', 'http://www.wikidata.org/entity/Q116141871', 'http://www.wikidata.org/entity/Q116141872', 'http://www.wikidata.org/entity/Q116141873', 'http://www.wikidata.org/entity/Q116141874', 'http://www.wikidata.org/entity/Q116141899', 'http://www.wikidata.org/entity/Q116141904', 'http://www.wikidata.org/entity/Q116141906', 'http://www.wikidata.org/entity/Q116141909', 'http://www.wikidata.org/entity/Q116141910', 'http://www.wikidata.org/entity/Q116141911', 'http://www.wikidata.org/entity/Q116327000', 'http://www.wikidata.org/entity/Q116385276', 'http://www.wikidata.org/entity/Q1165090', 'http://www.wikidata.org/entity/Q116678683', 'http://www.wikidata.org/entity/Q116687153', 'http://www.wikidata.org/entity/Q1167202', 'http://www.wikidata.org/entity/Q116868452', 'http://www.wikidata.org/entity/Q116923177', 'http://www.wikidata.org/entity/Q117310836', 'http://www.wikidata.org/entity/Q117310838', 'http://www.wikidata.org/entity/Q117310839', 'http://www.wikidata.org/entity/Q117310840', 'http://www.wikidata.org/entity/Q117310841', 'http://www.wikidata.org/entity/Q117310842', 'http://www.wikidata.org/entity/Q117310844', 'http://www.wikidata.org/entity/Q117310845', 'http://www.wikidata.org/entity/Q117310846', 'http://www.wikidata.org/entity/Q117310847', 'http://www.wikidata.org/entity/Q117310848', 'http://www.wikidata.org/entity/Q117310849', 'http://www.wikidata.org/entity/Q117310851', 'http://www.wikidata.org/entity/Q117310852', 'http://www.wikidata.org/entity/Q117310853', 'http://www.wikidata.org/entity/Q117310854', 'http://www.wikidata.org/entity/Q117310855', 'http://www.wikidata.org/entity/Q117310856', 'http://www.wikidata.org/entity/Q117310857', 'http://www.wikidata.org/entity/Q117310859', 'http://www.wikidata.org/entity/Q117310861', 'http://www.wikidata.org/entity/Q117310862', 'http://www.wikidata.org/entity/Q117310863', 'http://www.wikidata.org/entity/Q117310864', 'http://www.wikidata.org/entity/Q117310865', 'http://www.wikidata.org/entity/Q117310866', 'http://www.wikidata.org/entity/Q117310868', 'http://www.wikidata.org/entity/Q117310869', 'http://www.wikidata.org/entity/Q117310870', 'http://www.wikidata.org/entity/Q117310871', 'http://www.wikidata.org/entity/Q117310873', 'http://www.wikidata.org/entity/Q117310874', 'http://www.wikidata.org/entity/Q117310876', 'http://www.wikidata.org/entity/Q117310877', 'http://www.wikidata.org/entity/Q117310878', 'http://www.wikidata.org/entity/Q117310879', 'http://www.wikidata.org/entity/Q117310881', 'http://www.wikidata.org/entity/Q117310882', 'http://www.wikidata.org/entity/Q117310883', 'http://www.wikidata.org/entity/Q117310884', 'http://www.wikidata.org/entity/Q117310885', 'http://www.wikidata.org/entity/Q117310886', 'http://www.wikidata.org/entity/Q117310888', 'http://www.wikidata.org/entity/Q117310889', 'http://www.wikidata.org/entity/Q117310890', 'http://www.wikidata.org/entity/Q117310891', 'http://www.wikidata.org/entity/Q117310892', 'http://www.wikidata.org/entity/Q117310894', 'http://www.wikidata.org/entity/Q117310895', 'http://www.wikidata.org/entity/Q117310896', 'http://www.wikidata.org/entity/Q117310897', 'http://www.wikidata.org/entity/Q117310899', 'http://www.wikidata.org/entity/Q117310900', 'http://www.wikidata.org/entity/Q117310901', 'http://www.wikidata.org/entity/Q117310902', 'http://www.wikidata.org/entity/Q117310903', 'http://www.wikidata.org/entity/Q117310905', 'http://www.wikidata.org/entity/Q117310906', 'http://www.wikidata.org/entity/Q117310907', 'http://www.wikidata.org/entity/Q117310908', 'http://www.wikidata.org/entity/Q117310909', 'http://www.wikidata.org/entity/Q117310910', 'http://www.wikidata.org/entity/Q117310911', 'http://www.wikidata.org/entity/Q117310912', 'http://www.wikidata.org/entity/Q117310913', 'http://www.wikidata.org/entity/Q117310914', 'http://www.wikidata.org/entity/Q117310915', 'http://www.wikidata.org/entity/Q117310916', 'http://www.wikidata.org/entity/Q117310917', 'http://www.wikidata.org/entity/Q117310918', 'http://www.wikidata.org/entity/Q117310920', 'http://www.wikidata.org/entity/Q117310921', 'http://www.wikidata.org/entity/Q117310922', 'http://www.wikidata.org/entity/Q117310923', 'http://www.wikidata.org/entity/Q117310924', 'http://www.wikidata.org/entity/Q117310925', 'http://www.wikidata.org/entity/Q117310927', 'http://www.wikidata.org/entity/Q117310928', 'http://www.wikidata.org/entity/Q117310929', 'http://www.wikidata.org/entity/Q117310930', 'http://www.wikidata.org/entity/Q117310931', 'http://www.wikidata.org/entity/Q117310932', 'http://www.wikidata.org/entity/Q117310934', 'http://www.wikidata.org/entity/Q117310935', 'http://www.wikidata.org/entity/Q117310936', 'http://www.wikidata.org/entity/Q117310937', 'http://www.wikidata.org/entity/Q117310938', 'http://www.wikidata.org/entity/Q117310940', 'http://www.wikidata.org/entity/Q117310941', 'http://www.wikidata.org/entity/Q117310942', 'http://www.wikidata.org/entity/Q117310943', 'http://www.wikidata.org/entity/Q117310944', 'http://www.wikidata.org/entity/Q117310947', 'http://www.wikidata.org/entity/Q117310948', 'http://www.wikidata.org/entity/Q117310949', 'http://www.wikidata.org/entity/Q117310951', 'http://www.wikidata.org/entity/Q117310952', 'http://www.wikidata.org/entity/Q117310953', 'http://www.wikidata.org/entity/Q117310954', 'http://www.wikidata.org/entity/Q117310956', 'http://www.wikidata.org/entity/Q117310957', 'http://www.wikidata.org/entity/Q117310958', 'http://www.wikidata.org/entity/Q117310959', 'http://www.wikidata.org/entity/Q117310960', 'http://www.wikidata.org/entity/Q117310962', 'http://www.wikidata.org/entity/Q117310963', 'http://www.wikidata.org/entity/Q117310964', 'http://www.wikidata.org/entity/Q117310965', 'http://www.wikidata.org/entity/Q117310968', 'http://www.wikidata.org/entity/Q117310969', 'http://www.wikidata.org/entity/Q117310970', 'http://www.wikidata.org/entity/Q117310971', 'http://www.wikidata.org/entity/Q117310972', 'http://www.wikidata.org/entity/Q117310974', 'http://www.wikidata.org/entity/Q117310976', 'http://www.wikidata.org/entity/Q117310977', 'http://www.wikidata.org/entity/Q117310978', 'http://www.wikidata.org/entity/Q117310979', 'http://www.wikidata.org/entity/Q117310981', 'http://www.wikidata.org/entity/Q117310982', 'http://www.wikidata.org/entity/Q117310983', 'http://www.wikidata.org/entity/Q117310984', 'http://www.wikidata.org/entity/Q117310985', 'http://www.wikidata.org/entity/Q117310987', 'http://www.wikidata.org/entity/Q117310988', 'http://www.wikidata.org/entity/Q117310989', 'http://www.wikidata.org/entity/Q117310990', 'http://www.wikidata.org/entity/Q117310991', 'http://www.wikidata.org/entity/Q117310992', 'http://www.wikidata.org/entity/Q117310993', 'http://www.wikidata.org/entity/Q117310995', 'http://www.wikidata.org/entity/Q117310996', 'http://www.wikidata.org/entity/Q117310997', 'http://www.wikidata.org/entity/Q117310998', 'http://www.wikidata.org/entity/Q117310999', 'http://www.wikidata.org/entity/Q117311000', 'http://www.wikidata.org/entity/Q117311002', 'http://www.wikidata.org/entity/Q117311003', 'http://www.wikidata.org/entity/Q117311004', 'http://www.wikidata.org/entity/Q117311005', 'http://www.wikidata.org/entity/Q117311006', 'http://www.wikidata.org/entity/Q117311007', 'http://www.wikidata.org/entity/Q117311009', 'http://www.wikidata.org/entity/Q117311010', 'http://www.wikidata.org/entity/Q117311011', 'http://www.wikidata.org/entity/Q117311012', 'http://www.wikidata.org/entity/Q117311014', 'http://www.wikidata.org/entity/Q117311016', 'http://www.wikidata.org/entity/Q117311017', 'http://www.wikidata.org/entity/Q117311018', 'http://www.wikidata.org/entity/Q117311019', 'http://www.wikidata.org/entity/Q117311020', 'http://www.wikidata.org/entity/Q117311022', 'http://www.wikidata.org/entity/Q117311023', 'http://www.wikidata.org/entity/Q117311024', 'http://www.wikidata.org/entity/Q117311025', 'http://www.wikidata.org/entity/Q117311026', 'http://www.wikidata.org/entity/Q117311027', 'http://www.wikidata.org/entity/Q117311028', 'http://www.wikidata.org/entity/Q117311029', 'http://www.wikidata.org/entity/Q117311031', 'http://www.wikidata.org/entity/Q117311033', 'http://www.wikidata.org/entity/Q117311035', 'http://www.wikidata.org/entity/Q117311036', 'http://www.wikidata.org/entity/Q117311037', 'http://www.wikidata.org/entity/Q117311038', 'http://www.wikidata.org/entity/Q117311039', 'http://www.wikidata.org/entity/Q117311041', 'http://www.wikidata.org/entity/Q117311042', 'http://www.wikidata.org/entity/Q117311043', 'http://www.wikidata.org/entity/Q117311044', 'http://www.wikidata.org/entity/Q117311045', 'http://www.wikidata.org/entity/Q117311047', 'http://www.wikidata.org/entity/Q117311048', 'http://www.wikidata.org/entity/Q117311049', 'http://www.wikidata.org/entity/Q117311051', 'http://www.wikidata.org/entity/Q117311053', 'http://www.wikidata.org/entity/Q117311054', 'http://www.wikidata.org/entity/Q117311055', 'http://www.wikidata.org/entity/Q117311056', 'http://www.wikidata.org/entity/Q117311057', 'http://www.wikidata.org/entity/Q117311059', 'http://www.wikidata.org/entity/Q117311060', 'http://www.wikidata.org/entity/Q117311061', 'http://www.wikidata.org/entity/Q117311062', 'http://www.wikidata.org/entity/Q117311063', 'http://www.wikidata.org/entity/Q117311065', 'http://www.wikidata.org/entity/Q117311066', 'http://www.wikidata.org/entity/Q117311067', 'http://www.wikidata.org/entity/Q117311068', 'http://www.wikidata.org/entity/Q117311069', 'http://www.wikidata.org/entity/Q117311070', 'http://www.wikidata.org/entity/Q117311072', 'http://www.wikidata.org/entity/Q117311073', 'http://www.wikidata.org/entity/Q117311074', 'http://www.wikidata.org/entity/Q117311075', 'http://www.wikidata.org/entity/Q117311076', 'http://www.wikidata.org/entity/Q117311077', 'http://www.wikidata.org/entity/Q117311079', 'http://www.wikidata.org/entity/Q117311080', 'http://www.wikidata.org/entity/Q117311081', 'http://www.wikidata.org/entity/Q117311082', 'http://www.wikidata.org/entity/Q117311083', 'http://www.wikidata.org/entity/Q117311085', 'http://www.wikidata.org/entity/Q117311086', 'http://www.wikidata.org/entity/Q117311087', 'http://www.wikidata.org/entity/Q117311088', 'http://www.wikidata.org/entity/Q117311089', 'http://www.wikidata.org/entity/Q117311090', 'http://www.wikidata.org/entity/Q117311091', 'http://www.wikidata.org/entity/Q117311092', 'http://www.wikidata.org/entity/Q117311093', 'http://www.wikidata.org/entity/Q117311095', 'http://www.wikidata.org/entity/Q117311096', 'http://www.wikidata.org/entity/Q117311097', 'http://www.wikidata.org/entity/Q117311098', 'http://www.wikidata.org/entity/Q117311099', 'http://www.wikidata.org/entity/Q117311100', 'http://www.wikidata.org/entity/Q117311101', 'http://www.wikidata.org/entity/Q117311102', 'http://www.wikidata.org/entity/Q117311103', 'http://www.wikidata.org/entity/Q117311104', 'http://www.wikidata.org/entity/Q117311106', 'http://www.wikidata.org/entity/Q117311107', 'http://www.wikidata.org/entity/Q117311108', 'http://www.wikidata.org/entity/Q117311109', 'http://www.wikidata.org/entity/Q117311110', 'http://www.wikidata.org/entity/Q117311111', 'http://www.wikidata.org/entity/Q117311112', 'http://www.wikidata.org/entity/Q117311113', 'http://www.wikidata.org/entity/Q117311114', 'http://www.wikidata.org/entity/Q117311115', 'http://www.wikidata.org/entity/Q117311116', 'http://www.wikidata.org/entity/Q117311117', 'http://www.wikidata.org/entity/Q117311118', 'http://www.wikidata.org/entity/Q117311119', 'http://www.wikidata.org/entity/Q117311120', 'http://www.wikidata.org/entity/Q117311121', 'http://www.wikidata.org/entity/Q117311122', 'http://www.wikidata.org/entity/Q117311123', 'http://www.wikidata.org/entity/Q117311124', 'http://www.wikidata.org/entity/Q117311125', 'http://www.wikidata.org/entity/Q117311126', 'http://www.wikidata.org/entity/Q117311127', 'http://www.wikidata.org/entity/Q117311128', 'http://www.wikidata.org/entity/Q117311129', 'http://www.wikidata.org/entity/Q117311130', 'http://www.wikidata.org/entity/Q117311131', 'http://www.wikidata.org/entity/Q117311132', 'http://www.wikidata.org/entity/Q117311133', 'http://www.wikidata.org/entity/Q117311134', 'http://www.wikidata.org/entity/Q117311135', 'http://www.wikidata.org/entity/Q117311136', 'http://www.wikidata.org/entity/Q117311137', 'http://www.wikidata.org/entity/Q117311138', 'http://www.wikidata.org/entity/Q117311139', 'http://www.wikidata.org/entity/Q117311140', 'http://www.wikidata.org/entity/Q117311141', 'http://www.wikidata.org/entity/Q117311142', 'http://www.wikidata.org/entity/Q117311143', 'http://www.wikidata.org/entity/Q117311144', 'http://www.wikidata.org/entity/Q117311145', 'http://www.wikidata.org/entity/Q117311146', 'http://www.wikidata.org/entity/Q117311147', 'http://www.wikidata.org/entity/Q117311148', 'http://www.wikidata.org/entity/Q117311149', 'http://www.wikidata.org/entity/Q117311150', 'http://www.wikidata.org/entity/Q117311152', 'http://www.wikidata.org/entity/Q117311153', 'http://www.wikidata.org/entity/Q117311156', 'http://www.wikidata.org/entity/Q117311157', 'http://www.wikidata.org/entity/Q117311159', 'http://www.wikidata.org/entity/Q117311160', 'http://www.wikidata.org/entity/Q117311161', 'http://www.wikidata.org/entity/Q117311162', 'http://www.wikidata.org/entity/Q117311163', 'http://www.wikidata.org/entity/Q117311164', 'http://www.wikidata.org/entity/Q117311165', 'http://www.wikidata.org/entity/Q117311166', 'http://www.wikidata.org/entity/Q117311167', 'http://www.wikidata.org/entity/Q117311169', 'http://www.wikidata.org/entity/Q117311170', 'http://www.wikidata.org/entity/Q117311171', 'http://www.wikidata.org/entity/Q117311172', 'http://www.wikidata.org/entity/Q117311174', 'http://www.wikidata.org/entity/Q117311175', 'http://www.wikidata.org/entity/Q117311176', 'http://www.wikidata.org/entity/Q117311177', 'http://www.wikidata.org/entity/Q117311178', 'http://www.wikidata.org/entity/Q117311179', 'http://www.wikidata.org/entity/Q117311180', 'http://www.wikidata.org/entity/Q117311181', 'http://www.wikidata.org/entity/Q117311182', 'http://www.wikidata.org/entity/Q117311183', 'http://www.wikidata.org/entity/Q117311184', 'http://www.wikidata.org/entity/Q117311185', 'http://www.wikidata.org/entity/Q117311187', 'http://www.wikidata.org/entity/Q117311188', 'http://www.wikidata.org/entity/Q117311189', 'http://www.wikidata.org/entity/Q117311190', 'http://www.wikidata.org/entity/Q117311191', 'http://www.wikidata.org/entity/Q117311192', 'http://www.wikidata.org/entity/Q117311193', 'http://www.wikidata.org/entity/Q117311194', 'http://www.wikidata.org/entity/Q117311195', 'http://www.wikidata.org/entity/Q117311197', 'http://www.wikidata.org/entity/Q117311198', 'http://www.wikidata.org/entity/Q11735883', 'http://www.wikidata.org/entity/Q117378', 'http://www.wikidata.org/entity/Q11750103', 'http://www.wikidata.org/entity/Q11752161', 'http://www.wikidata.org/entity/Q11766799', 'http://www.wikidata.org/entity/Q117828841', 'http://www.wikidata.org/entity/Q117839902', 'http://www.wikidata.org/entity/Q117843336', 'http://www.wikidata.org/entity/Q1179100', 'http://www.wikidata.org/entity/Q1180628', 'http://www.wikidata.org/entity/Q11813146', 'http://www.wikidata.org/entity/Q118773870', 'http://www.wikidata.org/entity/Q118877515', 'http://www.wikidata.org/entity/Q11895713', 'http://www.wikidata.org/entity/Q1192010', 'http://www.wikidata.org/entity/Q1193228', 'http://www.wikidata.org/entity/Q1193235', 'http://www.wikidata.org/entity/Q1193606', 'http://www.wikidata.org/entity/Q11959981', 'http://www.wikidata.org/entity/Q11963321', 'http://www.wikidata.org/entity/Q11968504', 'http://www.wikidata.org/entity/Q119719693', 'http://www.wikidata.org/entity/Q11973255', 'http://www.wikidata.org/entity/Q11975896', 'http://www.wikidata.org/entity/Q11976727', 'http://www.wikidata.org/entity/Q11989359', 'http://www.wikidata.org/entity/Q11991849', 'http://www.wikidata.org/entity/Q11992822', 'http://www.wikidata.org/entity/Q12000812', 'http://www.wikidata.org/entity/Q12001708', 'http://www.wikidata.org/entity/Q12001773', 'http://www.wikidata.org/entity/Q12005098', 'http://www.wikidata.org/entity/Q12008450', 'http://www.wikidata.org/entity/Q12021405', 'http://www.wikidata.org/entity/Q120476405', 'http://www.wikidata.org/entity/Q120892325', 'http://www.wikidata.org/entity/Q12112241', 'http://www.wikidata.org/entity/Q1212397', 'http://www.wikidata.org/entity/Q121268638', 'http://www.wikidata.org/entity/Q121268641', 'http://www.wikidata.org/entity/Q121268646', 'http://www.wikidata.org/entity/Q121268647', 'http://www.wikidata.org/entity/Q121268650', 'http://www.wikidata.org/entity/Q121268661', 'http://www.wikidata.org/entity/Q121268664', 'http://www.wikidata.org/entity/Q121268669', 'http://www.wikidata.org/entity/Q121268679', 'http://www.wikidata.org/entity/Q121268680', 'http://www.wikidata.org/entity/Q121268682', 'http://www.wikidata.org/entity/Q121268686', 'http://www.wikidata.org/entity/Q121268699', 'http://www.wikidata.org/entity/Q121268702', 'http://www.wikidata.org/entity/Q121268704', 'http://www.wikidata.org/entity/Q121302517', 'http://www.wikidata.org/entity/Q121302518', 'http://www.wikidata.org/entity/Q121302519', 'http://www.wikidata.org/entity/Q121302520', 'http://www.wikidata.org/entity/Q121302521', 'http://www.wikidata.org/entity/Q121302522', 'http://www.wikidata.org/entity/Q121302523', 'http://www.wikidata.org/entity/Q121302524', 'http://www.wikidata.org/entity/Q121302526', 'http://www.wikidata.org/entity/Q121302527', 'http://www.wikidata.org/entity/Q121302528', 'http://www.wikidata.org/entity/Q121302529', 'http://www.wikidata.org/entity/Q121302530', 'http://www.wikidata.org/entity/Q121302531', 'http://www.wikidata.org/entity/Q121302533', 'http://www.wikidata.org/entity/Q121302534', 'http://www.wikidata.org/entity/Q121302535', 'http://www.wikidata.org/entity/Q121302536', 'http://www.wikidata.org/entity/Q121302538', 'http://www.wikidata.org/entity/Q121302539', 'http://www.wikidata.org/entity/Q121302541', 'http://www.wikidata.org/entity/Q121302542', 'http://www.wikidata.org/entity/Q121302543', 'http://www.wikidata.org/entity/Q121302544', 'http://www.wikidata.org/entity/Q121302545', 'http://www.wikidata.org/entity/Q121302546', 'http://www.wikidata.org/entity/Q121302547', 'http://www.wikidata.org/entity/Q121302548', 'http://www.wikidata.org/entity/Q121302549', 'http://www.wikidata.org/entity/Q121302550', 'http://www.wikidata.org/entity/Q121302551', 'http://www.wikidata.org/entity/Q121302552', 'http://www.wikidata.org/entity/Q121302553', 'http://www.wikidata.org/entity/Q121302554', 'http://www.wikidata.org/entity/Q121302555', 'http://www.wikidata.org/entity/Q121302556', 'http://www.wikidata.org/entity/Q121302557', 'http://www.wikidata.org/entity/Q121302558', 'http://www.wikidata.org/entity/Q121302560', 'http://www.wikidata.org/entity/Q121302561', 'http://www.wikidata.org/entity/Q121302562', 'http://www.wikidata.org/entity/Q121302563', 'http://www.wikidata.org/entity/Q121302564', 'http://www.wikidata.org/entity/Q121302565', 'http://www.wikidata.org/entity/Q121302566', 'http://www.wikidata.org/entity/Q121302567', 'http://www.wikidata.org/entity/Q121302568', 'http://www.wikidata.org/entity/Q121302569', 'http://www.wikidata.org/entity/Q121302570', 'http://www.wikidata.org/entity/Q121302571', 'http://www.wikidata.org/entity/Q121302573', 'http://www.wikidata.org/entity/Q121302574', 'http://www.wikidata.org/entity/Q121302575', 'http://www.wikidata.org/entity/Q121302576', 'http://www.wikidata.org/entity/Q121302579', 'http://www.wikidata.org/entity/Q121302580', 'http://www.wikidata.org/entity/Q121302581', 'http://www.wikidata.org/entity/Q121302582', 'http://www.wikidata.org/entity/Q121302583', 'http://www.wikidata.org/entity/Q121302584', 'http://www.wikidata.org/entity/Q121302585', 'http://www.wikidata.org/entity/Q121302586', 'http://www.wikidata.org/entity/Q121302588', 'http://www.wikidata.org/entity/Q121302589', 'http://www.wikidata.org/entity/Q121302591', 'http://www.wikidata.org/entity/Q121302592', 'http://www.wikidata.org/entity/Q121302593', 'http://www.wikidata.org/entity/Q121302594', 'http://www.wikidata.org/entity/Q121302595', 'http://www.wikidata.org/entity/Q121302596', 'http://www.wikidata.org/entity/Q121302597', 'http://www.wikidata.org/entity/Q121302598', 'http://www.wikidata.org/entity/Q121302599', 'http://www.wikidata.org/entity/Q121302600', 'http://www.wikidata.org/entity/Q121302601', 'http://www.wikidata.org/entity/Q121302602', 'http://www.wikidata.org/entity/Q121302603', 'http://www.wikidata.org/entity/Q121302604', 'http://www.wikidata.org/entity/Q121302605', 'http://www.wikidata.org/entity/Q121302607', 'http://www.wikidata.org/entity/Q121302608', 'http://www.wikidata.org/entity/Q121302609', 'http://www.wikidata.org/entity/Q121302610', 'http://www.wikidata.org/entity/Q121302611', 'http://www.wikidata.org/entity/Q121302612', 'http://www.wikidata.org/entity/Q121302613', 'http://www.wikidata.org/entity/Q121302614', 'http://www.wikidata.org/entity/Q121302615', 'http://www.wikidata.org/entity/Q121302617', 'http://www.wikidata.org/entity/Q121302618', 'http://www.wikidata.org/entity/Q121302619', 'http://www.wikidata.org/entity/Q121302620', 'http://www.wikidata.org/entity/Q121302621', 'http://www.wikidata.org/entity/Q121302622', 'http://www.wikidata.org/entity/Q121302624', 'http://www.wikidata.org/entity/Q121302625', 'http://www.wikidata.org/entity/Q121302626', 'http://www.wikidata.org/entity/Q121302627', 'http://www.wikidata.org/entity/Q121302628', 'http://www.wikidata.org/entity/Q121302629', 'http://www.wikidata.org/entity/Q121302630', 'http://www.wikidata.org/entity/Q121302631', 'http://www.wikidata.org/entity/Q121302632', 'http://www.wikidata.org/entity/Q121302633', 'http://www.wikidata.org/entity/Q121302634', 'http://www.wikidata.org/entity/Q121302635', 'http://www.wikidata.org/entity/Q121302636', 'http://www.wikidata.org/entity/Q121302637', 'http://www.wikidata.org/entity/Q121302638', 'http://www.wikidata.org/entity/Q121302639', 'http://www.wikidata.org/entity/Q121302640', 'http://www.wikidata.org/entity/Q121302642', 'http://www.wikidata.org/entity/Q121302643', 'http://www.wikidata.org/entity/Q121302644', 'http://www.wikidata.org/entity/Q121302645', 'http://www.wikidata.org/entity/Q121302646', 'http://www.wikidata.org/entity/Q121302647', 'http://www.wikidata.org/entity/Q121302648', 'http://www.wikidata.org/entity/Q121302649', 'http://www.wikidata.org/entity/Q121302650', 'http://www.wikidata.org/entity/Q121302651', 'http://www.wikidata.org/entity/Q121302652', 'http://www.wikidata.org/entity/Q121302653', 'http://www.wikidata.org/entity/Q121302654', 'http://www.wikidata.org/entity/Q121302655', 'http://www.wikidata.org/entity/Q121302656', 'http://www.wikidata.org/entity/Q121302657', 'http://www.wikidata.org/entity/Q121302658', 'http://www.wikidata.org/entity/Q121302659', 'http://www.wikidata.org/entity/Q121302660', 'http://www.wikidata.org/entity/Q121302661', 'http://www.wikidata.org/entity/Q121302662', 'http://www.wikidata.org/entity/Q121302663', 'http://www.wikidata.org/entity/Q121302664', 'http://www.wikidata.org/entity/Q121302665', 'http://www.wikidata.org/entity/Q121302666', 'http://www.wikidata.org/entity/Q121302667', 'http://www.wikidata.org/entity/Q121302668', 'http://www.wikidata.org/entity/Q121302669', 'http://www.wikidata.org/entity/Q121302670', 'http://www.wikidata.org/entity/Q121302671', 'http://www.wikidata.org/entity/Q121302672', 'http://www.wikidata.org/entity/Q121302673', 'http://www.wikidata.org/entity/Q121302674', 'http://www.wikidata.org/entity/Q121302675', 'http://www.wikidata.org/entity/Q121302676', 'http://www.wikidata.org/entity/Q121302677', 'http://www.wikidata.org/entity/Q121302678', 'http://www.wikidata.org/entity/Q121302679', 'http://www.wikidata.org/entity/Q121302681', 'http://www.wikidata.org/entity/Q121302682', 'http://www.wikidata.org/entity/Q121302683', 'http://www.wikidata.org/entity/Q121302684', 'http://www.wikidata.org/entity/Q121302685', 'http://www.wikidata.org/entity/Q121302686', 'http://www.wikidata.org/entity/Q121302687', 'http://www.wikidata.org/entity/Q121302688', 'http://www.wikidata.org/entity/Q121302689', 'http://www.wikidata.org/entity/Q121302690', 'http://www.wikidata.org/entity/Q121302691', 'http://www.wikidata.org/entity/Q121302692', 'http://www.wikidata.org/entity/Q121302693', 'http://www.wikidata.org/entity/Q121302694', 'http://www.wikidata.org/entity/Q121302695', 'http://www.wikidata.org/entity/Q121302696', 'http://www.wikidata.org/entity/Q121302697', 'http://www.wikidata.org/entity/Q121302698', 'http://www.wikidata.org/entity/Q121302699', 'http://www.wikidata.org/entity/Q121302700', 'http://www.wikidata.org/entity/Q121302701', 'http://www.wikidata.org/entity/Q121302703', 'http://www.wikidata.org/entity/Q121302704', 'http://www.wikidata.org/entity/Q121302706', 'http://www.wikidata.org/entity/Q121302707', 'http://www.wikidata.org/entity/Q121302708', 'http://www.wikidata.org/entity/Q121302709', 'http://www.wikidata.org/entity/Q121302710', 'http://www.wikidata.org/entity/Q121302711', 'http://www.wikidata.org/entity/Q121302712', 'http://www.wikidata.org/entity/Q121302713', 'http://www.wikidata.org/entity/Q121302714', 'http://www.wikidata.org/entity/Q121302715', 'http://www.wikidata.org/entity/Q121302716', 'http://www.wikidata.org/entity/Q121302717', 'http://www.wikidata.org/entity/Q121302718', 'http://www.wikidata.org/entity/Q121302720', 'http://www.wikidata.org/entity/Q1</t>
+        </is>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>To which countries does the Himalayan mountain system extend?</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q668', 'http://www.wikidata.org/entity/Q836', 'http://www.wikidata.org/entity/Q837', 'http://www.wikidata.org/entity/Q843', 'http://www.wikidata.org/entity/Q889', 'http://www.wikidata.org/entity/Q917']</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>['http://www.wikidata.org/entity/Q736']</t>
+        </is>
+      </c>
+      <c r="D27" t="b">
         <v>0</v>
       </c>
     </row>
